--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.912</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>3.882233333333331</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>3.881199999999998</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>3.880166666666665</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>3.879133333333332</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>3.878133333333332</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>3.876799999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.888</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -754,14 +702,8 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -789,22 +731,14 @@
         <v>3.875416666666665</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -838,14 +772,8 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -879,14 +807,8 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,14 +842,8 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -961,14 +877,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1002,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1043,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1084,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1125,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1166,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1207,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1248,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1289,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1327,17 +1189,11 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1371,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1409,17 +1259,11 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1453,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1494,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1535,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1573,17 +1399,11 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1614,19 +1434,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>1.014427402862986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1690,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1725,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1760,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.912</v>
+        <v>3.88</v>
       </c>
       <c r="C2" t="n">
         <v>3.912</v>
@@ -442,16 +442,16 @@
         <v>3.912</v>
       </c>
       <c r="E2" t="n">
-        <v>3.912</v>
+        <v>3.88</v>
       </c>
       <c r="F2" t="n">
-        <v>51125.7566</v>
+        <v>22280.804731083</v>
       </c>
       <c r="G2" t="n">
-        <v>3.882283333333331</v>
+        <v>3.882349999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.905</v>
+        <v>3.912</v>
       </c>
       <c r="C3" t="n">
         <v>3.912</v>
@@ -477,13 +477,13 @@
         <v>3.912</v>
       </c>
       <c r="E3" t="n">
-        <v>3.858</v>
+        <v>3.912</v>
       </c>
       <c r="F3" t="n">
-        <v>271920.1424</v>
+        <v>51125.7566</v>
       </c>
       <c r="G3" t="n">
-        <v>3.882233333333331</v>
+        <v>3.882283333333331</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.888</v>
+        <v>3.905</v>
       </c>
       <c r="C4" t="n">
-        <v>3.888</v>
+        <v>3.912</v>
       </c>
       <c r="D4" t="n">
-        <v>3.888</v>
+        <v>3.912</v>
       </c>
       <c r="E4" t="n">
-        <v>3.888</v>
+        <v>3.858</v>
       </c>
       <c r="F4" t="n">
-        <v>1818.1818</v>
+        <v>271920.1424</v>
       </c>
       <c r="G4" t="n">
-        <v>3.881199999999998</v>
+        <v>3.882233333333331</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>3.888</v>
       </c>
       <c r="F5" t="n">
-        <v>123349.9475</v>
+        <v>1818.1818</v>
       </c>
       <c r="G5" t="n">
-        <v>3.880166666666665</v>
+        <v>3.881199999999998</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>3.888</v>
       </c>
       <c r="F6" t="n">
-        <v>33763.5953</v>
+        <v>123349.9475</v>
       </c>
       <c r="G6" t="n">
-        <v>3.879133333333332</v>
+        <v>3.880166666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -611,19 +611,19 @@
         <v>3.888</v>
       </c>
       <c r="C7" t="n">
-        <v>3.89</v>
+        <v>3.888</v>
       </c>
       <c r="D7" t="n">
-        <v>3.89</v>
+        <v>3.888</v>
       </c>
       <c r="E7" t="n">
         <v>3.888</v>
       </c>
       <c r="F7" t="n">
-        <v>11662.3952</v>
+        <v>33763.5953</v>
       </c>
       <c r="G7" t="n">
-        <v>3.878133333333332</v>
+        <v>3.879133333333332</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>3.888</v>
       </c>
       <c r="C8" t="n">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="D8" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="E8" t="n">
         <v>3.888</v>
       </c>
-      <c r="E8" t="n">
-        <v>3.87</v>
-      </c>
       <c r="F8" t="n">
-        <v>92000</v>
+        <v>11662.3952</v>
       </c>
       <c r="G8" t="n">
-        <v>3.876799999999998</v>
+        <v>3.878133333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.89</v>
+        <v>3.888</v>
       </c>
       <c r="C9" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="D9" t="n">
-        <v>3.89</v>
+        <v>3.888</v>
       </c>
       <c r="E9" t="n">
-        <v>3.89</v>
+        <v>3.87</v>
       </c>
       <c r="F9" t="n">
-        <v>129</v>
+        <v>92000</v>
       </c>
       <c r="G9" t="n">
-        <v>3.876616666666665</v>
+        <v>3.876799999999998</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>3.89</v>
       </c>
       <c r="F10" t="n">
-        <v>6541.2773</v>
+        <v>129</v>
       </c>
       <c r="G10" t="n">
-        <v>3.875416666666665</v>
+        <v>3.876616666666665</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.87</v>
+        <v>3.89</v>
       </c>
       <c r="C11" t="n">
-        <v>3.871</v>
+        <v>3.89</v>
       </c>
       <c r="D11" t="n">
-        <v>3.871</v>
+        <v>3.89</v>
       </c>
       <c r="E11" t="n">
-        <v>3.869</v>
+        <v>3.89</v>
       </c>
       <c r="F11" t="n">
-        <v>2647343.3986</v>
+        <v>6541.2773</v>
       </c>
       <c r="G11" t="n">
-        <v>3.873899999999999</v>
+        <v>3.875416666666665</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.871</v>
+        <v>3.87</v>
       </c>
       <c r="C12" t="n">
         <v>3.871</v>
@@ -792,13 +792,13 @@
         <v>3.871</v>
       </c>
       <c r="E12" t="n">
-        <v>3.871</v>
+        <v>3.869</v>
       </c>
       <c r="F12" t="n">
-        <v>23047.031</v>
+        <v>2647343.3986</v>
       </c>
       <c r="G12" t="n">
-        <v>3.872383333333332</v>
+        <v>3.873899999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>3.871</v>
       </c>
       <c r="C13" t="n">
-        <v>3.902</v>
+        <v>3.871</v>
       </c>
       <c r="D13" t="n">
-        <v>3.902</v>
+        <v>3.871</v>
       </c>
       <c r="E13" t="n">
         <v>3.871</v>
       </c>
       <c r="F13" t="n">
-        <v>3121.932128805</v>
+        <v>23047.031</v>
       </c>
       <c r="G13" t="n">
-        <v>3.870766666666666</v>
+        <v>3.872383333333332</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.912</v>
+        <v>3.871</v>
       </c>
       <c r="C14" t="n">
-        <v>3.912</v>
+        <v>3.902</v>
       </c>
       <c r="D14" t="n">
-        <v>3.912</v>
+        <v>3.902</v>
       </c>
       <c r="E14" t="n">
-        <v>3.912</v>
+        <v>3.871</v>
       </c>
       <c r="F14" t="n">
-        <v>8159.9179</v>
+        <v>3121.932128805</v>
       </c>
       <c r="G14" t="n">
-        <v>3.869933333333333</v>
+        <v>3.870766666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.893</v>
+        <v>3.912</v>
       </c>
       <c r="C15" t="n">
-        <v>3.893</v>
+        <v>3.912</v>
       </c>
       <c r="D15" t="n">
-        <v>3.893</v>
+        <v>3.912</v>
       </c>
       <c r="E15" t="n">
-        <v>3.893</v>
+        <v>3.912</v>
       </c>
       <c r="F15" t="n">
-        <v>11111</v>
+        <v>8159.9179</v>
       </c>
       <c r="G15" t="n">
-        <v>3.868999999999999</v>
+        <v>3.869933333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -926,19 +926,19 @@
         <v>3.893</v>
       </c>
       <c r="C16" t="n">
-        <v>3.892</v>
+        <v>3.893</v>
       </c>
       <c r="D16" t="n">
         <v>3.893</v>
       </c>
       <c r="E16" t="n">
-        <v>3.892</v>
+        <v>3.893</v>
       </c>
       <c r="F16" t="n">
-        <v>128764.8606</v>
+        <v>11111</v>
       </c>
       <c r="G16" t="n">
-        <v>3.868366666666665</v>
+        <v>3.868999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.905</v>
+        <v>3.893</v>
       </c>
       <c r="C17" t="n">
-        <v>3.905</v>
+        <v>3.892</v>
       </c>
       <c r="D17" t="n">
-        <v>3.905</v>
+        <v>3.893</v>
       </c>
       <c r="E17" t="n">
-        <v>3.905</v>
+        <v>3.892</v>
       </c>
       <c r="F17" t="n">
-        <v>129</v>
+        <v>128764.8606</v>
       </c>
       <c r="G17" t="n">
-        <v>3.867783333333332</v>
+        <v>3.868366666666665</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>3.905</v>
       </c>
       <c r="C18" t="n">
-        <v>3.908</v>
+        <v>3.905</v>
       </c>
       <c r="D18" t="n">
-        <v>3.908</v>
+        <v>3.905</v>
       </c>
       <c r="E18" t="n">
         <v>3.905</v>
       </c>
       <c r="F18" t="n">
-        <v>57737.9519</v>
+        <v>129</v>
       </c>
       <c r="G18" t="n">
-        <v>3.867249999999999</v>
+        <v>3.867783333333332</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.909</v>
+        <v>3.905</v>
       </c>
       <c r="C19" t="n">
-        <v>3.95</v>
+        <v>3.908</v>
       </c>
       <c r="D19" t="n">
-        <v>3.95</v>
+        <v>3.908</v>
       </c>
       <c r="E19" t="n">
-        <v>3.909</v>
+        <v>3.905</v>
       </c>
       <c r="F19" t="n">
-        <v>231479.7527</v>
+        <v>57737.9519</v>
       </c>
       <c r="G19" t="n">
-        <v>3.867966666666665</v>
+        <v>3.867249999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.95</v>
+        <v>3.909</v>
       </c>
       <c r="C20" t="n">
         <v>3.95</v>
@@ -1072,13 +1072,13 @@
         <v>3.95</v>
       </c>
       <c r="E20" t="n">
-        <v>3.95</v>
+        <v>3.909</v>
       </c>
       <c r="F20" t="n">
-        <v>112841.4842</v>
+        <v>231479.7527</v>
       </c>
       <c r="G20" t="n">
-        <v>3.868983333333331</v>
+        <v>3.867966666666665</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>3.95</v>
       </c>
       <c r="C21" t="n">
-        <v>3.999</v>
+        <v>3.95</v>
       </c>
       <c r="D21" t="n">
-        <v>3.999</v>
+        <v>3.95</v>
       </c>
       <c r="E21" t="n">
         <v>3.95</v>
       </c>
       <c r="F21" t="n">
-        <v>722767.4254167289</v>
+        <v>112841.4842</v>
       </c>
       <c r="G21" t="n">
-        <v>3.870966666666665</v>
+        <v>3.868983333333331</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="C22" t="n">
-        <v>3.96</v>
+        <v>3.999</v>
       </c>
       <c r="D22" t="n">
-        <v>3.96</v>
+        <v>3.999</v>
       </c>
       <c r="E22" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="F22" t="n">
-        <v>5056.89</v>
+        <v>722767.4254167289</v>
       </c>
       <c r="G22" t="n">
-        <v>3.871999999999998</v>
+        <v>3.870966666666665</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,25 +1171,25 @@
         <v>3.96</v>
       </c>
       <c r="C23" t="n">
-        <v>3.999</v>
+        <v>3.96</v>
       </c>
       <c r="D23" t="n">
-        <v>3.999</v>
+        <v>3.96</v>
       </c>
       <c r="E23" t="n">
         <v>3.96</v>
       </c>
       <c r="F23" t="n">
-        <v>126561.818388421</v>
+        <v>5056.89</v>
       </c>
       <c r="G23" t="n">
-        <v>3.874133333333331</v>
+        <v>3.871999999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1203,28 +1203,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="C24" t="n">
-        <v>3.95</v>
+        <v>3.999</v>
       </c>
       <c r="D24" t="n">
-        <v>3.95</v>
+        <v>3.999</v>
       </c>
       <c r="E24" t="n">
-        <v>3.95</v>
+        <v>3.96</v>
       </c>
       <c r="F24" t="n">
-        <v>83206.9185</v>
+        <v>126561.818388421</v>
       </c>
       <c r="G24" t="n">
-        <v>3.875466666666664</v>
+        <v>3.874133333333331</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.988</v>
+        <v>3.95</v>
       </c>
       <c r="C25" t="n">
-        <v>3.988</v>
+        <v>3.95</v>
       </c>
       <c r="D25" t="n">
-        <v>3.988</v>
+        <v>3.95</v>
       </c>
       <c r="E25" t="n">
-        <v>3.988</v>
+        <v>3.95</v>
       </c>
       <c r="F25" t="n">
-        <v>128</v>
+        <v>83206.9185</v>
       </c>
       <c r="G25" t="n">
-        <v>3.877433333333331</v>
+        <v>3.875466666666664</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>3.988</v>
       </c>
       <c r="F26" t="n">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="G26" t="n">
-        <v>3.879399999999997</v>
+        <v>3.877433333333331</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>3.988</v>
       </c>
       <c r="F27" t="n">
-        <v>77168.5545</v>
+        <v>500</v>
       </c>
       <c r="G27" t="n">
-        <v>3.881366666666664</v>
+        <v>3.879399999999997</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="C28" t="n">
         <v>3.988</v>
@@ -1352,13 +1352,13 @@
         <v>3.988</v>
       </c>
       <c r="E28" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="F28" t="n">
-        <v>50036.8637</v>
+        <v>77168.5545</v>
       </c>
       <c r="G28" t="n">
-        <v>3.883333333333331</v>
+        <v>3.881366666666664</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1381,25 +1381,25 @@
         <v>3.978</v>
       </c>
       <c r="C29" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="D29" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="E29" t="n">
         <v>3.978</v>
       </c>
       <c r="F29" t="n">
-        <v>260.111</v>
+        <v>50036.8637</v>
       </c>
       <c r="G29" t="n">
-        <v>3.885266666666664</v>
+        <v>3.883333333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.988</v>
+        <v>3.978</v>
       </c>
       <c r="C30" t="n">
-        <v>3.988</v>
+        <v>3.978</v>
       </c>
       <c r="D30" t="n">
-        <v>3.988</v>
+        <v>3.978</v>
       </c>
       <c r="E30" t="n">
-        <v>3.988</v>
+        <v>3.978</v>
       </c>
       <c r="F30" t="n">
-        <v>10140</v>
+        <v>260.111</v>
       </c>
       <c r="G30" t="n">
-        <v>3.887383333333331</v>
+        <v>3.885266666666664</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>3.988</v>
       </c>
       <c r="F31" t="n">
-        <v>28749.1162</v>
+        <v>10140</v>
       </c>
       <c r="G31" t="n">
-        <v>3.889499999999998</v>
+        <v>3.887383333333331</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="C32" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="D32" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="E32" t="n">
-        <v>3.978</v>
+        <v>3.988</v>
       </c>
       <c r="F32" t="n">
-        <v>41185.8055</v>
+        <v>28749.1162</v>
       </c>
       <c r="G32" t="n">
-        <v>3.891449999999998</v>
+        <v>3.889499999999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.942</v>
+        <v>3.978</v>
       </c>
       <c r="C33" t="n">
-        <v>3.942</v>
+        <v>3.978</v>
       </c>
       <c r="D33" t="n">
-        <v>3.942</v>
+        <v>3.978</v>
       </c>
       <c r="E33" t="n">
-        <v>3.942</v>
+        <v>3.978</v>
       </c>
       <c r="F33" t="n">
-        <v>34973.8986</v>
+        <v>41185.8055</v>
       </c>
       <c r="G33" t="n">
-        <v>3.892749999999998</v>
+        <v>3.891449999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.977</v>
+        <v>3.942</v>
       </c>
       <c r="C34" t="n">
-        <v>3.977</v>
+        <v>3.942</v>
       </c>
       <c r="D34" t="n">
-        <v>3.977</v>
+        <v>3.942</v>
       </c>
       <c r="E34" t="n">
-        <v>3.977</v>
+        <v>3.942</v>
       </c>
       <c r="F34" t="n">
-        <v>11273.899</v>
+        <v>34973.8986</v>
       </c>
       <c r="G34" t="n">
-        <v>3.894649999999998</v>
+        <v>3.892749999999998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.942</v>
+        <v>3.977</v>
       </c>
       <c r="C35" t="n">
-        <v>3.932</v>
+        <v>3.977</v>
       </c>
       <c r="D35" t="n">
-        <v>3.942</v>
+        <v>3.977</v>
       </c>
       <c r="E35" t="n">
-        <v>3.932</v>
+        <v>3.977</v>
       </c>
       <c r="F35" t="n">
-        <v>159252.649</v>
+        <v>11273.899</v>
       </c>
       <c r="G35" t="n">
-        <v>3.895799999999998</v>
+        <v>3.894649999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>3.942</v>
       </c>
       <c r="C36" t="n">
-        <v>3.942</v>
+        <v>3.932</v>
       </c>
       <c r="D36" t="n">
         <v>3.942</v>
       </c>
       <c r="E36" t="n">
-        <v>3.942</v>
+        <v>3.932</v>
       </c>
       <c r="F36" t="n">
-        <v>22815.8729</v>
+        <v>159252.649</v>
       </c>
       <c r="G36" t="n">
-        <v>3.897633333333332</v>
+        <v>3.895799999999998</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.932</v>
+        <v>3.942</v>
       </c>
       <c r="C37" t="n">
-        <v>3.915</v>
+        <v>3.942</v>
       </c>
       <c r="D37" t="n">
-        <v>3.932</v>
+        <v>3.942</v>
       </c>
       <c r="E37" t="n">
-        <v>3.915</v>
+        <v>3.942</v>
       </c>
       <c r="F37" t="n">
-        <v>1053495.1941</v>
+        <v>22815.8729</v>
       </c>
       <c r="G37" t="n">
-        <v>3.899133333333332</v>
+        <v>3.897633333333332</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.959</v>
+        <v>3.932</v>
       </c>
       <c r="C38" t="n">
-        <v>3.959</v>
+        <v>3.915</v>
       </c>
       <c r="D38" t="n">
-        <v>3.959</v>
+        <v>3.932</v>
       </c>
       <c r="E38" t="n">
-        <v>3.959</v>
+        <v>3.915</v>
       </c>
       <c r="F38" t="n">
-        <v>127</v>
+        <v>1053495.1941</v>
       </c>
       <c r="G38" t="n">
-        <v>3.901616666666665</v>
+        <v>3.899133333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.932</v>
+        <v>3.959</v>
       </c>
       <c r="C39" t="n">
-        <v>3.949</v>
+        <v>3.959</v>
       </c>
       <c r="D39" t="n">
-        <v>3.949</v>
+        <v>3.959</v>
       </c>
       <c r="E39" t="n">
-        <v>3.915</v>
+        <v>3.959</v>
       </c>
       <c r="F39" t="n">
-        <v>1044115.4327</v>
+        <v>127</v>
       </c>
       <c r="G39" t="n">
-        <v>3.903199999999998</v>
+        <v>3.901616666666665</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.948</v>
+        <v>3.932</v>
       </c>
       <c r="C40" t="n">
-        <v>3.948</v>
+        <v>3.949</v>
       </c>
       <c r="D40" t="n">
-        <v>3.948</v>
+        <v>3.949</v>
       </c>
       <c r="E40" t="n">
-        <v>3.948</v>
+        <v>3.915</v>
       </c>
       <c r="F40" t="n">
-        <v>49750.3223</v>
+        <v>1044115.4327</v>
       </c>
       <c r="G40" t="n">
-        <v>3.904766666666665</v>
+        <v>3.903199999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.915</v>
+        <v>3.948</v>
       </c>
       <c r="C41" t="n">
-        <v>3.892</v>
+        <v>3.948</v>
       </c>
       <c r="D41" t="n">
-        <v>3.915</v>
+        <v>3.948</v>
       </c>
       <c r="E41" t="n">
-        <v>3.892</v>
+        <v>3.948</v>
       </c>
       <c r="F41" t="n">
-        <v>831413.3551</v>
+        <v>49750.3223</v>
       </c>
       <c r="G41" t="n">
-        <v>3.905399999999998</v>
+        <v>3.904766666666665</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.937</v>
+        <v>3.915</v>
       </c>
       <c r="C42" t="n">
-        <v>3.937</v>
+        <v>3.892</v>
       </c>
       <c r="D42" t="n">
-        <v>3.937</v>
+        <v>3.915</v>
       </c>
       <c r="E42" t="n">
-        <v>3.937</v>
+        <v>3.892</v>
       </c>
       <c r="F42" t="n">
-        <v>200</v>
+        <v>831413.3551</v>
       </c>
       <c r="G42" t="n">
-        <v>3.907449999999998</v>
+        <v>3.905399999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>3.937</v>
       </c>
       <c r="F43" t="n">
-        <v>13326.177</v>
+        <v>200</v>
       </c>
       <c r="G43" t="n">
-        <v>3.909499999999999</v>
+        <v>3.907449999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.938</v>
+        <v>3.937</v>
       </c>
       <c r="C44" t="n">
-        <v>3.938</v>
+        <v>3.937</v>
       </c>
       <c r="D44" t="n">
-        <v>3.938</v>
+        <v>3.937</v>
       </c>
       <c r="E44" t="n">
-        <v>3.938</v>
+        <v>3.937</v>
       </c>
       <c r="F44" t="n">
-        <v>11840</v>
+        <v>13326.177</v>
       </c>
       <c r="G44" t="n">
-        <v>3.911566666666665</v>
+        <v>3.909499999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.937</v>
+        <v>3.938</v>
       </c>
       <c r="C45" t="n">
-        <v>3.937</v>
+        <v>3.938</v>
       </c>
       <c r="D45" t="n">
-        <v>3.937</v>
+        <v>3.938</v>
       </c>
       <c r="E45" t="n">
-        <v>3.937</v>
+        <v>3.938</v>
       </c>
       <c r="F45" t="n">
-        <v>1000</v>
+        <v>11840</v>
       </c>
       <c r="G45" t="n">
-        <v>3.913683333333332</v>
+        <v>3.911566666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.902</v>
+        <v>3.937</v>
       </c>
       <c r="C46" t="n">
-        <v>3.902</v>
+        <v>3.937</v>
       </c>
       <c r="D46" t="n">
-        <v>3.902</v>
+        <v>3.937</v>
       </c>
       <c r="E46" t="n">
-        <v>3.902</v>
+        <v>3.937</v>
       </c>
       <c r="F46" t="n">
-        <v>11960</v>
+        <v>1000</v>
       </c>
       <c r="G46" t="n">
-        <v>3.915216666666665</v>
+        <v>3.913683333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.893</v>
+        <v>3.902</v>
       </c>
       <c r="C47" t="n">
-        <v>3.893</v>
+        <v>3.902</v>
       </c>
       <c r="D47" t="n">
-        <v>3.893</v>
+        <v>3.902</v>
       </c>
       <c r="E47" t="n">
-        <v>3.893</v>
+        <v>3.902</v>
       </c>
       <c r="F47" t="n">
-        <v>15492.3761</v>
+        <v>11960</v>
       </c>
       <c r="G47" t="n">
-        <v>3.915883333333332</v>
+        <v>3.915216666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.937</v>
+        <v>3.893</v>
       </c>
       <c r="C48" t="n">
-        <v>3.938</v>
+        <v>3.893</v>
       </c>
       <c r="D48" t="n">
-        <v>3.938</v>
+        <v>3.893</v>
       </c>
       <c r="E48" t="n">
-        <v>3.937</v>
+        <v>3.893</v>
       </c>
       <c r="F48" t="n">
-        <v>26357.795835449</v>
+        <v>15492.3761</v>
       </c>
       <c r="G48" t="n">
-        <v>3.917216666666664</v>
+        <v>3.915883333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.928</v>
+        <v>3.937</v>
       </c>
       <c r="C49" t="n">
-        <v>3.928</v>
+        <v>3.938</v>
       </c>
       <c r="D49" t="n">
-        <v>3.928</v>
+        <v>3.938</v>
       </c>
       <c r="E49" t="n">
-        <v>3.928</v>
+        <v>3.937</v>
       </c>
       <c r="F49" t="n">
-        <v>128</v>
+        <v>26357.795835449</v>
       </c>
       <c r="G49" t="n">
-        <v>3.918383333333331</v>
+        <v>3.917216666666664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.902</v>
+        <v>3.928</v>
       </c>
       <c r="C50" t="n">
-        <v>3.902</v>
+        <v>3.928</v>
       </c>
       <c r="D50" t="n">
-        <v>3.902</v>
+        <v>3.928</v>
       </c>
       <c r="E50" t="n">
-        <v>3.902</v>
+        <v>3.928</v>
       </c>
       <c r="F50" t="n">
-        <v>1945.7048</v>
+        <v>128</v>
       </c>
       <c r="G50" t="n">
-        <v>3.918916666666664</v>
+        <v>3.918383333333331</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.937</v>
+        <v>3.902</v>
       </c>
       <c r="C51" t="n">
-        <v>3.937</v>
+        <v>3.902</v>
       </c>
       <c r="D51" t="n">
-        <v>3.937</v>
+        <v>3.902</v>
       </c>
       <c r="E51" t="n">
-        <v>3.937</v>
+        <v>3.902</v>
       </c>
       <c r="F51" t="n">
-        <v>127</v>
+        <v>1945.7048</v>
       </c>
       <c r="G51" t="n">
-        <v>3.919166666666664</v>
+        <v>3.918916666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,31 +2183,35 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="C52" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="F52" t="n">
+        <v>127</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.919166666666664</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>3.902</v>
       </c>
-      <c r="C52" t="n">
+      <c r="K52" t="n">
         <v>3.902</v>
       </c>
-      <c r="D52" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="F52" t="n">
-        <v>6461.8709</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3.918999999999997</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
@@ -2218,22 +2222,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.904</v>
+        <v>3.902</v>
       </c>
       <c r="C53" t="n">
-        <v>3.904</v>
+        <v>3.902</v>
       </c>
       <c r="D53" t="n">
-        <v>3.904</v>
+        <v>3.902</v>
       </c>
       <c r="E53" t="n">
-        <v>3.904</v>
+        <v>3.902</v>
       </c>
       <c r="F53" t="n">
-        <v>8310</v>
+        <v>6461.8709</v>
       </c>
       <c r="G53" t="n">
-        <v>3.919399999999997</v>
+        <v>3.918999999999997</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2263,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.894</v>
+        <v>3.904</v>
       </c>
       <c r="C54" t="n">
-        <v>3.894</v>
+        <v>3.904</v>
       </c>
       <c r="D54" t="n">
-        <v>3.894</v>
+        <v>3.904</v>
       </c>
       <c r="E54" t="n">
-        <v>3.894</v>
+        <v>3.904</v>
       </c>
       <c r="F54" t="n">
-        <v>12294.1177</v>
+        <v>8310</v>
       </c>
       <c r="G54" t="n">
-        <v>3.920916666666664</v>
+        <v>3.919399999999997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,8 +2287,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2288,31 +2304,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.937</v>
+        <v>3.894</v>
       </c>
       <c r="C55" t="n">
-        <v>3.937</v>
+        <v>3.894</v>
       </c>
       <c r="D55" t="n">
-        <v>3.937</v>
+        <v>3.894</v>
       </c>
       <c r="E55" t="n">
-        <v>3.937</v>
+        <v>3.894</v>
       </c>
       <c r="F55" t="n">
-        <v>128</v>
+        <v>12294.1177</v>
       </c>
       <c r="G55" t="n">
-        <v>3.923116666666664</v>
+        <v>3.920916666666664</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.904</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.904</v>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2323,32 +2343,40 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="C56" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="D56" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="E56" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="F56" t="n">
-        <v>22815.8729</v>
+        <v>128</v>
       </c>
       <c r="G56" t="n">
-        <v>3.924616666666664</v>
+        <v>3.923116666666664</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3.904</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2386,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.936</v>
+        <v>3.895</v>
       </c>
       <c r="C57" t="n">
-        <v>3.936</v>
+        <v>3.895</v>
       </c>
       <c r="D57" t="n">
-        <v>3.936</v>
+        <v>3.895</v>
       </c>
       <c r="E57" t="n">
-        <v>3.936</v>
+        <v>3.895</v>
       </c>
       <c r="F57" t="n">
-        <v>22815.873</v>
+        <v>22815.8729</v>
       </c>
       <c r="G57" t="n">
-        <v>3.925916666666665</v>
+        <v>3.924616666666664</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,8 +2410,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>3.904</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2427,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.937</v>
+        <v>3.936</v>
       </c>
       <c r="C58" t="n">
-        <v>3.937</v>
+        <v>3.936</v>
       </c>
       <c r="D58" t="n">
-        <v>3.937</v>
+        <v>3.936</v>
       </c>
       <c r="E58" t="n">
-        <v>3.937</v>
+        <v>3.936</v>
       </c>
       <c r="F58" t="n">
-        <v>22717.4329</v>
+        <v>22815.873</v>
       </c>
       <c r="G58" t="n">
-        <v>3.927233333333331</v>
+        <v>3.925916666666665</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2462,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="C59" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="D59" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="E59" t="n">
-        <v>3.895</v>
+        <v>3.937</v>
       </c>
       <c r="F59" t="n">
-        <v>156148.4449</v>
+        <v>22717.4329</v>
       </c>
       <c r="G59" t="n">
-        <v>3.927849999999998</v>
+        <v>3.927233333333331</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2509,10 @@
         <v>3.895</v>
       </c>
       <c r="F60" t="n">
-        <v>159252.649</v>
+        <v>156148.4449</v>
       </c>
       <c r="G60" t="n">
-        <v>3.928099999999998</v>
+        <v>3.927849999999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2532,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.937</v>
+        <v>3.895</v>
       </c>
       <c r="C61" t="n">
-        <v>3.937</v>
+        <v>3.895</v>
       </c>
       <c r="D61" t="n">
-        <v>3.937</v>
+        <v>3.895</v>
       </c>
       <c r="E61" t="n">
-        <v>3.937</v>
+        <v>3.895</v>
       </c>
       <c r="F61" t="n">
-        <v>127</v>
+        <v>159252.649</v>
       </c>
       <c r="G61" t="n">
-        <v>3.928516666666665</v>
+        <v>3.928099999999998</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2579,10 @@
         <v>3.937</v>
       </c>
       <c r="F62" t="n">
-        <v>40000</v>
+        <v>127</v>
       </c>
       <c r="G62" t="n">
-        <v>3.928933333333332</v>
+        <v>3.928516666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2602,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.935</v>
+        <v>3.937</v>
       </c>
       <c r="C63" t="n">
-        <v>3.935</v>
+        <v>3.937</v>
       </c>
       <c r="D63" t="n">
-        <v>3.935</v>
+        <v>3.937</v>
       </c>
       <c r="E63" t="n">
-        <v>3.935</v>
+        <v>3.937</v>
       </c>
       <c r="F63" t="n">
-        <v>16477.2313</v>
+        <v>40000</v>
       </c>
       <c r="G63" t="n">
-        <v>3.929316666666665</v>
+        <v>3.928933333333332</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2637,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.93</v>
+        <v>3.935</v>
       </c>
       <c r="C64" t="n">
-        <v>3.93</v>
+        <v>3.935</v>
       </c>
       <c r="D64" t="n">
-        <v>3.93</v>
+        <v>3.935</v>
       </c>
       <c r="E64" t="n">
-        <v>3.93</v>
+        <v>3.935</v>
       </c>
       <c r="F64" t="n">
-        <v>69325.4152</v>
+        <v>16477.2313</v>
       </c>
       <c r="G64" t="n">
-        <v>3.930016666666665</v>
+        <v>3.929316666666665</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2684,10 @@
         <v>3.93</v>
       </c>
       <c r="F65" t="n">
-        <v>181954.766</v>
+        <v>69325.4152</v>
       </c>
       <c r="G65" t="n">
-        <v>3.930716666666665</v>
+        <v>3.930016666666665</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2707,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.906</v>
+        <v>3.93</v>
       </c>
       <c r="C66" t="n">
-        <v>3.906</v>
+        <v>3.93</v>
       </c>
       <c r="D66" t="n">
-        <v>3.906</v>
+        <v>3.93</v>
       </c>
       <c r="E66" t="n">
-        <v>3.906</v>
+        <v>3.93</v>
       </c>
       <c r="F66" t="n">
-        <v>8230</v>
+        <v>181954.766</v>
       </c>
       <c r="G66" t="n">
-        <v>3.931016666666665</v>
+        <v>3.930716666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2742,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.896</v>
+        <v>3.906</v>
       </c>
       <c r="C67" t="n">
-        <v>3.896</v>
+        <v>3.906</v>
       </c>
       <c r="D67" t="n">
-        <v>3.896</v>
+        <v>3.906</v>
       </c>
       <c r="E67" t="n">
-        <v>3.896</v>
+        <v>3.906</v>
       </c>
       <c r="F67" t="n">
-        <v>30659.1162</v>
+        <v>8230</v>
       </c>
       <c r="G67" t="n">
-        <v>3.931116666666665</v>
+        <v>3.931016666666665</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2777,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="C68" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="D68" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="E68" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="F68" t="n">
-        <v>128</v>
+        <v>30659.1162</v>
       </c>
       <c r="G68" t="n">
-        <v>3.932033333333332</v>
+        <v>3.931116666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2812,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.896</v>
+        <v>3.925</v>
       </c>
       <c r="C69" t="n">
-        <v>3.896</v>
+        <v>3.925</v>
       </c>
       <c r="D69" t="n">
-        <v>3.896</v>
+        <v>3.925</v>
       </c>
       <c r="E69" t="n">
-        <v>3.896</v>
+        <v>3.925</v>
       </c>
       <c r="F69" t="n">
-        <v>934.2732999999999</v>
+        <v>128</v>
       </c>
       <c r="G69" t="n">
-        <v>3.932133333333332</v>
+        <v>3.932033333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2847,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="C70" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="D70" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="E70" t="n">
-        <v>3.925</v>
+        <v>3.896</v>
       </c>
       <c r="F70" t="n">
-        <v>128</v>
+        <v>934.2732999999999</v>
       </c>
       <c r="G70" t="n">
-        <v>3.932716666666666</v>
+        <v>3.932133333333332</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2882,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.93</v>
+        <v>3.925</v>
       </c>
       <c r="C71" t="n">
-        <v>3.93</v>
+        <v>3.925</v>
       </c>
       <c r="D71" t="n">
-        <v>3.93</v>
+        <v>3.925</v>
       </c>
       <c r="E71" t="n">
-        <v>3.93</v>
+        <v>3.925</v>
       </c>
       <c r="F71" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G71" t="n">
-        <v>3.933699999999999</v>
+        <v>3.932716666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2929,10 @@
         <v>3.93</v>
       </c>
       <c r="F72" t="n">
-        <v>25171.5443</v>
+        <v>127</v>
       </c>
       <c r="G72" t="n">
-        <v>3.934683333333332</v>
+        <v>3.933699999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2952,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.908</v>
+        <v>3.93</v>
       </c>
       <c r="C73" t="n">
-        <v>3.908</v>
+        <v>3.93</v>
       </c>
       <c r="D73" t="n">
-        <v>3.908</v>
+        <v>3.93</v>
       </c>
       <c r="E73" t="n">
-        <v>3.908</v>
+        <v>3.93</v>
       </c>
       <c r="F73" t="n">
-        <v>14421.6078</v>
+        <v>25171.5443</v>
       </c>
       <c r="G73" t="n">
-        <v>3.934783333333332</v>
+        <v>3.934683333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2987,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.902</v>
+        <v>3.908</v>
       </c>
       <c r="C74" t="n">
-        <v>3.902</v>
+        <v>3.908</v>
       </c>
       <c r="D74" t="n">
-        <v>3.902</v>
+        <v>3.908</v>
       </c>
       <c r="E74" t="n">
-        <v>3.902</v>
+        <v>3.908</v>
       </c>
       <c r="F74" t="n">
-        <v>206637.2377</v>
+        <v>14421.6078</v>
       </c>
       <c r="G74" t="n">
-        <v>3.934616666666665</v>
+        <v>3.934783333333332</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3022,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.908</v>
+        <v>3.902</v>
       </c>
       <c r="C75" t="n">
-        <v>3.908</v>
+        <v>3.902</v>
       </c>
       <c r="D75" t="n">
-        <v>3.908</v>
+        <v>3.902</v>
       </c>
       <c r="E75" t="n">
-        <v>3.908</v>
+        <v>3.902</v>
       </c>
       <c r="F75" t="n">
-        <v>23587.6296</v>
+        <v>206637.2377</v>
       </c>
       <c r="G75" t="n">
-        <v>3.934866666666665</v>
+        <v>3.934616666666665</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3057,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.928</v>
+        <v>3.908</v>
       </c>
       <c r="C76" t="n">
-        <v>3.928</v>
+        <v>3.908</v>
       </c>
       <c r="D76" t="n">
-        <v>3.928</v>
+        <v>3.908</v>
       </c>
       <c r="E76" t="n">
-        <v>3.928</v>
+        <v>3.908</v>
       </c>
       <c r="F76" t="n">
-        <v>128</v>
+        <v>23587.6296</v>
       </c>
       <c r="G76" t="n">
-        <v>3.935466666666665</v>
+        <v>3.934866666666665</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3092,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="C77" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="D77" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="E77" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="F77" t="n">
-        <v>21090.9537</v>
+        <v>128</v>
       </c>
       <c r="G77" t="n">
-        <v>3.935633333333331</v>
+        <v>3.935466666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3127,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="C78" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="D78" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="E78" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="F78" t="n">
-        <v>128</v>
+        <v>21090.9537</v>
       </c>
       <c r="G78" t="n">
-        <v>3.935966666666665</v>
+        <v>3.935633333333331</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3140,10 +3174,10 @@
         <v>3.928</v>
       </c>
       <c r="F79" t="n">
-        <v>218175.9958</v>
+        <v>128</v>
       </c>
       <c r="G79" t="n">
-        <v>3.935599999999999</v>
+        <v>3.935966666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3197,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="C80" t="n">
-        <v>3.909</v>
+        <v>3.928</v>
       </c>
       <c r="D80" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="E80" t="n">
-        <v>3.909</v>
+        <v>3.928</v>
       </c>
       <c r="F80" t="n">
-        <v>78347.66740000001</v>
+        <v>218175.9958</v>
       </c>
       <c r="G80" t="n">
-        <v>3.934916666666665</v>
+        <v>3.935599999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3232,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="C81" t="n">
         <v>3.909</v>
       </c>
-      <c r="C81" t="n">
-        <v>3.901</v>
-      </c>
       <c r="D81" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="E81" t="n">
         <v>3.909</v>
       </c>
-      <c r="E81" t="n">
-        <v>3.901</v>
-      </c>
       <c r="F81" t="n">
-        <v>160000</v>
+        <v>78347.66740000001</v>
       </c>
       <c r="G81" t="n">
-        <v>3.933283333333332</v>
+        <v>3.934916666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3267,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.902</v>
+        <v>3.909</v>
       </c>
       <c r="C82" t="n">
-        <v>3.902</v>
+        <v>3.901</v>
       </c>
       <c r="D82" t="n">
-        <v>3.902</v>
+        <v>3.909</v>
       </c>
       <c r="E82" t="n">
-        <v>3.902</v>
+        <v>3.901</v>
       </c>
       <c r="F82" t="n">
-        <v>167.1127</v>
+        <v>160000</v>
       </c>
       <c r="G82" t="n">
-        <v>3.932316666666665</v>
+        <v>3.933283333333332</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3302,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.905</v>
+        <v>3.902</v>
       </c>
       <c r="C83" t="n">
-        <v>3.905</v>
+        <v>3.902</v>
       </c>
       <c r="D83" t="n">
-        <v>3.905</v>
+        <v>3.902</v>
       </c>
       <c r="E83" t="n">
-        <v>3.905</v>
+        <v>3.902</v>
       </c>
       <c r="F83" t="n">
-        <v>466.9355</v>
+        <v>167.1127</v>
       </c>
       <c r="G83" t="n">
-        <v>3.930749999999998</v>
+        <v>3.932316666666665</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3315,10 +3349,10 @@
         <v>3.905</v>
       </c>
       <c r="F84" t="n">
-        <v>151640.8232</v>
+        <v>466.9355</v>
       </c>
       <c r="G84" t="n">
-        <v>3.929999999999999</v>
+        <v>3.930749999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3372,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.927</v>
+        <v>3.905</v>
       </c>
       <c r="C85" t="n">
-        <v>3.904</v>
+        <v>3.905</v>
       </c>
       <c r="D85" t="n">
-        <v>3.927</v>
+        <v>3.905</v>
       </c>
       <c r="E85" t="n">
-        <v>3.904</v>
+        <v>3.905</v>
       </c>
       <c r="F85" t="n">
-        <v>75618.92570000001</v>
+        <v>151640.8232</v>
       </c>
       <c r="G85" t="n">
-        <v>3.928599999999999</v>
+        <v>3.929999999999999</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3410,19 @@
         <v>3.927</v>
       </c>
       <c r="C86" t="n">
-        <v>3.927</v>
+        <v>3.904</v>
       </c>
       <c r="D86" t="n">
         <v>3.927</v>
       </c>
       <c r="E86" t="n">
-        <v>3.927</v>
+        <v>3.904</v>
       </c>
       <c r="F86" t="n">
-        <v>128</v>
+        <v>75618.92570000001</v>
       </c>
       <c r="G86" t="n">
-        <v>3.927583333333332</v>
+        <v>3.928599999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3442,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.907</v>
+        <v>3.927</v>
       </c>
       <c r="C87" t="n">
-        <v>3.907</v>
+        <v>3.927</v>
       </c>
       <c r="D87" t="n">
-        <v>3.907</v>
+        <v>3.927</v>
       </c>
       <c r="E87" t="n">
-        <v>3.907</v>
+        <v>3.927</v>
       </c>
       <c r="F87" t="n">
-        <v>167.1127</v>
+        <v>128</v>
       </c>
       <c r="G87" t="n">
-        <v>3.926233333333332</v>
+        <v>3.927583333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3477,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.927</v>
+        <v>3.907</v>
       </c>
       <c r="C88" t="n">
-        <v>3.927</v>
+        <v>3.907</v>
       </c>
       <c r="D88" t="n">
-        <v>3.927</v>
+        <v>3.907</v>
       </c>
       <c r="E88" t="n">
-        <v>3.927</v>
+        <v>3.907</v>
       </c>
       <c r="F88" t="n">
-        <v>129</v>
+        <v>167.1127</v>
       </c>
       <c r="G88" t="n">
-        <v>3.925216666666665</v>
+        <v>3.926233333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3524,10 @@
         <v>3.927</v>
       </c>
       <c r="F89" t="n">
-        <v>66824.6165</v>
+        <v>129</v>
       </c>
       <c r="G89" t="n">
-        <v>3.924366666666665</v>
+        <v>3.925216666666665</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3550,19 @@
         <v>3.927</v>
       </c>
       <c r="C90" t="n">
-        <v>3.965</v>
+        <v>3.927</v>
       </c>
       <c r="D90" t="n">
-        <v>3.965</v>
+        <v>3.927</v>
       </c>
       <c r="E90" t="n">
         <v>3.927</v>
       </c>
       <c r="F90" t="n">
-        <v>484078.1505</v>
+        <v>66824.6165</v>
       </c>
       <c r="G90" t="n">
-        <v>3.923983333333332</v>
+        <v>3.924366666666665</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3582,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.965</v>
+        <v>3.927</v>
       </c>
       <c r="C91" t="n">
         <v>3.965</v>
@@ -3557,13 +3591,13 @@
         <v>3.965</v>
       </c>
       <c r="E91" t="n">
-        <v>3.965</v>
+        <v>3.927</v>
       </c>
       <c r="F91" t="n">
-        <v>1818.1818</v>
+        <v>484078.1505</v>
       </c>
       <c r="G91" t="n">
-        <v>3.923599999999999</v>
+        <v>3.923983333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3629,10 @@
         <v>3.965</v>
       </c>
       <c r="F92" t="n">
-        <v>47712.1269</v>
+        <v>1818.1818</v>
       </c>
       <c r="G92" t="n">
-        <v>3.923383333333332</v>
+        <v>3.923599999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3664,10 @@
         <v>3.965</v>
       </c>
       <c r="F93" t="n">
-        <v>1916.719</v>
+        <v>47712.1269</v>
       </c>
       <c r="G93" t="n">
-        <v>3.923766666666665</v>
+        <v>3.923383333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3687,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.964</v>
+        <v>3.965</v>
       </c>
       <c r="C94" t="n">
-        <v>3.964</v>
+        <v>3.965</v>
       </c>
       <c r="D94" t="n">
-        <v>3.964</v>
+        <v>3.965</v>
       </c>
       <c r="E94" t="n">
-        <v>3.964</v>
+        <v>3.965</v>
       </c>
       <c r="F94" t="n">
-        <v>45112</v>
+        <v>1916.719</v>
       </c>
       <c r="G94" t="n">
-        <v>3.923549999999998</v>
+        <v>3.923766666666665</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3691,19 +3725,19 @@
         <v>3.964</v>
       </c>
       <c r="C95" t="n">
-        <v>3.925</v>
+        <v>3.964</v>
       </c>
       <c r="D95" t="n">
         <v>3.964</v>
       </c>
       <c r="E95" t="n">
-        <v>3.925</v>
+        <v>3.964</v>
       </c>
       <c r="F95" t="n">
-        <v>50000.8856</v>
+        <v>45112</v>
       </c>
       <c r="G95" t="n">
-        <v>3.923433333333332</v>
+        <v>3.923549999999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3757,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="C96" t="n">
         <v>3.925</v>
       </c>
-      <c r="C96" t="n">
-        <v>3.915</v>
-      </c>
       <c r="D96" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="E96" t="n">
         <v>3.925</v>
       </c>
-      <c r="E96" t="n">
-        <v>3.915</v>
-      </c>
       <c r="F96" t="n">
-        <v>9000</v>
+        <v>50000.8856</v>
       </c>
       <c r="G96" t="n">
-        <v>3.922983333333332</v>
+        <v>3.923433333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3792,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.964</v>
+        <v>3.925</v>
       </c>
       <c r="C97" t="n">
-        <v>3.964</v>
+        <v>3.915</v>
       </c>
       <c r="D97" t="n">
-        <v>3.964</v>
+        <v>3.925</v>
       </c>
       <c r="E97" t="n">
-        <v>3.964</v>
+        <v>3.915</v>
       </c>
       <c r="F97" t="n">
-        <v>130</v>
+        <v>9000</v>
       </c>
       <c r="G97" t="n">
-        <v>3.923799999999999</v>
+        <v>3.922983333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3839,10 @@
         <v>3.964</v>
       </c>
       <c r="F98" t="n">
-        <v>919.5351000000001</v>
+        <v>130</v>
       </c>
       <c r="G98" t="n">
-        <v>3.923883333333332</v>
+        <v>3.923799999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3862,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.925</v>
+        <v>3.964</v>
       </c>
       <c r="C99" t="n">
-        <v>3.925</v>
+        <v>3.964</v>
       </c>
       <c r="D99" t="n">
-        <v>3.925</v>
+        <v>3.964</v>
       </c>
       <c r="E99" t="n">
-        <v>3.925</v>
+        <v>3.964</v>
       </c>
       <c r="F99" t="n">
-        <v>9001.933999999999</v>
+        <v>919.5351000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>3.923483333333332</v>
+        <v>3.923883333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3897,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.964</v>
+        <v>3.925</v>
       </c>
       <c r="C100" t="n">
-        <v>3.964</v>
+        <v>3.925</v>
       </c>
       <c r="D100" t="n">
-        <v>3.964</v>
+        <v>3.925</v>
       </c>
       <c r="E100" t="n">
-        <v>3.964</v>
+        <v>3.925</v>
       </c>
       <c r="F100" t="n">
-        <v>128</v>
+        <v>9001.933999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>3.923749999999998</v>
+        <v>3.923483333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3935,19 @@
         <v>3.964</v>
       </c>
       <c r="C101" t="n">
-        <v>3.965</v>
+        <v>3.964</v>
       </c>
       <c r="D101" t="n">
-        <v>3.965</v>
+        <v>3.964</v>
       </c>
       <c r="E101" t="n">
         <v>3.964</v>
       </c>
       <c r="F101" t="n">
-        <v>312957.3952</v>
+        <v>128</v>
       </c>
       <c r="G101" t="n">
-        <v>3.924966666666665</v>
+        <v>3.923749999999998</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,7 +3967,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.965</v>
+        <v>3.964</v>
       </c>
       <c r="C102" t="n">
         <v>3.965</v>
@@ -3942,13 +3976,13 @@
         <v>3.965</v>
       </c>
       <c r="E102" t="n">
-        <v>3.965</v>
+        <v>3.964</v>
       </c>
       <c r="F102" t="n">
-        <v>61710</v>
+        <v>312957.3952</v>
       </c>
       <c r="G102" t="n">
-        <v>3.925433333333332</v>
+        <v>3.924966666666665</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3980,10 +4014,10 @@
         <v>3.965</v>
       </c>
       <c r="F103" t="n">
-        <v>20570</v>
+        <v>61710</v>
       </c>
       <c r="G103" t="n">
-        <v>3.925899999999998</v>
+        <v>3.925433333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4037,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.975</v>
+        <v>3.965</v>
       </c>
       <c r="C104" t="n">
-        <v>3.978</v>
+        <v>3.965</v>
       </c>
       <c r="D104" t="n">
-        <v>3.978</v>
+        <v>3.965</v>
       </c>
       <c r="E104" t="n">
-        <v>3.975</v>
+        <v>3.965</v>
       </c>
       <c r="F104" t="n">
-        <v>74531.7426</v>
+        <v>20570</v>
       </c>
       <c r="G104" t="n">
-        <v>3.926566666666665</v>
+        <v>3.925899999999998</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4072,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.98</v>
+        <v>3.975</v>
       </c>
       <c r="C105" t="n">
-        <v>3.989</v>
+        <v>3.978</v>
       </c>
       <c r="D105" t="n">
-        <v>3.989</v>
+        <v>3.978</v>
       </c>
       <c r="E105" t="n">
-        <v>3.98</v>
+        <v>3.975</v>
       </c>
       <c r="F105" t="n">
-        <v>180796.3966</v>
+        <v>74531.7426</v>
       </c>
       <c r="G105" t="n">
-        <v>3.927433333333332</v>
+        <v>3.926566666666665</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4107,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.965</v>
+        <v>3.98</v>
       </c>
       <c r="C106" t="n">
-        <v>3.965</v>
+        <v>3.989</v>
       </c>
       <c r="D106" t="n">
-        <v>3.965</v>
+        <v>3.989</v>
       </c>
       <c r="E106" t="n">
-        <v>3.965</v>
+        <v>3.98</v>
       </c>
       <c r="F106" t="n">
-        <v>830</v>
+        <v>180796.3966</v>
       </c>
       <c r="G106" t="n">
-        <v>3.928483333333332</v>
+        <v>3.927433333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4142,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.948</v>
+        <v>3.965</v>
       </c>
       <c r="C107" t="n">
-        <v>3.948</v>
+        <v>3.965</v>
       </c>
       <c r="D107" t="n">
-        <v>3.948</v>
+        <v>3.965</v>
       </c>
       <c r="E107" t="n">
-        <v>3.948</v>
+        <v>3.965</v>
       </c>
       <c r="F107" t="n">
-        <v>128</v>
+        <v>830</v>
       </c>
       <c r="G107" t="n">
-        <v>3.929399999999999</v>
+        <v>3.928483333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4177,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.966</v>
+        <v>3.948</v>
       </c>
       <c r="C108" t="n">
-        <v>3.966</v>
+        <v>3.948</v>
       </c>
       <c r="D108" t="n">
-        <v>3.966</v>
+        <v>3.948</v>
       </c>
       <c r="E108" t="n">
-        <v>3.966</v>
+        <v>3.948</v>
       </c>
       <c r="F108" t="n">
-        <v>292.5464</v>
+        <v>128</v>
       </c>
       <c r="G108" t="n">
-        <v>3.929866666666666</v>
+        <v>3.929399999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4178,22 +4212,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.978</v>
+        <v>3.966</v>
       </c>
       <c r="C109" t="n">
-        <v>3.981</v>
+        <v>3.966</v>
       </c>
       <c r="D109" t="n">
-        <v>3.981</v>
+        <v>3.966</v>
       </c>
       <c r="E109" t="n">
-        <v>3.978</v>
+        <v>3.966</v>
       </c>
       <c r="F109" t="n">
-        <v>2300</v>
+        <v>292.5464</v>
       </c>
       <c r="G109" t="n">
-        <v>3.930749999999999</v>
+        <v>3.929866666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4247,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.982</v>
+        <v>3.978</v>
       </c>
       <c r="C110" t="n">
-        <v>3.986</v>
+        <v>3.981</v>
       </c>
       <c r="D110" t="n">
-        <v>3.986</v>
+        <v>3.981</v>
       </c>
       <c r="E110" t="n">
-        <v>3.982</v>
+        <v>3.978</v>
       </c>
       <c r="F110" t="n">
-        <v>5000</v>
+        <v>2300</v>
       </c>
       <c r="G110" t="n">
-        <v>3.932149999999999</v>
+        <v>3.930749999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4282,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>3.982</v>
+      </c>
+      <c r="C111" t="n">
         <v>3.986</v>
-      </c>
-      <c r="C111" t="n">
-        <v>3.951</v>
       </c>
       <c r="D111" t="n">
         <v>3.986</v>
       </c>
       <c r="E111" t="n">
-        <v>3.951</v>
+        <v>3.982</v>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="G111" t="n">
-        <v>3.932383333333332</v>
+        <v>3.932149999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4317,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.951</v>
+        <v>3.986</v>
       </c>
       <c r="C112" t="n">
         <v>3.951</v>
       </c>
       <c r="D112" t="n">
-        <v>3.951</v>
+        <v>3.986</v>
       </c>
       <c r="E112" t="n">
         <v>3.951</v>
       </c>
       <c r="F112" t="n">
-        <v>8941.1659</v>
+        <v>300</v>
       </c>
       <c r="G112" t="n">
-        <v>3.933199999999999</v>
+        <v>3.932383333333332</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4352,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.97</v>
+        <v>3.951</v>
       </c>
       <c r="C113" t="n">
-        <v>3.97</v>
+        <v>3.951</v>
       </c>
       <c r="D113" t="n">
-        <v>3.97</v>
+        <v>3.951</v>
       </c>
       <c r="E113" t="n">
-        <v>3.97</v>
+        <v>3.951</v>
       </c>
       <c r="F113" t="n">
-        <v>130</v>
+        <v>8941.1659</v>
       </c>
       <c r="G113" t="n">
-        <v>3.934299999999999</v>
+        <v>3.933199999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4387,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.951</v>
+        <v>3.97</v>
       </c>
       <c r="C114" t="n">
-        <v>3.951</v>
+        <v>3.97</v>
       </c>
       <c r="D114" t="n">
-        <v>3.951</v>
+        <v>3.97</v>
       </c>
       <c r="E114" t="n">
-        <v>3.951</v>
+        <v>3.97</v>
       </c>
       <c r="F114" t="n">
-        <v>11000</v>
+        <v>130</v>
       </c>
       <c r="G114" t="n">
-        <v>3.935249999999999</v>
+        <v>3.934299999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4422,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.966</v>
+        <v>3.951</v>
       </c>
       <c r="C115" t="n">
-        <v>3.988</v>
+        <v>3.951</v>
       </c>
       <c r="D115" t="n">
-        <v>3.989</v>
+        <v>3.951</v>
       </c>
       <c r="E115" t="n">
-        <v>3.966</v>
+        <v>3.951</v>
       </c>
       <c r="F115" t="n">
-        <v>412004.0724</v>
+        <v>11000</v>
       </c>
       <c r="G115" t="n">
-        <v>3.936099999999998</v>
+        <v>3.935249999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4457,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.961</v>
+        <v>3.966</v>
       </c>
       <c r="C116" t="n">
-        <v>3.961</v>
+        <v>3.988</v>
       </c>
       <c r="D116" t="n">
-        <v>3.961</v>
+        <v>3.989</v>
       </c>
       <c r="E116" t="n">
-        <v>3.961</v>
+        <v>3.966</v>
       </c>
       <c r="F116" t="n">
-        <v>130</v>
+        <v>412004.0724</v>
       </c>
       <c r="G116" t="n">
-        <v>3.937199999999998</v>
+        <v>3.936099999999998</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4492,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.948</v>
+        <v>3.961</v>
       </c>
       <c r="C117" t="n">
-        <v>3.948</v>
+        <v>3.961</v>
       </c>
       <c r="D117" t="n">
-        <v>3.948</v>
+        <v>3.961</v>
       </c>
       <c r="E117" t="n">
-        <v>3.948</v>
+        <v>3.961</v>
       </c>
       <c r="F117" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="G117" t="n">
-        <v>3.937399999999998</v>
+        <v>3.937199999999998</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4527,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.958</v>
+        <v>3.948</v>
       </c>
       <c r="C118" t="n">
-        <v>3.989</v>
+        <v>3.948</v>
       </c>
       <c r="D118" t="n">
-        <v>3.989</v>
+        <v>3.948</v>
       </c>
       <c r="E118" t="n">
-        <v>3.958</v>
+        <v>3.948</v>
       </c>
       <c r="F118" t="n">
-        <v>351730.5598</v>
+        <v>200</v>
       </c>
       <c r="G118" t="n">
-        <v>3.938266666666665</v>
+        <v>3.937399999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4562,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="C119" t="n">
         <v>3.989</v>
       </c>
-      <c r="C119" t="n">
-        <v>4</v>
-      </c>
       <c r="D119" t="n">
-        <v>4</v>
+        <v>3.989</v>
       </c>
       <c r="E119" t="n">
-        <v>3.989</v>
+        <v>3.958</v>
       </c>
       <c r="F119" t="n">
-        <v>5000</v>
+        <v>351730.5598</v>
       </c>
       <c r="G119" t="n">
-        <v>3.940016666666665</v>
+        <v>3.938266666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4597,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.997</v>
+        <v>3.989</v>
       </c>
       <c r="C120" t="n">
-        <v>3.997</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>3.997</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>3.997</v>
+        <v>3.989</v>
       </c>
       <c r="F120" t="n">
-        <v>403.8864</v>
+        <v>5000</v>
       </c>
       <c r="G120" t="n">
-        <v>3.941716666666665</v>
+        <v>3.940016666666665</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4601,19 +4635,19 @@
         <v>3.997</v>
       </c>
       <c r="C121" t="n">
-        <v>3.97</v>
+        <v>3.997</v>
       </c>
       <c r="D121" t="n">
         <v>3.997</v>
       </c>
       <c r="E121" t="n">
-        <v>3.97</v>
+        <v>3.997</v>
       </c>
       <c r="F121" t="n">
-        <v>40788.1085</v>
+        <v>403.8864</v>
       </c>
       <c r="G121" t="n">
-        <v>3.942266666666665</v>
+        <v>3.941716666666665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4667,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>3.997</v>
+      </c>
+      <c r="C122" t="n">
         <v>3.97</v>
       </c>
-      <c r="C122" t="n">
-        <v>3.968</v>
-      </c>
       <c r="D122" t="n">
+        <v>3.997</v>
+      </c>
+      <c r="E122" t="n">
         <v>3.97</v>
       </c>
-      <c r="E122" t="n">
-        <v>3.96</v>
-      </c>
       <c r="F122" t="n">
-        <v>28571</v>
+        <v>40788.1085</v>
       </c>
       <c r="G122" t="n">
-        <v>3.942783333333331</v>
+        <v>3.942266666666665</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4702,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="C123" t="n">
         <v>3.968</v>
       </c>
-      <c r="C123" t="n">
-        <v>3.997</v>
-      </c>
       <c r="D123" t="n">
-        <v>3.997</v>
+        <v>3.97</v>
       </c>
       <c r="E123" t="n">
-        <v>3.968</v>
+        <v>3.96</v>
       </c>
       <c r="F123" t="n">
-        <v>1818.1818</v>
+        <v>28571</v>
       </c>
       <c r="G123" t="n">
-        <v>3.943816666666664</v>
+        <v>3.942783333333331</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4737,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.986</v>
+        <v>3.968</v>
       </c>
       <c r="C124" t="n">
-        <v>3.996</v>
+        <v>3.997</v>
       </c>
       <c r="D124" t="n">
-        <v>3.996</v>
+        <v>3.997</v>
       </c>
       <c r="E124" t="n">
-        <v>3.986</v>
+        <v>3.968</v>
       </c>
       <c r="F124" t="n">
-        <v>100000</v>
+        <v>1818.1818</v>
       </c>
       <c r="G124" t="n">
-        <v>3.944916666666664</v>
+        <v>3.943816666666664</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4772,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.948</v>
+        <v>3.986</v>
       </c>
       <c r="C125" t="n">
-        <v>3.948</v>
+        <v>3.996</v>
       </c>
       <c r="D125" t="n">
-        <v>3.948</v>
+        <v>3.996</v>
       </c>
       <c r="E125" t="n">
-        <v>3.948</v>
+        <v>3.986</v>
       </c>
       <c r="F125" t="n">
-        <v>19800</v>
+        <v>100000</v>
       </c>
       <c r="G125" t="n">
-        <v>3.945216666666664</v>
+        <v>3.944916666666664</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4807,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.965</v>
+        <v>3.948</v>
       </c>
       <c r="C126" t="n">
-        <v>3.965</v>
+        <v>3.948</v>
       </c>
       <c r="D126" t="n">
-        <v>3.965</v>
+        <v>3.948</v>
       </c>
       <c r="E126" t="n">
-        <v>3.965</v>
+        <v>3.948</v>
       </c>
       <c r="F126" t="n">
-        <v>28340</v>
+        <v>19800</v>
       </c>
       <c r="G126" t="n">
-        <v>3.946199999999997</v>
+        <v>3.945216666666664</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4820,10 +4854,10 @@
         <v>3.965</v>
       </c>
       <c r="F127" t="n">
-        <v>85915.8014</v>
+        <v>28340</v>
       </c>
       <c r="G127" t="n">
-        <v>3.947349999999998</v>
+        <v>3.946199999999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4855,10 +4889,10 @@
         <v>3.965</v>
       </c>
       <c r="F128" t="n">
-        <v>100000</v>
+        <v>85915.8014</v>
       </c>
       <c r="G128" t="n">
-        <v>3.948016666666665</v>
+        <v>3.947349999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4912,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.987</v>
+        <v>3.965</v>
       </c>
       <c r="C129" t="n">
-        <v>3.987</v>
+        <v>3.965</v>
       </c>
       <c r="D129" t="n">
-        <v>3.987</v>
+        <v>3.965</v>
       </c>
       <c r="E129" t="n">
-        <v>3.987</v>
+        <v>3.965</v>
       </c>
       <c r="F129" t="n">
-        <v>1234</v>
+        <v>100000</v>
       </c>
       <c r="G129" t="n">
-        <v>3.949533333333331</v>
+        <v>3.948016666666665</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4950,19 @@
         <v>3.987</v>
       </c>
       <c r="C130" t="n">
-        <v>3.959</v>
+        <v>3.987</v>
       </c>
       <c r="D130" t="n">
         <v>3.987</v>
       </c>
       <c r="E130" t="n">
-        <v>3.959</v>
+        <v>3.987</v>
       </c>
       <c r="F130" t="n">
-        <v>231516</v>
+        <v>1234</v>
       </c>
       <c r="G130" t="n">
-        <v>3.950099999999998</v>
+        <v>3.949533333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4982,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.959</v>
+        <v>3.987</v>
       </c>
       <c r="C131" t="n">
         <v>3.959</v>
       </c>
       <c r="D131" t="n">
-        <v>3.959</v>
+        <v>3.987</v>
       </c>
       <c r="E131" t="n">
         <v>3.959</v>
       </c>
       <c r="F131" t="n">
-        <v>100000</v>
+        <v>231516</v>
       </c>
       <c r="G131" t="n">
-        <v>3.950583333333331</v>
+        <v>3.950099999999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +5017,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.995</v>
+        <v>3.959</v>
       </c>
       <c r="C132" t="n">
-        <v>3.995</v>
+        <v>3.959</v>
       </c>
       <c r="D132" t="n">
-        <v>3.995</v>
+        <v>3.959</v>
       </c>
       <c r="E132" t="n">
-        <v>3.995</v>
+        <v>3.959</v>
       </c>
       <c r="F132" t="n">
-        <v>6691.6821</v>
+        <v>100000</v>
       </c>
       <c r="G132" t="n">
-        <v>3.951666666666664</v>
+        <v>3.950583333333331</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5052,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.99</v>
+        <v>3.995</v>
       </c>
       <c r="C133" t="n">
-        <v>3.99</v>
+        <v>3.995</v>
       </c>
       <c r="D133" t="n">
-        <v>3.99</v>
+        <v>3.995</v>
       </c>
       <c r="E133" t="n">
-        <v>3.99</v>
+        <v>3.995</v>
       </c>
       <c r="F133" t="n">
-        <v>10000</v>
+        <v>6691.6821</v>
       </c>
       <c r="G133" t="n">
-        <v>3.953033333333331</v>
+        <v>3.951666666666664</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5087,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.995</v>
+        <v>3.99</v>
       </c>
       <c r="C134" t="n">
-        <v>3.971</v>
+        <v>3.99</v>
       </c>
       <c r="D134" t="n">
-        <v>3.995</v>
+        <v>3.99</v>
       </c>
       <c r="E134" t="n">
-        <v>3.971</v>
+        <v>3.99</v>
       </c>
       <c r="F134" t="n">
-        <v>8466</v>
+        <v>10000</v>
       </c>
       <c r="G134" t="n">
-        <v>3.954183333333332</v>
+        <v>3.953033333333331</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5122,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.971</v>
+        <v>3.995</v>
       </c>
       <c r="C135" t="n">
         <v>3.971</v>
       </c>
       <c r="D135" t="n">
-        <v>3.971</v>
+        <v>3.995</v>
       </c>
       <c r="E135" t="n">
         <v>3.971</v>
       </c>
       <c r="F135" t="n">
-        <v>8470</v>
+        <v>8466</v>
       </c>
       <c r="G135" t="n">
-        <v>3.955233333333332</v>
+        <v>3.954183333333332</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5157,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.97</v>
+        <v>3.971</v>
       </c>
       <c r="C136" t="n">
-        <v>3.97</v>
+        <v>3.971</v>
       </c>
       <c r="D136" t="n">
-        <v>3.97</v>
+        <v>3.971</v>
       </c>
       <c r="E136" t="n">
-        <v>3.97</v>
+        <v>3.971</v>
       </c>
       <c r="F136" t="n">
-        <v>10000</v>
+        <v>8470</v>
       </c>
       <c r="G136" t="n">
-        <v>3.955933333333332</v>
+        <v>3.955233333333332</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5173,7 +5207,7 @@
         <v>10000</v>
       </c>
       <c r="G137" t="n">
-        <v>3.956849999999998</v>
+        <v>3.955933333333332</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5205,10 +5239,10 @@
         <v>3.97</v>
       </c>
       <c r="F138" t="n">
-        <v>41250</v>
+        <v>10000</v>
       </c>
       <c r="G138" t="n">
-        <v>3.957549999999999</v>
+        <v>3.956849999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5274,10 @@
         <v>3.97</v>
       </c>
       <c r="F139" t="n">
-        <v>61250</v>
+        <v>41250</v>
       </c>
       <c r="G139" t="n">
-        <v>3.958249999999999</v>
+        <v>3.957549999999999</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5297,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.977</v>
+        <v>3.97</v>
       </c>
       <c r="C140" t="n">
-        <v>3.977</v>
+        <v>3.97</v>
       </c>
       <c r="D140" t="n">
-        <v>3.977</v>
+        <v>3.97</v>
       </c>
       <c r="E140" t="n">
-        <v>3.977</v>
+        <v>3.97</v>
       </c>
       <c r="F140" t="n">
-        <v>126</v>
+        <v>61250</v>
       </c>
       <c r="G140" t="n">
-        <v>3.959383333333332</v>
+        <v>3.958249999999999</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5332,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.965</v>
+        <v>3.977</v>
       </c>
       <c r="C141" t="n">
-        <v>3.967</v>
+        <v>3.977</v>
       </c>
       <c r="D141" t="n">
-        <v>3.967</v>
+        <v>3.977</v>
       </c>
       <c r="E141" t="n">
-        <v>3.965</v>
+        <v>3.977</v>
       </c>
       <c r="F141" t="n">
-        <v>30000</v>
+        <v>126</v>
       </c>
       <c r="G141" t="n">
-        <v>3.960483333333332</v>
+        <v>3.959383333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,7 +5367,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.967</v>
+        <v>3.965</v>
       </c>
       <c r="C142" t="n">
         <v>3.967</v>
@@ -5342,13 +5376,13 @@
         <v>3.967</v>
       </c>
       <c r="E142" t="n">
-        <v>3.967</v>
+        <v>3.965</v>
       </c>
       <c r="F142" t="n">
-        <v>156423.2056</v>
+        <v>30000</v>
       </c>
       <c r="G142" t="n">
-        <v>3.961566666666666</v>
+        <v>3.960483333333332</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5380,10 +5414,10 @@
         <v>3.967</v>
       </c>
       <c r="F143" t="n">
-        <v>76171.1225</v>
+        <v>156423.2056</v>
       </c>
       <c r="G143" t="n">
-        <v>3.9626</v>
+        <v>3.961566666666666</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5437,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.968</v>
+        <v>3.967</v>
       </c>
       <c r="C144" t="n">
-        <v>3.969</v>
+        <v>3.967</v>
       </c>
       <c r="D144" t="n">
-        <v>3.969</v>
+        <v>3.967</v>
       </c>
       <c r="E144" t="n">
-        <v>3.968</v>
+        <v>3.967</v>
       </c>
       <c r="F144" t="n">
-        <v>20000</v>
+        <v>76171.1225</v>
       </c>
       <c r="G144" t="n">
-        <v>3.963666666666666</v>
+        <v>3.9626</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5472,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.97</v>
+        <v>3.968</v>
       </c>
       <c r="C145" t="n">
-        <v>3.971</v>
+        <v>3.969</v>
       </c>
       <c r="D145" t="n">
-        <v>3.971</v>
+        <v>3.969</v>
       </c>
       <c r="E145" t="n">
-        <v>3.97</v>
+        <v>3.968</v>
       </c>
       <c r="F145" t="n">
         <v>20000</v>
       </c>
       <c r="G145" t="n">
-        <v>3.964783333333333</v>
+        <v>3.963666666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5507,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.984</v>
+        <v>3.97</v>
       </c>
       <c r="C146" t="n">
-        <v>3.984</v>
+        <v>3.971</v>
       </c>
       <c r="D146" t="n">
-        <v>3.984</v>
+        <v>3.971</v>
       </c>
       <c r="E146" t="n">
-        <v>3.984</v>
+        <v>3.97</v>
       </c>
       <c r="F146" t="n">
-        <v>30288.4548</v>
+        <v>20000</v>
       </c>
       <c r="G146" t="n">
-        <v>3.965733333333333</v>
+        <v>3.964783333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5542,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.965</v>
+        <v>3.984</v>
       </c>
       <c r="C147" t="n">
-        <v>3.965</v>
+        <v>3.984</v>
       </c>
       <c r="D147" t="n">
-        <v>3.965</v>
+        <v>3.984</v>
       </c>
       <c r="E147" t="n">
-        <v>3.965</v>
+        <v>3.984</v>
       </c>
       <c r="F147" t="n">
-        <v>126</v>
+        <v>30288.4548</v>
       </c>
       <c r="G147" t="n">
-        <v>3.9667</v>
+        <v>3.965733333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5577,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.962</v>
+        <v>3.965</v>
       </c>
       <c r="C148" t="n">
-        <v>3.961</v>
+        <v>3.965</v>
       </c>
       <c r="D148" t="n">
-        <v>3.962</v>
+        <v>3.965</v>
       </c>
       <c r="E148" t="n">
-        <v>3.961</v>
+        <v>3.965</v>
       </c>
       <c r="F148" t="n">
-        <v>50000</v>
+        <v>126</v>
       </c>
       <c r="G148" t="n">
-        <v>3.967266666666667</v>
+        <v>3.9667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5612,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="C149" t="n">
         <v>3.961</v>
       </c>
-      <c r="C149" t="n">
-        <v>3.948</v>
-      </c>
       <c r="D149" t="n">
+        <v>3.962</v>
+      </c>
+      <c r="E149" t="n">
         <v>3.961</v>
       </c>
-      <c r="E149" t="n">
-        <v>3.948</v>
-      </c>
       <c r="F149" t="n">
-        <v>10000</v>
+        <v>50000</v>
       </c>
       <c r="G149" t="n">
-        <v>3.967616666666667</v>
+        <v>3.967266666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5647,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.964</v>
+        <v>3.961</v>
       </c>
       <c r="C150" t="n">
-        <v>3.964</v>
+        <v>3.948</v>
       </c>
       <c r="D150" t="n">
-        <v>3.964</v>
+        <v>3.961</v>
       </c>
       <c r="E150" t="n">
-        <v>3.964</v>
+        <v>3.948</v>
       </c>
       <c r="F150" t="n">
-        <v>36940</v>
+        <v>10000</v>
       </c>
       <c r="G150" t="n">
-        <v>3.9676</v>
+        <v>3.967616666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5682,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="C151" t="n">
-        <v>3.97</v>
+        <v>3.964</v>
       </c>
       <c r="D151" t="n">
-        <v>3.97</v>
+        <v>3.964</v>
       </c>
       <c r="E151" t="n">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="F151" t="n">
-        <v>195414.8775</v>
+        <v>36940</v>
       </c>
       <c r="G151" t="n">
-        <v>3.967683333333333</v>
+        <v>3.9676</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,7 +5717,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="C152" t="n">
         <v>3.97</v>
@@ -5692,13 +5726,13 @@
         <v>3.97</v>
       </c>
       <c r="E152" t="n">
-        <v>3.97</v>
+        <v>3.96</v>
       </c>
       <c r="F152" t="n">
-        <v>496507.3499</v>
+        <v>195414.8775</v>
       </c>
       <c r="G152" t="n">
-        <v>3.967766666666667</v>
+        <v>3.967683333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5752,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.971</v>
+        <v>3.97</v>
       </c>
       <c r="C153" t="n">
-        <v>3.972</v>
+        <v>3.97</v>
       </c>
       <c r="D153" t="n">
-        <v>3.972</v>
+        <v>3.97</v>
       </c>
       <c r="E153" t="n">
-        <v>3.971</v>
+        <v>3.97</v>
       </c>
       <c r="F153" t="n">
-        <v>14552.0539</v>
+        <v>496507.3499</v>
       </c>
       <c r="G153" t="n">
-        <v>3.967883333333333</v>
+        <v>3.967766666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5753,22 +5787,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3.958</v>
+        <v>3.971</v>
       </c>
       <c r="C154" t="n">
-        <v>3.958</v>
+        <v>3.972</v>
       </c>
       <c r="D154" t="n">
-        <v>3.958</v>
+        <v>3.972</v>
       </c>
       <c r="E154" t="n">
-        <v>3.958</v>
+        <v>3.971</v>
       </c>
       <c r="F154" t="n">
-        <v>277.5</v>
+        <v>14552.0539</v>
       </c>
       <c r="G154" t="n">
-        <v>3.967783333333334</v>
+        <v>3.967883333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5788,22 +5822,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.971</v>
+        <v>3.958</v>
       </c>
       <c r="C155" t="n">
         <v>3.958</v>
       </c>
       <c r="D155" t="n">
-        <v>3.971</v>
+        <v>3.958</v>
       </c>
       <c r="E155" t="n">
         <v>3.958</v>
       </c>
       <c r="F155" t="n">
-        <v>27131.802</v>
+        <v>277.5</v>
       </c>
       <c r="G155" t="n">
-        <v>3.968333333333333</v>
+        <v>3.967783333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5823,22 +5857,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.959</v>
+        <v>3.971</v>
       </c>
       <c r="C156" t="n">
-        <v>3.971</v>
+        <v>3.958</v>
       </c>
       <c r="D156" t="n">
         <v>3.971</v>
       </c>
       <c r="E156" t="n">
-        <v>3.959</v>
+        <v>3.958</v>
       </c>
       <c r="F156" t="n">
-        <v>3900</v>
+        <v>27131.802</v>
       </c>
       <c r="G156" t="n">
-        <v>3.969266666666667</v>
+        <v>3.968333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5858,22 +5892,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="C157" t="n">
         <v>3.971</v>
       </c>
-      <c r="C157" t="n">
-        <v>3.972</v>
-      </c>
       <c r="D157" t="n">
-        <v>3.972</v>
+        <v>3.971</v>
       </c>
       <c r="E157" t="n">
-        <v>3.971</v>
+        <v>3.959</v>
       </c>
       <c r="F157" t="n">
-        <v>13000</v>
+        <v>3900</v>
       </c>
       <c r="G157" t="n">
-        <v>3.9694</v>
+        <v>3.969266666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5927,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="C158" t="n">
         <v>3.972</v>
       </c>
-      <c r="C158" t="n">
-        <v>3.974</v>
-      </c>
       <c r="D158" t="n">
-        <v>3.974</v>
+        <v>3.972</v>
       </c>
       <c r="E158" t="n">
-        <v>3.972</v>
+        <v>3.971</v>
       </c>
       <c r="F158" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="G158" t="n">
-        <v>3.969566666666667</v>
+        <v>3.9694</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5928,7 +5962,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.974</v>
+        <v>3.972</v>
       </c>
       <c r="C159" t="n">
         <v>3.974</v>
@@ -5937,13 +5971,13 @@
         <v>3.974</v>
       </c>
       <c r="E159" t="n">
-        <v>3.974</v>
+        <v>3.972</v>
       </c>
       <c r="F159" t="n">
-        <v>9642.7204</v>
+        <v>15000</v>
       </c>
       <c r="G159" t="n">
-        <v>3.970383333333333</v>
+        <v>3.969566666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5997,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.975</v>
+        <v>3.974</v>
       </c>
       <c r="C160" t="n">
-        <v>3.975</v>
+        <v>3.974</v>
       </c>
       <c r="D160" t="n">
-        <v>3.975</v>
+        <v>3.974</v>
       </c>
       <c r="E160" t="n">
-        <v>3.975</v>
+        <v>3.974</v>
       </c>
       <c r="F160" t="n">
-        <v>10000</v>
+        <v>9642.7204</v>
       </c>
       <c r="G160" t="n">
-        <v>3.970566666666666</v>
+        <v>3.970383333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +6032,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.976</v>
+        <v>3.975</v>
       </c>
       <c r="C161" t="n">
-        <v>3.98</v>
+        <v>3.975</v>
       </c>
       <c r="D161" t="n">
-        <v>3.98</v>
+        <v>3.975</v>
       </c>
       <c r="E161" t="n">
-        <v>3.976</v>
+        <v>3.975</v>
       </c>
       <c r="F161" t="n">
-        <v>45096.0638</v>
+        <v>10000</v>
       </c>
       <c r="G161" t="n">
-        <v>3.970816666666666</v>
+        <v>3.970566666666666</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,7 +6067,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.98</v>
+        <v>3.976</v>
       </c>
       <c r="C162" t="n">
         <v>3.98</v>
@@ -6042,13 +6076,13 @@
         <v>3.98</v>
       </c>
       <c r="E162" t="n">
-        <v>3.98</v>
+        <v>3.976</v>
       </c>
       <c r="F162" t="n">
-        <v>4903.9362</v>
+        <v>45096.0638</v>
       </c>
       <c r="G162" t="n">
-        <v>3.971066666666666</v>
+        <v>3.970816666666666</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6068,22 +6102,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.981</v>
+        <v>3.98</v>
       </c>
       <c r="C163" t="n">
-        <v>3.984</v>
+        <v>3.98</v>
       </c>
       <c r="D163" t="n">
-        <v>3.984</v>
+        <v>3.98</v>
       </c>
       <c r="E163" t="n">
-        <v>3.981</v>
+        <v>3.98</v>
       </c>
       <c r="F163" t="n">
-        <v>40000</v>
+        <v>4903.9362</v>
       </c>
       <c r="G163" t="n">
-        <v>3.971383333333333</v>
+        <v>3.971066666666666</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,7 +6137,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.984</v>
+        <v>3.981</v>
       </c>
       <c r="C164" t="n">
         <v>3.984</v>
@@ -6112,13 +6146,13 @@
         <v>3.984</v>
       </c>
       <c r="E164" t="n">
-        <v>3.984</v>
+        <v>3.981</v>
       </c>
       <c r="F164" t="n">
         <v>40000</v>
       </c>
       <c r="G164" t="n">
-        <v>3.971483333333333</v>
+        <v>3.971383333333333</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6172,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.985</v>
+        <v>3.984</v>
       </c>
       <c r="C165" t="n">
-        <v>3.986</v>
+        <v>3.984</v>
       </c>
       <c r="D165" t="n">
-        <v>3.986</v>
+        <v>3.984</v>
       </c>
       <c r="E165" t="n">
-        <v>3.985</v>
+        <v>3.984</v>
       </c>
       <c r="F165" t="n">
-        <v>11800</v>
+        <v>40000</v>
       </c>
       <c r="G165" t="n">
-        <v>3.971433333333332</v>
+        <v>3.971483333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,22 +6207,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="C166" t="n">
         <v>3.986</v>
       </c>
-      <c r="C166" t="n">
-        <v>3.993</v>
-      </c>
       <c r="D166" t="n">
-        <v>3.993</v>
+        <v>3.986</v>
       </c>
       <c r="E166" t="n">
-        <v>3.986</v>
+        <v>3.985</v>
       </c>
       <c r="F166" t="n">
-        <v>68200</v>
+        <v>11800</v>
       </c>
       <c r="G166" t="n">
-        <v>3.971899999999999</v>
+        <v>3.971433333333332</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6242,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.992</v>
+        <v>3.986</v>
       </c>
       <c r="C167" t="n">
-        <v>3.984</v>
+        <v>3.993</v>
       </c>
       <c r="D167" t="n">
-        <v>3.992</v>
+        <v>3.993</v>
       </c>
       <c r="E167" t="n">
-        <v>3.984</v>
+        <v>3.986</v>
       </c>
       <c r="F167" t="n">
-        <v>2207523.25</v>
+        <v>68200</v>
       </c>
       <c r="G167" t="n">
-        <v>3.972499999999999</v>
+        <v>3.971899999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6277,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.987</v>
+        <v>3.992</v>
       </c>
       <c r="C168" t="n">
-        <v>3.987</v>
+        <v>3.984</v>
       </c>
       <c r="D168" t="n">
-        <v>3.987</v>
+        <v>3.992</v>
       </c>
       <c r="E168" t="n">
-        <v>3.987</v>
+        <v>3.984</v>
       </c>
       <c r="F168" t="n">
-        <v>1280</v>
+        <v>2207523.25</v>
       </c>
       <c r="G168" t="n">
-        <v>3.972849999999999</v>
+        <v>3.972499999999999</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6290,10 +6324,10 @@
         <v>3.987</v>
       </c>
       <c r="F169" t="n">
-        <v>2406.2392</v>
+        <v>1280</v>
       </c>
       <c r="G169" t="n">
-        <v>3.972949999999999</v>
+        <v>3.972849999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6316,19 +6350,19 @@
         <v>3.987</v>
       </c>
       <c r="C170" t="n">
-        <v>3.997</v>
+        <v>3.987</v>
       </c>
       <c r="D170" t="n">
-        <v>3.997</v>
+        <v>3.987</v>
       </c>
       <c r="E170" t="n">
         <v>3.987</v>
       </c>
       <c r="F170" t="n">
-        <v>540000</v>
+        <v>2406.2392</v>
       </c>
       <c r="G170" t="n">
-        <v>3.973133333333332</v>
+        <v>3.972949999999999</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6382,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="C171" t="n">
         <v>3.997</v>
       </c>
-      <c r="C171" t="n">
-        <v>4</v>
-      </c>
       <c r="D171" t="n">
-        <v>4</v>
+        <v>3.997</v>
       </c>
       <c r="E171" t="n">
-        <v>3.997</v>
+        <v>3.987</v>
       </c>
       <c r="F171" t="n">
-        <v>182225.1521</v>
+        <v>540000</v>
       </c>
       <c r="G171" t="n">
-        <v>3.973949999999999</v>
+        <v>3.973133333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6383,22 +6417,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.995</v>
+        <v>3.997</v>
       </c>
       <c r="C172" t="n">
-        <v>3.995</v>
+        <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>3.995</v>
+        <v>4</v>
       </c>
       <c r="E172" t="n">
-        <v>3.995</v>
+        <v>3.997</v>
       </c>
       <c r="F172" t="n">
-        <v>40232.1885</v>
+        <v>182225.1521</v>
       </c>
       <c r="G172" t="n">
-        <v>3.974683333333332</v>
+        <v>3.973949999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,22 +6452,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.009</v>
+        <v>3.995</v>
       </c>
       <c r="C173" t="n">
-        <v>4.009</v>
+        <v>3.995</v>
       </c>
       <c r="D173" t="n">
-        <v>4.009</v>
+        <v>3.995</v>
       </c>
       <c r="E173" t="n">
-        <v>4.009</v>
+        <v>3.995</v>
       </c>
       <c r="F173" t="n">
-        <v>1250</v>
+        <v>40232.1885</v>
       </c>
       <c r="G173" t="n">
-        <v>3.975333333333332</v>
+        <v>3.974683333333332</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6456,19 +6490,19 @@
         <v>4.009</v>
       </c>
       <c r="C174" t="n">
-        <v>4.018</v>
+        <v>4.009</v>
       </c>
       <c r="D174" t="n">
-        <v>4.018</v>
+        <v>4.009</v>
       </c>
       <c r="E174" t="n">
         <v>4.009</v>
       </c>
       <c r="F174" t="n">
-        <v>12222.9285</v>
+        <v>1250</v>
       </c>
       <c r="G174" t="n">
-        <v>3.976449999999999</v>
+        <v>3.975333333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6488,22 +6522,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
+        <v>4.009</v>
+      </c>
+      <c r="C175" t="n">
         <v>4.018</v>
       </c>
-      <c r="C175" t="n">
-        <v>4.024</v>
-      </c>
       <c r="D175" t="n">
-        <v>4.024</v>
+        <v>4.018</v>
       </c>
       <c r="E175" t="n">
-        <v>4.018</v>
+        <v>4.009</v>
       </c>
       <c r="F175" t="n">
-        <v>260000</v>
+        <v>12222.9285</v>
       </c>
       <c r="G175" t="n">
-        <v>3.977049999999999</v>
+        <v>3.976449999999999</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6523,22 +6557,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
+        <v>4.018</v>
+      </c>
+      <c r="C176" t="n">
         <v>4.024</v>
       </c>
-      <c r="C176" t="n">
-        <v>4.04</v>
-      </c>
       <c r="D176" t="n">
-        <v>4.04</v>
+        <v>4.024</v>
       </c>
       <c r="E176" t="n">
-        <v>4.024</v>
+        <v>4.018</v>
       </c>
       <c r="F176" t="n">
-        <v>13000</v>
+        <v>260000</v>
       </c>
       <c r="G176" t="n">
-        <v>3.978366666666666</v>
+        <v>3.977049999999999</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,7 +6592,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.04</v>
+        <v>4.024</v>
       </c>
       <c r="C177" t="n">
         <v>4.04</v>
@@ -6567,13 +6601,13 @@
         <v>4.04</v>
       </c>
       <c r="E177" t="n">
-        <v>4.04</v>
+        <v>4.024</v>
       </c>
       <c r="F177" t="n">
-        <v>12694.6876</v>
+        <v>13000</v>
       </c>
       <c r="G177" t="n">
-        <v>3.979899999999999</v>
+        <v>3.978366666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6627,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.055</v>
+        <v>4.04</v>
       </c>
       <c r="C178" t="n">
-        <v>4.055</v>
+        <v>4.04</v>
       </c>
       <c r="D178" t="n">
-        <v>4.055</v>
+        <v>4.04</v>
       </c>
       <c r="E178" t="n">
-        <v>4.055</v>
+        <v>4.04</v>
       </c>
       <c r="F178" t="n">
-        <v>287195.8918</v>
+        <v>12694.6876</v>
       </c>
       <c r="G178" t="n">
-        <v>3.980999999999999</v>
+        <v>3.979899999999999</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6662,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4.03</v>
+        <v>4.055</v>
       </c>
       <c r="C179" t="n">
-        <v>4.03</v>
+        <v>4.055</v>
       </c>
       <c r="D179" t="n">
-        <v>4.03</v>
+        <v>4.055</v>
       </c>
       <c r="E179" t="n">
-        <v>4.03</v>
+        <v>4.055</v>
       </c>
       <c r="F179" t="n">
-        <v>26940</v>
+        <v>287195.8918</v>
       </c>
       <c r="G179" t="n">
-        <v>3.981499999999999</v>
+        <v>3.980999999999999</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6697,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4.037</v>
+        <v>4.03</v>
       </c>
       <c r="C180" t="n">
-        <v>4.037</v>
+        <v>4.03</v>
       </c>
       <c r="D180" t="n">
-        <v>4.037</v>
+        <v>4.03</v>
       </c>
       <c r="E180" t="n">
-        <v>4.037</v>
+        <v>4.03</v>
       </c>
       <c r="F180" t="n">
-        <v>13460</v>
+        <v>26940</v>
       </c>
       <c r="G180" t="n">
-        <v>3.982166666666666</v>
+        <v>3.981499999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6710,10 +6744,10 @@
         <v>4.037</v>
       </c>
       <c r="F181" t="n">
-        <v>12244.0092</v>
+        <v>13460</v>
       </c>
       <c r="G181" t="n">
-        <v>3.983283333333333</v>
+        <v>3.982166666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6767,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4.008</v>
+        <v>4.037</v>
       </c>
       <c r="C182" t="n">
-        <v>4.008</v>
+        <v>4.037</v>
       </c>
       <c r="D182" t="n">
-        <v>4.008</v>
+        <v>4.037</v>
       </c>
       <c r="E182" t="n">
-        <v>4.008</v>
+        <v>4.037</v>
       </c>
       <c r="F182" t="n">
-        <v>33080</v>
+        <v>12244.0092</v>
       </c>
       <c r="G182" t="n">
-        <v>3.98395</v>
+        <v>3.983283333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,22 +6802,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="C183" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="D183" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="E183" t="n">
-        <v>3.998</v>
+        <v>4.008</v>
       </c>
       <c r="F183" t="n">
-        <v>280747.2842</v>
+        <v>33080</v>
       </c>
       <c r="G183" t="n">
-        <v>3.983966666666666</v>
+        <v>3.98395</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,22 +6837,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.997</v>
+        <v>3.998</v>
       </c>
       <c r="C184" t="n">
-        <v>4.008</v>
+        <v>3.998</v>
       </c>
       <c r="D184" t="n">
-        <v>4.008</v>
+        <v>3.998</v>
       </c>
       <c r="E184" t="n">
-        <v>3.997</v>
+        <v>3.998</v>
       </c>
       <c r="F184" t="n">
-        <v>224279.9438</v>
+        <v>280747.2842</v>
       </c>
       <c r="G184" t="n">
-        <v>3.984166666666666</v>
+        <v>3.983966666666666</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6838,7 +6872,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4.008</v>
+        <v>3.997</v>
       </c>
       <c r="C185" t="n">
         <v>4.008</v>
@@ -6847,13 +6881,13 @@
         <v>4.008</v>
       </c>
       <c r="E185" t="n">
-        <v>4.008</v>
+        <v>3.997</v>
       </c>
       <c r="F185" t="n">
-        <v>1247.504990019</v>
+        <v>224279.9438</v>
       </c>
       <c r="G185" t="n">
-        <v>3.985166666666666</v>
+        <v>3.984166666666666</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6885,10 +6919,10 @@
         <v>4.008</v>
       </c>
       <c r="F186" t="n">
-        <v>300868.380409981</v>
+        <v>1247.504990019</v>
       </c>
       <c r="G186" t="n">
-        <v>3.985883333333333</v>
+        <v>3.985166666666666</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,22 +6942,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4.027</v>
+        <v>4.008</v>
       </c>
       <c r="C187" t="n">
-        <v>3.985</v>
+        <v>4.008</v>
       </c>
       <c r="D187" t="n">
-        <v>4.027</v>
+        <v>4.008</v>
       </c>
       <c r="E187" t="n">
-        <v>3.985</v>
+        <v>4.008</v>
       </c>
       <c r="F187" t="n">
-        <v>287320.8918</v>
+        <v>300868.380409981</v>
       </c>
       <c r="G187" t="n">
-        <v>3.986216666666666</v>
+        <v>3.985883333333333</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6946,19 +6980,19 @@
         <v>4.027</v>
       </c>
       <c r="C188" t="n">
-        <v>4.027</v>
+        <v>3.985</v>
       </c>
       <c r="D188" t="n">
         <v>4.027</v>
       </c>
       <c r="E188" t="n">
-        <v>4.027</v>
+        <v>3.985</v>
       </c>
       <c r="F188" t="n">
-        <v>127</v>
+        <v>287320.8918</v>
       </c>
       <c r="G188" t="n">
-        <v>3.987249999999999</v>
+        <v>3.986216666666666</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6973,6 +7007,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="C189" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="D189" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="E189" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="F189" t="n">
+        <v>127</v>
+      </c>
+      <c r="G189" t="n">
+        <v>3.987249999999999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>22280.804731083</v>
       </c>
       <c r="G2" t="n">
+        <v>3.862133333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.882349999999997</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>51125.7566</v>
       </c>
       <c r="G3" t="n">
+        <v>3.866066666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>3.882283333333331</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +533,27 @@
         <v>271920.1424</v>
       </c>
       <c r="G4" t="n">
+        <v>3.869666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.882233333333331</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +577,27 @@
         <v>1818.1818</v>
       </c>
       <c r="G5" t="n">
+        <v>3.871666666666667</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.881199999999998</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +621,27 @@
         <v>123349.9475</v>
       </c>
       <c r="G6" t="n">
+        <v>3.872866666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>3.880166666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +665,27 @@
         <v>33763.5953</v>
       </c>
       <c r="G7" t="n">
+        <v>3.870600000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.879133333333332</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +709,27 @@
         <v>11662.3952</v>
       </c>
       <c r="G8" t="n">
+        <v>3.869133333333334</v>
+      </c>
+      <c r="H8" t="n">
         <v>3.878133333333332</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +753,27 @@
         <v>92000</v>
       </c>
       <c r="G9" t="n">
+        <v>3.868466666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.876799999999998</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +797,29 @@
         <v>129</v>
       </c>
       <c r="G10" t="n">
+        <v>3.874266666666668</v>
+      </c>
+      <c r="H10" t="n">
         <v>3.876616666666665</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +843,29 @@
         <v>6541.2773</v>
       </c>
       <c r="G11" t="n">
+        <v>3.879933333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.875416666666665</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +889,29 @@
         <v>2647343.3986</v>
       </c>
       <c r="G12" t="n">
+        <v>3.884333333333335</v>
+      </c>
+      <c r="H12" t="n">
         <v>3.873899999999999</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +935,27 @@
         <v>23047.031</v>
       </c>
       <c r="G13" t="n">
+        <v>3.885200000000002</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.872383333333332</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +979,27 @@
         <v>3121.932128805</v>
       </c>
       <c r="G14" t="n">
+        <v>3.888133333333335</v>
+      </c>
+      <c r="H14" t="n">
         <v>3.870766666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1023,27 @@
         <v>8159.9179</v>
       </c>
       <c r="G15" t="n">
+        <v>3.891733333333335</v>
+      </c>
+      <c r="H15" t="n">
         <v>3.869933333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1067,27 @@
         <v>11111</v>
       </c>
       <c r="G16" t="n">
+        <v>3.892600000000002</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.868999999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1111,27 @@
         <v>128764.8606</v>
       </c>
       <c r="G17" t="n">
+        <v>3.891266666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>3.868366666666665</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1155,27 @@
         <v>129</v>
       </c>
       <c r="G18" t="n">
+        <v>3.890800000000002</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.867783333333332</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1199,27 @@
         <v>57737.9519</v>
       </c>
       <c r="G19" t="n">
+        <v>3.890533333333336</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.867249999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1243,27 @@
         <v>231479.7527</v>
       </c>
       <c r="G20" t="n">
+        <v>3.894666666666669</v>
+      </c>
+      <c r="H20" t="n">
         <v>3.867966666666665</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1287,27 @@
         <v>112841.4842</v>
       </c>
       <c r="G21" t="n">
+        <v>3.898800000000003</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.868983333333331</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1331,27 @@
         <v>722767.4254167289</v>
       </c>
       <c r="G22" t="n">
+        <v>3.906200000000003</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.870966666666665</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1375,27 @@
         <v>5056.89</v>
       </c>
       <c r="G23" t="n">
+        <v>3.91086666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>3.871999999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1419,27 @@
         <v>126561.818388421</v>
       </c>
       <c r="G24" t="n">
+        <v>3.91946666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>3.874133333333331</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1463,27 @@
         <v>83206.9185</v>
       </c>
       <c r="G25" t="n">
+        <v>3.92346666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.875466666666664</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1507,27 @@
         <v>128</v>
       </c>
       <c r="G26" t="n">
+        <v>3.930000000000004</v>
+      </c>
+      <c r="H26" t="n">
         <v>3.877433333333331</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1551,27 @@
         <v>500</v>
       </c>
       <c r="G27" t="n">
+        <v>3.937800000000003</v>
+      </c>
+      <c r="H27" t="n">
         <v>3.879399999999997</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1595,27 @@
         <v>77168.5545</v>
       </c>
       <c r="G28" t="n">
+        <v>3.945600000000003</v>
+      </c>
+      <c r="H28" t="n">
         <v>3.881366666666664</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1639,27 @@
         <v>50036.8637</v>
       </c>
       <c r="G29" t="n">
+        <v>3.951333333333336</v>
+      </c>
+      <c r="H29" t="n">
         <v>3.883333333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1683,27 @@
         <v>260.111</v>
       </c>
       <c r="G30" t="n">
+        <v>3.955733333333336</v>
+      </c>
+      <c r="H30" t="n">
         <v>3.885266666666664</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1727,27 @@
         <v>10140</v>
       </c>
       <c r="G31" t="n">
+        <v>3.96206666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.887383333333331</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1771,27 @@
         <v>28749.1162</v>
       </c>
       <c r="G32" t="n">
+        <v>3.96846666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.889499999999998</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1815,27 @@
         <v>41185.8055</v>
       </c>
       <c r="G33" t="n">
+        <v>3.973333333333336</v>
+      </c>
+      <c r="H33" t="n">
         <v>3.891449999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1859,27 @@
         <v>34973.8986</v>
       </c>
       <c r="G34" t="n">
+        <v>3.975600000000003</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.892749999999998</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1903,27 @@
         <v>11273.899</v>
       </c>
       <c r="G35" t="n">
+        <v>3.977400000000002</v>
+      </c>
+      <c r="H35" t="n">
         <v>3.894649999999998</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1947,27 @@
         <v>159252.649</v>
       </c>
       <c r="G36" t="n">
+        <v>3.976200000000003</v>
+      </c>
+      <c r="H36" t="n">
         <v>3.895799999999998</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1991,27 @@
         <v>22815.8729</v>
       </c>
       <c r="G37" t="n">
+        <v>3.972400000000002</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.897633333333332</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +2035,27 @@
         <v>1053495.1941</v>
       </c>
       <c r="G38" t="n">
+        <v>3.969400000000002</v>
+      </c>
+      <c r="H38" t="n">
         <v>3.899133333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +2079,27 @@
         <v>127</v>
       </c>
       <c r="G39" t="n">
+        <v>3.966733333333336</v>
+      </c>
+      <c r="H39" t="n">
         <v>3.901616666666665</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +2123,27 @@
         <v>1044115.4327</v>
       </c>
       <c r="G40" t="n">
+        <v>3.966666666666669</v>
+      </c>
+      <c r="H40" t="n">
         <v>3.903199999999998</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +2167,27 @@
         <v>49750.3223</v>
       </c>
       <c r="G41" t="n">
+        <v>3.964000000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>3.904766666666665</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2211,27 @@
         <v>831413.3551</v>
       </c>
       <c r="G42" t="n">
+        <v>3.957600000000002</v>
+      </c>
+      <c r="H42" t="n">
         <v>3.905399999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2255,27 @@
         <v>200</v>
       </c>
       <c r="G43" t="n">
+        <v>3.954200000000002</v>
+      </c>
+      <c r="H43" t="n">
         <v>3.907449999999998</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2299,27 @@
         <v>13326.177</v>
       </c>
       <c r="G44" t="n">
+        <v>3.950800000000002</v>
+      </c>
+      <c r="H44" t="n">
         <v>3.909499999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2343,27 @@
         <v>11840</v>
       </c>
       <c r="G45" t="n">
+        <v>3.948133333333335</v>
+      </c>
+      <c r="H45" t="n">
         <v>3.911566666666665</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2387,27 @@
         <v>1000</v>
       </c>
       <c r="G46" t="n">
+        <v>3.944733333333335</v>
+      </c>
+      <c r="H46" t="n">
         <v>3.913683333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2431,27 @@
         <v>11960</v>
       </c>
       <c r="G47" t="n">
+        <v>3.939000000000002</v>
+      </c>
+      <c r="H47" t="n">
         <v>3.915216666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2475,27 @@
         <v>15492.3761</v>
       </c>
       <c r="G48" t="n">
+        <v>3.933333333333335</v>
+      </c>
+      <c r="H48" t="n">
         <v>3.915883333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2519,27 @@
         <v>26357.795835449</v>
       </c>
       <c r="G49" t="n">
+        <v>3.933066666666669</v>
+      </c>
+      <c r="H49" t="n">
         <v>3.917216666666664</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2563,27 @@
         <v>128</v>
       </c>
       <c r="G50" t="n">
+        <v>3.929800000000002</v>
+      </c>
+      <c r="H50" t="n">
         <v>3.918383333333331</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2607,27 @@
         <v>1945.7048</v>
       </c>
       <c r="G51" t="n">
+        <v>3.927800000000002</v>
+      </c>
+      <c r="H51" t="n">
         <v>3.918916666666664</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,22 +2651,27 @@
         <v>127</v>
       </c>
       <c r="G52" t="n">
+        <v>3.927466666666668</v>
+      </c>
+      <c r="H52" t="n">
         <v>3.919166666666664</v>
       </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2237,24 +2695,27 @@
         <v>6461.8709</v>
       </c>
       <c r="G53" t="n">
+        <v>3.926600000000002</v>
+      </c>
+      <c r="H53" t="n">
         <v>3.918999999999997</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2278,24 +2739,27 @@
         <v>8310</v>
       </c>
       <c r="G54" t="n">
+        <v>3.922933333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>3.919399999999997</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,22 +2783,27 @@
         <v>12294.1177</v>
       </c>
       <c r="G55" t="n">
+        <v>3.919266666666668</v>
+      </c>
+      <c r="H55" t="n">
         <v>3.920916666666664</v>
       </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>3.904</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3.904</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,26 +2827,27 @@
         <v>128</v>
       </c>
       <c r="G56" t="n">
+        <v>3.918533333333335</v>
+      </c>
+      <c r="H56" t="n">
         <v>3.923116666666664</v>
       </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.904</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2401,24 +2871,27 @@
         <v>22815.8729</v>
       </c>
       <c r="G57" t="n">
+        <v>3.918733333333335</v>
+      </c>
+      <c r="H57" t="n">
         <v>3.924616666666664</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>3.904</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,18 +2915,27 @@
         <v>22815.873</v>
       </c>
       <c r="G58" t="n">
+        <v>3.918666666666668</v>
+      </c>
+      <c r="H58" t="n">
         <v>3.925916666666665</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,18 +2959,27 @@
         <v>22717.4329</v>
       </c>
       <c r="G59" t="n">
+        <v>3.918666666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>3.927233333333331</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,18 +3003,27 @@
         <v>156148.4449</v>
       </c>
       <c r="G60" t="n">
+        <v>3.915800000000002</v>
+      </c>
+      <c r="H60" t="n">
         <v>3.927849999999998</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,18 +3047,27 @@
         <v>159252.649</v>
       </c>
       <c r="G61" t="n">
+        <v>3.913000000000002</v>
+      </c>
+      <c r="H61" t="n">
         <v>3.928099999999998</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,18 +3091,27 @@
         <v>127</v>
       </c>
       <c r="G62" t="n">
+        <v>3.915333333333335</v>
+      </c>
+      <c r="H62" t="n">
         <v>3.928516666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,18 +3135,27 @@
         <v>40000</v>
       </c>
       <c r="G63" t="n">
+        <v>3.918266666666668</v>
+      </c>
+      <c r="H63" t="n">
         <v>3.928933333333332</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,18 +3179,27 @@
         <v>16477.2313</v>
       </c>
       <c r="G64" t="n">
+        <v>3.918066666666668</v>
+      </c>
+      <c r="H64" t="n">
         <v>3.929316666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,18 +3223,27 @@
         <v>69325.4152</v>
       </c>
       <c r="G65" t="n">
+        <v>3.918200000000001</v>
+      </c>
+      <c r="H65" t="n">
         <v>3.930016666666665</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,18 +3267,27 @@
         <v>181954.766</v>
       </c>
       <c r="G66" t="n">
+        <v>3.920066666666668</v>
+      </c>
+      <c r="H66" t="n">
         <v>3.930716666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,18 +3311,27 @@
         <v>8230</v>
       </c>
       <c r="G67" t="n">
+        <v>3.918000000000001</v>
+      </c>
+      <c r="H67" t="n">
         <v>3.931016666666665</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,18 +3355,27 @@
         <v>30659.1162</v>
       </c>
       <c r="G68" t="n">
+        <v>3.917600000000002</v>
+      </c>
+      <c r="H68" t="n">
         <v>3.931116666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,18 +3399,27 @@
         <v>128</v>
       </c>
       <c r="G69" t="n">
+        <v>3.919000000000002</v>
+      </c>
+      <c r="H69" t="n">
         <v>3.932033333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,18 +3443,27 @@
         <v>934.2732999999999</v>
       </c>
       <c r="G70" t="n">
+        <v>3.919133333333335</v>
+      </c>
+      <c r="H70" t="n">
         <v>3.932133333333332</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,18 +3487,27 @@
         <v>128</v>
       </c>
       <c r="G71" t="n">
+        <v>3.918333333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>3.932716666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3531,27 @@
         <v>127</v>
       </c>
       <c r="G72" t="n">
+        <v>3.920666666666668</v>
+      </c>
+      <c r="H72" t="n">
         <v>3.933699999999999</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3575,27 @@
         <v>25171.5443</v>
       </c>
       <c r="G73" t="n">
+        <v>3.920266666666668</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.934683333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3619,27 @@
         <v>14421.6078</v>
       </c>
       <c r="G74" t="n">
+        <v>3.918333333333335</v>
+      </c>
+      <c r="H74" t="n">
         <v>3.934783333333332</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3663,27 @@
         <v>206637.2377</v>
       </c>
       <c r="G75" t="n">
+        <v>3.918800000000002</v>
+      </c>
+      <c r="H75" t="n">
         <v>3.934616666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3707,27 @@
         <v>23587.6296</v>
       </c>
       <c r="G76" t="n">
+        <v>3.919666666666668</v>
+      </c>
+      <c r="H76" t="n">
         <v>3.934866666666665</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3751,27 @@
         <v>128</v>
       </c>
       <c r="G77" t="n">
+        <v>3.919066666666668</v>
+      </c>
+      <c r="H77" t="n">
         <v>3.935466666666665</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3795,27 @@
         <v>21090.9537</v>
       </c>
       <c r="G78" t="n">
+        <v>3.917600000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>3.935633333333331</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3839,27 @@
         <v>128</v>
       </c>
       <c r="G79" t="n">
+        <v>3.917133333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>3.935966666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3883,27 @@
         <v>218175.9958</v>
       </c>
       <c r="G80" t="n">
+        <v>3.917000000000001</v>
+      </c>
+      <c r="H80" t="n">
         <v>3.935599999999999</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3927,27 @@
         <v>78347.66740000001</v>
       </c>
       <c r="G81" t="n">
+        <v>3.915600000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>3.934916666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3971,27 @@
         <v>160000</v>
       </c>
       <c r="G82" t="n">
+        <v>3.915266666666668</v>
+      </c>
+      <c r="H82" t="n">
         <v>3.933283333333332</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +4015,27 @@
         <v>167.1127</v>
       </c>
       <c r="G83" t="n">
+        <v>3.915666666666668</v>
+      </c>
+      <c r="H83" t="n">
         <v>3.932316666666665</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +4059,27 @@
         <v>466.9355</v>
       </c>
       <c r="G84" t="n">
+        <v>3.914333333333335</v>
+      </c>
+      <c r="H84" t="n">
         <v>3.930749999999998</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +4103,27 @@
         <v>151640.8232</v>
       </c>
       <c r="G85" t="n">
+        <v>3.914933333333335</v>
+      </c>
+      <c r="H85" t="n">
         <v>3.929999999999999</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +4147,27 @@
         <v>75618.92570000001</v>
       </c>
       <c r="G86" t="n">
+        <v>3.913533333333335</v>
+      </c>
+      <c r="H86" t="n">
         <v>3.928599999999999</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +4191,27 @@
         <v>128</v>
       </c>
       <c r="G87" t="n">
+        <v>3.913333333333335</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.927583333333332</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +4235,27 @@
         <v>167.1127</v>
       </c>
       <c r="G88" t="n">
+        <v>3.911800000000002</v>
+      </c>
+      <c r="H88" t="n">
         <v>3.926233333333332</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +4279,27 @@
         <v>129</v>
       </c>
       <c r="G89" t="n">
+        <v>3.913066666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>3.925216666666665</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +4323,29 @@
         <v>66824.6165</v>
       </c>
       <c r="G90" t="n">
+        <v>3.914733333333335</v>
+      </c>
+      <c r="H90" t="n">
         <v>3.924366666666665</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +4369,27 @@
         <v>484078.1505</v>
       </c>
       <c r="G91" t="n">
+        <v>3.918533333333335</v>
+      </c>
+      <c r="H91" t="n">
         <v>3.923983333333332</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +4413,27 @@
         <v>1818.1818</v>
       </c>
       <c r="G92" t="n">
+        <v>3.921000000000002</v>
+      </c>
+      <c r="H92" t="n">
         <v>3.923599999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +4457,27 @@
         <v>47712.1269</v>
       </c>
       <c r="G93" t="n">
+        <v>3.924333333333335</v>
+      </c>
+      <c r="H93" t="n">
         <v>3.923383333333332</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4501,27 @@
         <v>1916.719</v>
       </c>
       <c r="G94" t="n">
+        <v>3.926800000000002</v>
+      </c>
+      <c r="H94" t="n">
         <v>3.923766666666665</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4545,27 @@
         <v>45112</v>
       </c>
       <c r="G95" t="n">
+        <v>3.929200000000002</v>
+      </c>
+      <c r="H95" t="n">
         <v>3.923549999999998</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4589,27 @@
         <v>50000.8856</v>
       </c>
       <c r="G96" t="n">
+        <v>3.930266666666669</v>
+      </c>
+      <c r="H96" t="n">
         <v>3.923433333333332</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4633,27 @@
         <v>9000</v>
       </c>
       <c r="G97" t="n">
+        <v>3.931200000000002</v>
+      </c>
+      <c r="H97" t="n">
         <v>3.922983333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4677,27 @@
         <v>130</v>
       </c>
       <c r="G98" t="n">
+        <v>3.935333333333335</v>
+      </c>
+      <c r="H98" t="n">
         <v>3.923799999999999</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4721,27 @@
         <v>919.5351000000001</v>
       </c>
       <c r="G99" t="n">
+        <v>3.939266666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.923883333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4765,27 @@
         <v>9001.933999999999</v>
       </c>
       <c r="G100" t="n">
+        <v>3.940600000000002</v>
+      </c>
+      <c r="H100" t="n">
         <v>3.923483333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4809,29 @@
         <v>128</v>
       </c>
       <c r="G101" t="n">
+        <v>3.944600000000002</v>
+      </c>
+      <c r="H101" t="n">
         <v>3.923749999999998</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="L101" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4855,27 @@
         <v>312957.3952</v>
       </c>
       <c r="G102" t="n">
+        <v>3.947133333333335</v>
+      </c>
+      <c r="H102" t="n">
         <v>3.924966666666665</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4899,27 @@
         <v>61710</v>
       </c>
       <c r="G103" t="n">
+        <v>3.951000000000002</v>
+      </c>
+      <c r="H103" t="n">
         <v>3.925433333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4943,27 @@
         <v>20570</v>
       </c>
       <c r="G104" t="n">
+        <v>3.953533333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>3.925899999999998</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4087,18 +4987,27 @@
         <v>74531.7426</v>
       </c>
       <c r="G105" t="n">
+        <v>3.956933333333336</v>
+      </c>
+      <c r="H105" t="n">
         <v>3.926566666666665</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4122,18 +5031,27 @@
         <v>180796.3966</v>
       </c>
       <c r="G106" t="n">
+        <v>3.958533333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>3.927433333333332</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,18 +5075,27 @@
         <v>830</v>
       </c>
       <c r="G107" t="n">
+        <v>3.958533333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>3.928483333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4192,18 +5119,27 @@
         <v>128</v>
       </c>
       <c r="G108" t="n">
+        <v>3.957400000000002</v>
+      </c>
+      <c r="H108" t="n">
         <v>3.929399999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4227,18 +5163,27 @@
         <v>292.5464</v>
       </c>
       <c r="G109" t="n">
+        <v>3.957466666666669</v>
+      </c>
+      <c r="H109" t="n">
         <v>3.929866666666666</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,18 +5207,27 @@
         <v>2300</v>
       </c>
       <c r="G110" t="n">
+        <v>3.958600000000003</v>
+      </c>
+      <c r="H110" t="n">
         <v>3.930749999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4297,18 +5251,27 @@
         <v>5000</v>
       </c>
       <c r="G111" t="n">
+        <v>3.962666666666669</v>
+      </c>
+      <c r="H111" t="n">
         <v>3.932149999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4332,18 +5295,27 @@
         <v>300</v>
       </c>
       <c r="G112" t="n">
+        <v>3.96506666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>3.932383333333332</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4367,18 +5339,27 @@
         <v>8941.1659</v>
       </c>
       <c r="G113" t="n">
+        <v>3.964200000000003</v>
+      </c>
+      <c r="H113" t="n">
         <v>3.933199999999999</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4402,18 +5383,27 @@
         <v>130</v>
       </c>
       <c r="G114" t="n">
+        <v>3.964600000000003</v>
+      </c>
+      <c r="H114" t="n">
         <v>3.934299999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4437,18 +5427,27 @@
         <v>11000</v>
       </c>
       <c r="G115" t="n">
+        <v>3.966333333333337</v>
+      </c>
+      <c r="H115" t="n">
         <v>3.935249999999999</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4472,18 +5471,27 @@
         <v>412004.0724</v>
       </c>
       <c r="G116" t="n">
+        <v>3.967933333333336</v>
+      </c>
+      <c r="H116" t="n">
         <v>3.936099999999998</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,18 +5515,27 @@
         <v>130</v>
       </c>
       <c r="G117" t="n">
+        <v>3.967666666666669</v>
+      </c>
+      <c r="H117" t="n">
         <v>3.937199999999998</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,18 +5559,27 @@
         <v>200</v>
       </c>
       <c r="G118" t="n">
+        <v>3.966533333333337</v>
+      </c>
+      <c r="H118" t="n">
         <v>3.937399999999998</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,18 +5603,27 @@
         <v>351730.5598</v>
       </c>
       <c r="G119" t="n">
+        <v>3.968133333333336</v>
+      </c>
+      <c r="H119" t="n">
         <v>3.938266666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4612,18 +5647,27 @@
         <v>5000</v>
       </c>
       <c r="G120" t="n">
+        <v>3.969600000000003</v>
+      </c>
+      <c r="H120" t="n">
         <v>3.940016666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4647,18 +5691,27 @@
         <v>403.8864</v>
       </c>
       <c r="G121" t="n">
+        <v>3.970133333333337</v>
+      </c>
+      <c r="H121" t="n">
         <v>3.941716666666665</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,18 +5735,27 @@
         <v>40788.1085</v>
       </c>
       <c r="G122" t="n">
+        <v>3.970466666666669</v>
+      </c>
+      <c r="H122" t="n">
         <v>3.942266666666665</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4717,18 +5779,27 @@
         <v>28571</v>
       </c>
       <c r="G123" t="n">
+        <v>3.971800000000003</v>
+      </c>
+      <c r="H123" t="n">
         <v>3.942783333333331</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4752,18 +5823,27 @@
         <v>1818.1818</v>
       </c>
       <c r="G124" t="n">
+        <v>3.97386666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>3.943816666666664</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4787,18 +5867,27 @@
         <v>100000</v>
       </c>
       <c r="G125" t="n">
+        <v>3.97486666666667</v>
+      </c>
+      <c r="H125" t="n">
         <v>3.944916666666664</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4822,18 +5911,27 @@
         <v>19800</v>
       </c>
       <c r="G126" t="n">
+        <v>3.972333333333337</v>
+      </c>
+      <c r="H126" t="n">
         <v>3.945216666666664</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4857,18 +5955,27 @@
         <v>28340</v>
       </c>
       <c r="G127" t="n">
+        <v>3.97326666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>3.946199999999997</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4892,18 +5999,27 @@
         <v>85915.8014</v>
       </c>
       <c r="G128" t="n">
+        <v>3.974200000000003</v>
+      </c>
+      <c r="H128" t="n">
         <v>3.947349999999998</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4927,18 +6043,27 @@
         <v>100000</v>
       </c>
       <c r="G129" t="n">
+        <v>3.97386666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>3.948016666666665</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4962,18 +6087,27 @@
         <v>1234</v>
       </c>
       <c r="G130" t="n">
+        <v>3.97626666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>3.949533333333331</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4997,18 +6131,27 @@
         <v>231516</v>
       </c>
       <c r="G131" t="n">
+        <v>3.974333333333337</v>
+      </c>
+      <c r="H131" t="n">
         <v>3.950099999999998</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5032,18 +6175,27 @@
         <v>100000</v>
       </c>
       <c r="G132" t="n">
+        <v>3.974200000000004</v>
+      </c>
+      <c r="H132" t="n">
         <v>3.950583333333331</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5067,18 +6219,27 @@
         <v>6691.6821</v>
       </c>
       <c r="G133" t="n">
+        <v>3.977333333333337</v>
+      </c>
+      <c r="H133" t="n">
         <v>3.951666666666664</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,18 +6263,27 @@
         <v>10000</v>
       </c>
       <c r="G134" t="n">
+        <v>3.977400000000004</v>
+      </c>
+      <c r="H134" t="n">
         <v>3.953033333333331</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,18 +6307,27 @@
         <v>8466</v>
       </c>
       <c r="G135" t="n">
+        <v>3.975466666666671</v>
+      </c>
+      <c r="H135" t="n">
         <v>3.954183333333332</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5172,18 +6351,27 @@
         <v>8470</v>
       </c>
       <c r="G136" t="n">
+        <v>3.973733333333338</v>
+      </c>
+      <c r="H136" t="n">
         <v>3.955233333333332</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5207,18 +6395,27 @@
         <v>10000</v>
       </c>
       <c r="G137" t="n">
+        <v>3.973733333333338</v>
+      </c>
+      <c r="H137" t="n">
         <v>3.955933333333332</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,18 +6439,27 @@
         <v>10000</v>
       </c>
       <c r="G138" t="n">
+        <v>3.973866666666671</v>
+      </c>
+      <c r="H138" t="n">
         <v>3.956849999999998</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5277,18 +6483,27 @@
         <v>41250</v>
       </c>
       <c r="G139" t="n">
+        <v>3.972066666666671</v>
+      </c>
+      <c r="H139" t="n">
         <v>3.957549999999999</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,18 +6527,27 @@
         <v>61250</v>
       </c>
       <c r="G140" t="n">
+        <v>3.970333333333337</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.958249999999999</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5347,18 +6571,27 @@
         <v>126</v>
       </c>
       <c r="G141" t="n">
+        <v>3.97226666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>3.959383333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5382,18 +6615,27 @@
         <v>30000</v>
       </c>
       <c r="G142" t="n">
+        <v>3.972400000000003</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.960483333333332</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5417,18 +6659,27 @@
         <v>156423.2056</v>
       </c>
       <c r="G143" t="n">
+        <v>3.972533333333337</v>
+      </c>
+      <c r="H143" t="n">
         <v>3.961566666666666</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5452,18 +6703,27 @@
         <v>76171.1225</v>
       </c>
       <c r="G144" t="n">
+        <v>3.97266666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>3.9626</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5487,18 +6747,27 @@
         <v>20000</v>
       </c>
       <c r="G145" t="n">
+        <v>3.97146666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>3.963666666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5522,18 +6791,27 @@
         <v>20000</v>
       </c>
       <c r="G146" t="n">
+        <v>3.97226666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>3.964783333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5557,18 +6835,27 @@
         <v>30288.4548</v>
       </c>
       <c r="G147" t="n">
+        <v>3.973933333333336</v>
+      </c>
+      <c r="H147" t="n">
         <v>3.965733333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5592,18 +6879,27 @@
         <v>126</v>
       </c>
       <c r="G148" t="n">
+        <v>3.971933333333336</v>
+      </c>
+      <c r="H148" t="n">
         <v>3.9667</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,18 +6923,27 @@
         <v>50000</v>
       </c>
       <c r="G149" t="n">
+        <v>3.970000000000003</v>
+      </c>
+      <c r="H149" t="n">
         <v>3.967266666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5662,18 +6967,27 @@
         <v>10000</v>
       </c>
       <c r="G150" t="n">
+        <v>3.96846666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>3.967616666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5697,18 +7011,27 @@
         <v>36940</v>
       </c>
       <c r="G151" t="n">
+        <v>3.968000000000003</v>
+      </c>
+      <c r="H151" t="n">
         <v>3.9676</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5732,18 +7055,27 @@
         <v>195414.8775</v>
       </c>
       <c r="G152" t="n">
+        <v>3.968000000000003</v>
+      </c>
+      <c r="H152" t="n">
         <v>3.967683333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5767,18 +7099,27 @@
         <v>496507.3499</v>
       </c>
       <c r="G153" t="n">
+        <v>3.968000000000003</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.967766666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5802,18 +7143,27 @@
         <v>14552.0539</v>
       </c>
       <c r="G154" t="n">
+        <v>3.968133333333336</v>
+      </c>
+      <c r="H154" t="n">
         <v>3.967883333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5837,18 +7187,27 @@
         <v>277.5</v>
       </c>
       <c r="G155" t="n">
+        <v>3.967333333333336</v>
+      </c>
+      <c r="H155" t="n">
         <v>3.967783333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5872,18 +7231,27 @@
         <v>27131.802</v>
       </c>
       <c r="G156" t="n">
+        <v>3.96606666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>3.968333333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5907,18 +7275,27 @@
         <v>3900</v>
       </c>
       <c r="G157" t="n">
+        <v>3.966333333333337</v>
+      </c>
+      <c r="H157" t="n">
         <v>3.969266666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,18 +7319,27 @@
         <v>13000</v>
       </c>
       <c r="G158" t="n">
+        <v>3.96666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>3.9694</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5977,18 +7363,27 @@
         <v>15000</v>
       </c>
       <c r="G159" t="n">
+        <v>3.967133333333337</v>
+      </c>
+      <c r="H159" t="n">
         <v>3.969566666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6012,18 +7407,27 @@
         <v>9642.7204</v>
       </c>
       <c r="G160" t="n">
+        <v>3.96746666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>3.970383333333333</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6047,18 +7451,27 @@
         <v>10000</v>
       </c>
       <c r="G161" t="n">
+        <v>3.967733333333336</v>
+      </c>
+      <c r="H161" t="n">
         <v>3.970566666666666</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6082,18 +7495,27 @@
         <v>45096.0638</v>
       </c>
       <c r="G162" t="n">
+        <v>3.967466666666669</v>
+      </c>
+      <c r="H162" t="n">
         <v>3.970816666666666</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6117,18 +7539,27 @@
         <v>4903.9362</v>
       </c>
       <c r="G163" t="n">
+        <v>3.96846666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>3.971066666666666</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,18 +7583,27 @@
         <v>40000</v>
       </c>
       <c r="G164" t="n">
+        <v>3.970000000000003</v>
+      </c>
+      <c r="H164" t="n">
         <v>3.971383333333333</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6187,18 +7627,27 @@
         <v>40000</v>
       </c>
       <c r="G165" t="n">
+        <v>3.972400000000003</v>
+      </c>
+      <c r="H165" t="n">
         <v>3.971483333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6222,18 +7671,27 @@
         <v>11800</v>
       </c>
       <c r="G166" t="n">
+        <v>3.97386666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>3.971433333333332</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6257,18 +7715,27 @@
         <v>68200</v>
       </c>
       <c r="G167" t="n">
+        <v>3.975400000000003</v>
+      </c>
+      <c r="H167" t="n">
         <v>3.971899999999999</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6292,18 +7759,27 @@
         <v>2207523.25</v>
       </c>
       <c r="G168" t="n">
+        <v>3.976333333333337</v>
+      </c>
+      <c r="H168" t="n">
         <v>3.972499999999999</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6327,18 +7803,27 @@
         <v>1280</v>
       </c>
       <c r="G169" t="n">
+        <v>3.977333333333337</v>
+      </c>
+      <c r="H169" t="n">
         <v>3.972849999999999</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,18 +7847,27 @@
         <v>2406.2392</v>
       </c>
       <c r="G170" t="n">
+        <v>3.97926666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>3.972949999999999</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6397,18 +7891,27 @@
         <v>540000</v>
       </c>
       <c r="G171" t="n">
+        <v>3.98186666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>3.973133333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6432,18 +7935,27 @@
         <v>182225.1521</v>
       </c>
       <c r="G172" t="n">
+        <v>3.983800000000004</v>
+      </c>
+      <c r="H172" t="n">
         <v>3.973949999999999</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6467,18 +7979,27 @@
         <v>40232.1885</v>
       </c>
       <c r="G173" t="n">
+        <v>3.985333333333337</v>
+      </c>
+      <c r="H173" t="n">
         <v>3.974683333333332</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6502,18 +8023,27 @@
         <v>1250</v>
       </c>
       <c r="G174" t="n">
+        <v>3.98766666666667</v>
+      </c>
+      <c r="H174" t="n">
         <v>3.975333333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6537,18 +8067,27 @@
         <v>12222.9285</v>
       </c>
       <c r="G175" t="n">
+        <v>3.990600000000003</v>
+      </c>
+      <c r="H175" t="n">
         <v>3.976449999999999</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6572,18 +8111,27 @@
         <v>260000</v>
       </c>
       <c r="G176" t="n">
+        <v>3.99386666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>3.977049999999999</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6607,18 +8155,27 @@
         <v>13000</v>
       </c>
       <c r="G177" t="n">
+        <v>3.99786666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>3.978366666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6642,18 +8199,27 @@
         <v>12694.6876</v>
       </c>
       <c r="G178" t="n">
+        <v>4.00186666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>3.979899999999999</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6677,18 +8243,27 @@
         <v>287195.8918</v>
       </c>
       <c r="G179" t="n">
+        <v>4.006600000000003</v>
+      </c>
+      <c r="H179" t="n">
         <v>3.980999999999999</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6712,19 +8287,28 @@
         <v>26940</v>
       </c>
       <c r="G180" t="n">
+        <v>4.00966666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>3.981499999999999</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>1</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
+      <c r="L180" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1.025163599182004</v>
       </c>
     </row>
     <row r="181">
@@ -6747,18 +8331,21 @@
         <v>13460</v>
       </c>
       <c r="G181" t="n">
+        <v>4.01306666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>3.982166666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6782,18 +8369,21 @@
         <v>12244.0092</v>
       </c>
       <c r="G182" t="n">
+        <v>4.016000000000003</v>
+      </c>
+      <c r="H182" t="n">
         <v>3.983283333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6817,18 +8407,21 @@
         <v>33080</v>
       </c>
       <c r="G183" t="n">
+        <v>4.017600000000003</v>
+      </c>
+      <c r="H183" t="n">
         <v>3.98395</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6852,18 +8445,21 @@
         <v>280747.2842</v>
       </c>
       <c r="G184" t="n">
+        <v>4.018333333333336</v>
+      </c>
+      <c r="H184" t="n">
         <v>3.983966666666666</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6887,18 +8483,21 @@
         <v>224279.9438</v>
       </c>
       <c r="G185" t="n">
+        <v>4.019733333333336</v>
+      </c>
+      <c r="H185" t="n">
         <v>3.984166666666666</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6922,18 +8521,21 @@
         <v>1247.504990019</v>
       </c>
       <c r="G186" t="n">
+        <v>4.020466666666669</v>
+      </c>
+      <c r="H186" t="n">
         <v>3.985166666666666</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6957,18 +8559,21 @@
         <v>300868.380409981</v>
       </c>
       <c r="G187" t="n">
+        <v>4.021000000000003</v>
+      </c>
+      <c r="H187" t="n">
         <v>3.985883333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6992,18 +8597,21 @@
         <v>287320.8918</v>
       </c>
       <c r="G188" t="n">
+        <v>4.020333333333336</v>
+      </c>
+      <c r="H188" t="n">
         <v>3.986216666666666</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7027,18 +8635,401 @@
         <v>127</v>
       </c>
       <c r="G189" t="n">
+        <v>4.021533333333336</v>
+      </c>
+      <c r="H189" t="n">
         <v>3.987249999999999</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.016</v>
+      </c>
+      <c r="C190" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.016</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="F190" t="n">
+        <v>73100</v>
+      </c>
+      <c r="G190" t="n">
+        <v>4.020866666666668</v>
+      </c>
+      <c r="H190" t="n">
+        <v>3.9876</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.018</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.019</v>
+      </c>
+      <c r="D191" t="n">
+        <v>4.019</v>
+      </c>
+      <c r="E191" t="n">
+        <v>4.018</v>
+      </c>
+      <c r="F191" t="n">
+        <v>60000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>4.020533333333336</v>
+      </c>
+      <c r="H191" t="n">
+        <v>3.988599999999999</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.019</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="D192" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="F192" t="n">
+        <v>176817.0685</v>
+      </c>
+      <c r="G192" t="n">
+        <v>4.016866666666669</v>
+      </c>
+      <c r="H192" t="n">
+        <v>3.989033333333333</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="C193" t="n">
+        <v>4.023</v>
+      </c>
+      <c r="D193" t="n">
+        <v>4.023</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.011</v>
+      </c>
+      <c r="F193" t="n">
+        <v>35633.8139</v>
+      </c>
+      <c r="G193" t="n">
+        <v>4.015733333333336</v>
+      </c>
+      <c r="H193" t="n">
+        <v>3.9895</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.013</v>
+      </c>
+      <c r="C194" t="n">
+        <v>4.023</v>
+      </c>
+      <c r="D194" t="n">
+        <v>4.023</v>
+      </c>
+      <c r="E194" t="n">
+        <v>4.013</v>
+      </c>
+      <c r="F194" t="n">
+        <v>11036.1861</v>
+      </c>
+      <c r="G194" t="n">
+        <v>4.013600000000003</v>
+      </c>
+      <c r="H194" t="n">
+        <v>3.990049999999999</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.024</v>
+      </c>
+      <c r="C195" t="n">
+        <v>4.026</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.026</v>
+      </c>
+      <c r="E195" t="n">
+        <v>4.024</v>
+      </c>
+      <c r="F195" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G195" t="n">
+        <v>4.013333333333336</v>
+      </c>
+      <c r="H195" t="n">
+        <v>3.990966666666666</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="C196" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="D196" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="E196" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="F196" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>4.01266666666667</v>
+      </c>
+      <c r="H196" t="n">
+        <v>3.991899999999999</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.028</v>
+      </c>
+      <c r="C197" t="n">
+        <v>4.028</v>
+      </c>
+      <c r="D197" t="n">
+        <v>4.028</v>
+      </c>
+      <c r="E197" t="n">
+        <v>4.028</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>4.01206666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3.992866666666666</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="C198" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="D198" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="E198" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="F198" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>4.01346666666667</v>
+      </c>
+      <c r="H198" t="n">
+        <v>3.993849999999999</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.058</v>
+      </c>
+      <c r="D199" t="n">
+        <v>4.058</v>
+      </c>
+      <c r="E199" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F199" t="n">
+        <v>858181.146926663</v>
+      </c>
+      <c r="G199" t="n">
+        <v>4.01746666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>3.995316666666666</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.861</v>
+        <v>3.912</v>
       </c>
       <c r="C2" t="n">
-        <v>3.861</v>
+        <v>3.912</v>
       </c>
       <c r="D2" t="n">
-        <v>3.861</v>
+        <v>3.912</v>
       </c>
       <c r="E2" t="n">
-        <v>3.861</v>
+        <v>3.912</v>
       </c>
       <c r="F2" t="n">
-        <v>27021.6091</v>
+        <v>8159.9179</v>
       </c>
       <c r="G2" t="n">
-        <v>-5526744.244367599</v>
+        <v>-10604717.65230771</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.864</v>
+        <v>3.893</v>
       </c>
       <c r="C3" t="n">
-        <v>3.864</v>
+        <v>3.893</v>
       </c>
       <c r="D3" t="n">
-        <v>3.864</v>
+        <v>3.893</v>
       </c>
       <c r="E3" t="n">
-        <v>3.864</v>
+        <v>3.893</v>
       </c>
       <c r="F3" t="n">
-        <v>54692.9209</v>
+        <v>11111</v>
       </c>
       <c r="G3" t="n">
-        <v>-5472051.323467599</v>
+        <v>-10615828.65230771</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.863</v>
+        <v>3.893</v>
       </c>
       <c r="C4" t="n">
-        <v>3.863</v>
+        <v>3.892</v>
       </c>
       <c r="D4" t="n">
-        <v>3.863</v>
+        <v>3.893</v>
       </c>
       <c r="E4" t="n">
-        <v>3.863</v>
+        <v>3.892</v>
       </c>
       <c r="F4" t="n">
-        <v>129371.9315</v>
+        <v>128764.8606</v>
       </c>
       <c r="G4" t="n">
-        <v>-5601423.254967599</v>
+        <v>-10744593.51290771</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.863</v>
+        <v>3.905</v>
       </c>
       <c r="C5" t="n">
-        <v>3.863</v>
+        <v>3.905</v>
       </c>
       <c r="D5" t="n">
-        <v>3.863</v>
+        <v>3.905</v>
       </c>
       <c r="E5" t="n">
-        <v>3.863</v>
+        <v>3.905</v>
       </c>
       <c r="F5" t="n">
-        <v>19517.8373</v>
+        <v>129</v>
       </c>
       <c r="G5" t="n">
-        <v>-5601423.254967599</v>
+        <v>-10744464.51290771</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.861</v>
+        <v>3.905</v>
       </c>
       <c r="C6" t="n">
-        <v>3.832</v>
+        <v>3.908</v>
       </c>
       <c r="D6" t="n">
-        <v>3.861</v>
+        <v>3.908</v>
       </c>
       <c r="E6" t="n">
-        <v>3.832</v>
+        <v>3.905</v>
       </c>
       <c r="F6" t="n">
-        <v>1171784.3869</v>
+        <v>57737.9519</v>
       </c>
       <c r="G6" t="n">
-        <v>-6773207.641867599</v>
+        <v>-10686726.56100771</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.83</v>
+        <v>3.909</v>
       </c>
       <c r="C7" t="n">
-        <v>3.825</v>
+        <v>3.95</v>
       </c>
       <c r="D7" t="n">
-        <v>3.83</v>
+        <v>3.95</v>
       </c>
       <c r="E7" t="n">
-        <v>3.825</v>
+        <v>3.909</v>
       </c>
       <c r="F7" t="n">
-        <v>389267.1031</v>
+        <v>231479.7527</v>
       </c>
       <c r="G7" t="n">
-        <v>-7162474.744967599</v>
+        <v>-10455246.80830771</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.83</v>
+        <v>3.95</v>
       </c>
       <c r="C8" t="n">
-        <v>3.81</v>
+        <v>3.95</v>
       </c>
       <c r="D8" t="n">
-        <v>3.83</v>
+        <v>3.95</v>
       </c>
       <c r="E8" t="n">
-        <v>3.81</v>
+        <v>3.95</v>
       </c>
       <c r="F8" t="n">
-        <v>499344.2011</v>
+        <v>112841.4842</v>
       </c>
       <c r="G8" t="n">
-        <v>-7661818.9460676</v>
+        <v>-10455246.80830771</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.854</v>
+        <v>3.95</v>
       </c>
       <c r="C9" t="n">
-        <v>3.854</v>
+        <v>3.999</v>
       </c>
       <c r="D9" t="n">
-        <v>3.854</v>
+        <v>3.999</v>
       </c>
       <c r="E9" t="n">
-        <v>3.854</v>
+        <v>3.95</v>
       </c>
       <c r="F9" t="n">
-        <v>475661.1972</v>
+        <v>722767.4254167289</v>
       </c>
       <c r="G9" t="n">
-        <v>-7186157.748867599</v>
+        <v>-9732479.382890984</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.854</v>
+        <v>3.96</v>
       </c>
       <c r="C10" t="n">
-        <v>3.854</v>
+        <v>3.96</v>
       </c>
       <c r="D10" t="n">
-        <v>3.854</v>
+        <v>3.96</v>
       </c>
       <c r="E10" t="n">
-        <v>3.854</v>
+        <v>3.96</v>
       </c>
       <c r="F10" t="n">
-        <v>133465.1338</v>
+        <v>5056.89</v>
       </c>
       <c r="G10" t="n">
-        <v>-7186157.748867599</v>
+        <v>-9737536.272890985</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.854</v>
+        <v>3.96</v>
       </c>
       <c r="C11" t="n">
-        <v>3.854</v>
+        <v>3.999</v>
       </c>
       <c r="D11" t="n">
-        <v>3.854</v>
+        <v>3.999</v>
       </c>
       <c r="E11" t="n">
-        <v>3.854</v>
+        <v>3.96</v>
       </c>
       <c r="F11" t="n">
-        <v>17061.1917</v>
+        <v>126561.818388421</v>
       </c>
       <c r="G11" t="n">
-        <v>-7186157.748867599</v>
+        <v>-9610974.454502564</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.814</v>
+        <v>3.95</v>
       </c>
       <c r="C12" t="n">
-        <v>3.814</v>
+        <v>3.95</v>
       </c>
       <c r="D12" t="n">
-        <v>3.814</v>
+        <v>3.95</v>
       </c>
       <c r="E12" t="n">
-        <v>3.814</v>
+        <v>3.95</v>
       </c>
       <c r="F12" t="n">
-        <v>88077.3581</v>
+        <v>83206.9185</v>
       </c>
       <c r="G12" t="n">
-        <v>-7274235.106967599</v>
+        <v>-9694181.373002565</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="C13" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="D13" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="E13" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="F13" t="n">
-        <v>164534.6492</v>
+        <v>128</v>
       </c>
       <c r="G13" t="n">
-        <v>-7274235.106967599</v>
+        <v>-9694053.373002565</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="C14" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="D14" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="E14" t="n">
-        <v>3.814</v>
+        <v>3.988</v>
       </c>
       <c r="F14" t="n">
-        <v>46590.5937</v>
+        <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>-7274235.106967599</v>
+        <v>-9694053.373002565</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.811</v>
+        <v>3.988</v>
       </c>
       <c r="C15" t="n">
-        <v>3.81</v>
+        <v>3.988</v>
       </c>
       <c r="D15" t="n">
-        <v>3.811</v>
+        <v>3.988</v>
       </c>
       <c r="E15" t="n">
-        <v>3.81</v>
+        <v>3.988</v>
       </c>
       <c r="F15" t="n">
-        <v>429435.8348</v>
+        <v>77168.5545</v>
       </c>
       <c r="G15" t="n">
-        <v>-7703670.941767599</v>
+        <v>-9694053.373002565</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.81</v>
+        <v>3.978</v>
       </c>
       <c r="C16" t="n">
-        <v>3.81</v>
+        <v>3.988</v>
       </c>
       <c r="D16" t="n">
-        <v>3.81</v>
+        <v>3.988</v>
       </c>
       <c r="E16" t="n">
-        <v>3.81</v>
+        <v>3.978</v>
       </c>
       <c r="F16" t="n">
-        <v>3943.384</v>
+        <v>50036.8637</v>
       </c>
       <c r="G16" t="n">
-        <v>-7703670.941767599</v>
+        <v>-9694053.373002565</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.81</v>
+        <v>3.978</v>
       </c>
       <c r="C17" t="n">
-        <v>3.853</v>
+        <v>3.978</v>
       </c>
       <c r="D17" t="n">
-        <v>3.853</v>
+        <v>3.978</v>
       </c>
       <c r="E17" t="n">
-        <v>3.81</v>
+        <v>3.978</v>
       </c>
       <c r="F17" t="n">
-        <v>1130</v>
+        <v>260.111</v>
       </c>
       <c r="G17" t="n">
-        <v>-7702540.941767599</v>
+        <v>-9694313.484002564</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.81</v>
+        <v>3.988</v>
       </c>
       <c r="C18" t="n">
-        <v>3.858</v>
+        <v>3.988</v>
       </c>
       <c r="D18" t="n">
-        <v>3.858</v>
+        <v>3.988</v>
       </c>
       <c r="E18" t="n">
-        <v>3.81</v>
+        <v>3.988</v>
       </c>
       <c r="F18" t="n">
-        <v>70374.17509999999</v>
+        <v>10140</v>
       </c>
       <c r="G18" t="n">
-        <v>-7632166.7666676</v>
+        <v>-9684173.484002564</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.858</v>
+        <v>3.988</v>
       </c>
       <c r="C19" t="n">
-        <v>3.858</v>
+        <v>3.988</v>
       </c>
       <c r="D19" t="n">
-        <v>3.858</v>
+        <v>3.988</v>
       </c>
       <c r="E19" t="n">
-        <v>3.858</v>
+        <v>3.988</v>
       </c>
       <c r="F19" t="n">
-        <v>23996.7861</v>
+        <v>28749.1162</v>
       </c>
       <c r="G19" t="n">
-        <v>-7632166.7666676</v>
+        <v>-9684173.484002564</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.858</v>
+        <v>3.978</v>
       </c>
       <c r="C20" t="n">
-        <v>3.87</v>
+        <v>3.978</v>
       </c>
       <c r="D20" t="n">
-        <v>3.87</v>
+        <v>3.978</v>
       </c>
       <c r="E20" t="n">
-        <v>3.858</v>
+        <v>3.978</v>
       </c>
       <c r="F20" t="n">
-        <v>38780</v>
+        <v>41185.8055</v>
       </c>
       <c r="G20" t="n">
-        <v>-7593386.7666676</v>
+        <v>-9725359.289502565</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.87</v>
+        <v>3.942</v>
       </c>
       <c r="C21" t="n">
-        <v>3.922</v>
+        <v>3.942</v>
       </c>
       <c r="D21" t="n">
-        <v>3.922</v>
+        <v>3.942</v>
       </c>
       <c r="E21" t="n">
-        <v>3.87</v>
+        <v>3.942</v>
       </c>
       <c r="F21" t="n">
-        <v>82000</v>
+        <v>34973.8986</v>
       </c>
       <c r="G21" t="n">
-        <v>-7511386.7666676</v>
+        <v>-9760333.188102566</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.912</v>
+        <v>3.977</v>
       </c>
       <c r="C22" t="n">
-        <v>3.912</v>
+        <v>3.977</v>
       </c>
       <c r="D22" t="n">
-        <v>3.912</v>
+        <v>3.977</v>
       </c>
       <c r="E22" t="n">
-        <v>3.912</v>
+        <v>3.977</v>
       </c>
       <c r="F22" t="n">
-        <v>128</v>
+        <v>11273.899</v>
       </c>
       <c r="G22" t="n">
-        <v>-7511514.7666676</v>
+        <v>-9749059.289102565</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.88</v>
+        <v>3.942</v>
       </c>
       <c r="C23" t="n">
-        <v>3.88</v>
+        <v>3.932</v>
       </c>
       <c r="D23" t="n">
-        <v>3.88</v>
+        <v>3.942</v>
       </c>
       <c r="E23" t="n">
-        <v>3.88</v>
+        <v>3.932</v>
       </c>
       <c r="F23" t="n">
-        <v>5151.9835</v>
+        <v>159252.649</v>
       </c>
       <c r="G23" t="n">
-        <v>-7516666.7501676</v>
+        <v>-9908311.938102566</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.84</v>
+        <v>3.942</v>
       </c>
       <c r="C24" t="n">
-        <v>3.803</v>
+        <v>3.942</v>
       </c>
       <c r="D24" t="n">
-        <v>3.84</v>
+        <v>3.942</v>
       </c>
       <c r="E24" t="n">
-        <v>3.803</v>
+        <v>3.942</v>
       </c>
       <c r="F24" t="n">
-        <v>584705.9509000001</v>
+        <v>22815.8729</v>
       </c>
       <c r="G24" t="n">
-        <v>-8101372.7010676</v>
+        <v>-9885496.065202566</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.824</v>
+        <v>3.932</v>
       </c>
       <c r="C25" t="n">
-        <v>3.805</v>
+        <v>3.915</v>
       </c>
       <c r="D25" t="n">
-        <v>3.824</v>
+        <v>3.932</v>
       </c>
       <c r="E25" t="n">
-        <v>3.805</v>
+        <v>3.915</v>
       </c>
       <c r="F25" t="n">
-        <v>135743.7767</v>
+        <v>1053495.1941</v>
       </c>
       <c r="G25" t="n">
-        <v>-7965628.9243676</v>
+        <v>-10938991.25930257</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.805</v>
+        <v>3.959</v>
       </c>
       <c r="C26" t="n">
-        <v>3.805</v>
+        <v>3.959</v>
       </c>
       <c r="D26" t="n">
-        <v>3.805</v>
+        <v>3.959</v>
       </c>
       <c r="E26" t="n">
-        <v>3.805</v>
+        <v>3.959</v>
       </c>
       <c r="F26" t="n">
-        <v>1852.9414</v>
+        <v>127</v>
       </c>
       <c r="G26" t="n">
-        <v>-7965628.9243676</v>
+        <v>-10938864.25930257</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.858</v>
+        <v>3.932</v>
       </c>
       <c r="C27" t="n">
-        <v>3.858</v>
+        <v>3.949</v>
       </c>
       <c r="D27" t="n">
-        <v>3.858</v>
+        <v>3.949</v>
       </c>
       <c r="E27" t="n">
-        <v>3.858</v>
+        <v>3.915</v>
       </c>
       <c r="F27" t="n">
-        <v>5155.5197</v>
+        <v>1044115.4327</v>
       </c>
       <c r="G27" t="n">
-        <v>-7960473.4046676</v>
+        <v>-11982979.69200257</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.858</v>
+        <v>3.948</v>
       </c>
       <c r="C28" t="n">
-        <v>3.858</v>
+        <v>3.948</v>
       </c>
       <c r="D28" t="n">
-        <v>3.858</v>
+        <v>3.948</v>
       </c>
       <c r="E28" t="n">
-        <v>3.858</v>
+        <v>3.948</v>
       </c>
       <c r="F28" t="n">
-        <v>36958.2303</v>
+        <v>49750.3223</v>
       </c>
       <c r="G28" t="n">
-        <v>-7960473.4046676</v>
+        <v>-12032730.01430257</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.858</v>
+        <v>3.915</v>
       </c>
       <c r="C29" t="n">
-        <v>3.858</v>
+        <v>3.892</v>
       </c>
       <c r="D29" t="n">
-        <v>3.858</v>
+        <v>3.915</v>
       </c>
       <c r="E29" t="n">
-        <v>3.858</v>
+        <v>3.892</v>
       </c>
       <c r="F29" t="n">
-        <v>7567.025</v>
+        <v>831413.3551</v>
       </c>
       <c r="G29" t="n">
-        <v>-7960473.4046676</v>
+        <v>-12864143.36940257</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.88</v>
+        <v>3.937</v>
       </c>
       <c r="C30" t="n">
-        <v>3.88</v>
+        <v>3.937</v>
       </c>
       <c r="D30" t="n">
-        <v>3.88</v>
+        <v>3.937</v>
       </c>
       <c r="E30" t="n">
-        <v>3.88</v>
+        <v>3.937</v>
       </c>
       <c r="F30" t="n">
-        <v>51563.2828</v>
+        <v>200</v>
       </c>
       <c r="G30" t="n">
-        <v>-7908910.1218676</v>
+        <v>-12863943.36940257</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.88</v>
+        <v>3.937</v>
       </c>
       <c r="C31" t="n">
-        <v>3.912</v>
+        <v>3.937</v>
       </c>
       <c r="D31" t="n">
-        <v>3.912</v>
+        <v>3.937</v>
       </c>
       <c r="E31" t="n">
-        <v>3.88</v>
+        <v>3.937</v>
       </c>
       <c r="F31" t="n">
-        <v>22280.804731083</v>
+        <v>13326.177</v>
       </c>
       <c r="G31" t="n">
-        <v>-7886629.317136517</v>
+        <v>-12863943.36940257</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.912</v>
+        <v>3.938</v>
       </c>
       <c r="C32" t="n">
-        <v>3.912</v>
+        <v>3.938</v>
       </c>
       <c r="D32" t="n">
-        <v>3.912</v>
+        <v>3.938</v>
       </c>
       <c r="E32" t="n">
-        <v>3.912</v>
+        <v>3.938</v>
       </c>
       <c r="F32" t="n">
-        <v>51125.7566</v>
+        <v>11840</v>
       </c>
       <c r="G32" t="n">
-        <v>-7886629.317136517</v>
+        <v>-12852103.36940257</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.905</v>
+        <v>3.937</v>
       </c>
       <c r="C33" t="n">
-        <v>3.912</v>
+        <v>3.937</v>
       </c>
       <c r="D33" t="n">
-        <v>3.912</v>
+        <v>3.937</v>
       </c>
       <c r="E33" t="n">
-        <v>3.858</v>
+        <v>3.937</v>
       </c>
       <c r="F33" t="n">
-        <v>271920.1424</v>
+        <v>1000</v>
       </c>
       <c r="G33" t="n">
-        <v>-7886629.317136517</v>
+        <v>-12853103.36940257</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.888</v>
+        <v>3.902</v>
       </c>
       <c r="C34" t="n">
-        <v>3.888</v>
+        <v>3.902</v>
       </c>
       <c r="D34" t="n">
-        <v>3.888</v>
+        <v>3.902</v>
       </c>
       <c r="E34" t="n">
-        <v>3.888</v>
+        <v>3.902</v>
       </c>
       <c r="F34" t="n">
-        <v>1818.1818</v>
+        <v>11960</v>
       </c>
       <c r="G34" t="n">
-        <v>-7888447.498936517</v>
+        <v>-12865063.36940257</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.888</v>
+        <v>3.893</v>
       </c>
       <c r="C35" t="n">
-        <v>3.888</v>
+        <v>3.893</v>
       </c>
       <c r="D35" t="n">
-        <v>3.888</v>
+        <v>3.893</v>
       </c>
       <c r="E35" t="n">
-        <v>3.888</v>
+        <v>3.893</v>
       </c>
       <c r="F35" t="n">
-        <v>123349.9475</v>
+        <v>15492.3761</v>
       </c>
       <c r="G35" t="n">
-        <v>-7888447.498936517</v>
+        <v>-12880555.74550257</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.888</v>
+        <v>3.937</v>
       </c>
       <c r="C36" t="n">
-        <v>3.888</v>
+        <v>3.938</v>
       </c>
       <c r="D36" t="n">
-        <v>3.888</v>
+        <v>3.938</v>
       </c>
       <c r="E36" t="n">
-        <v>3.888</v>
+        <v>3.937</v>
       </c>
       <c r="F36" t="n">
-        <v>33763.5953</v>
+        <v>26357.795835449</v>
       </c>
       <c r="G36" t="n">
-        <v>-7888447.498936517</v>
+        <v>-12854197.94966712</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.888</v>
+        <v>3.928</v>
       </c>
       <c r="C37" t="n">
-        <v>3.89</v>
+        <v>3.928</v>
       </c>
       <c r="D37" t="n">
-        <v>3.89</v>
+        <v>3.928</v>
       </c>
       <c r="E37" t="n">
-        <v>3.888</v>
+        <v>3.928</v>
       </c>
       <c r="F37" t="n">
-        <v>11662.3952</v>
+        <v>128</v>
       </c>
       <c r="G37" t="n">
-        <v>-7876785.103736517</v>
+        <v>-12854325.94966712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.888</v>
+        <v>3.902</v>
       </c>
       <c r="C38" t="n">
-        <v>3.87</v>
+        <v>3.902</v>
       </c>
       <c r="D38" t="n">
-        <v>3.888</v>
+        <v>3.902</v>
       </c>
       <c r="E38" t="n">
-        <v>3.87</v>
+        <v>3.902</v>
       </c>
       <c r="F38" t="n">
-        <v>92000</v>
+        <v>1945.7048</v>
       </c>
       <c r="G38" t="n">
-        <v>-7968785.103736517</v>
+        <v>-12856271.65446712</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.89</v>
+        <v>3.937</v>
       </c>
       <c r="C39" t="n">
-        <v>3.89</v>
+        <v>3.937</v>
       </c>
       <c r="D39" t="n">
-        <v>3.89</v>
+        <v>3.937</v>
       </c>
       <c r="E39" t="n">
-        <v>3.89</v>
+        <v>3.937</v>
       </c>
       <c r="F39" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G39" t="n">
-        <v>-7968656.103736517</v>
+        <v>-12856144.65446712</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.89</v>
+        <v>3.902</v>
       </c>
       <c r="C40" t="n">
-        <v>3.89</v>
+        <v>3.902</v>
       </c>
       <c r="D40" t="n">
-        <v>3.89</v>
+        <v>3.902</v>
       </c>
       <c r="E40" t="n">
-        <v>3.89</v>
+        <v>3.902</v>
       </c>
       <c r="F40" t="n">
-        <v>6541.2773</v>
+        <v>6461.8709</v>
       </c>
       <c r="G40" t="n">
-        <v>-7968656.103736517</v>
+        <v>-12862606.52536712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.87</v>
+        <v>3.904</v>
       </c>
       <c r="C41" t="n">
-        <v>3.871</v>
+        <v>3.904</v>
       </c>
       <c r="D41" t="n">
-        <v>3.871</v>
+        <v>3.904</v>
       </c>
       <c r="E41" t="n">
-        <v>3.869</v>
+        <v>3.904</v>
       </c>
       <c r="F41" t="n">
-        <v>2647343.3986</v>
+        <v>8310</v>
       </c>
       <c r="G41" t="n">
-        <v>-10615999.50233652</v>
+        <v>-12854296.52536712</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>3.871</v>
+        <v>3.894</v>
       </c>
       <c r="C42" t="n">
-        <v>3.871</v>
+        <v>3.894</v>
       </c>
       <c r="D42" t="n">
-        <v>3.871</v>
+        <v>3.894</v>
       </c>
       <c r="E42" t="n">
-        <v>3.871</v>
+        <v>3.894</v>
       </c>
       <c r="F42" t="n">
-        <v>23047.031</v>
+        <v>12294.1177</v>
       </c>
       <c r="G42" t="n">
-        <v>-10615999.50233652</v>
+        <v>-12866590.64306712</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>3.871</v>
+        <v>3.937</v>
       </c>
       <c r="C43" t="n">
-        <v>3.902</v>
+        <v>3.937</v>
       </c>
       <c r="D43" t="n">
-        <v>3.902</v>
+        <v>3.937</v>
       </c>
       <c r="E43" t="n">
-        <v>3.871</v>
+        <v>3.937</v>
       </c>
       <c r="F43" t="n">
-        <v>3121.932128805</v>
+        <v>128</v>
       </c>
       <c r="G43" t="n">
-        <v>-10612877.57020771</v>
+        <v>-12866462.64306712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.912</v>
+        <v>3.895</v>
       </c>
       <c r="C44" t="n">
-        <v>3.912</v>
+        <v>3.895</v>
       </c>
       <c r="D44" t="n">
-        <v>3.912</v>
+        <v>3.895</v>
       </c>
       <c r="E44" t="n">
-        <v>3.912</v>
+        <v>3.895</v>
       </c>
       <c r="F44" t="n">
-        <v>8159.9179</v>
+        <v>22815.8729</v>
       </c>
       <c r="G44" t="n">
-        <v>-10604717.65230771</v>
+        <v>-12889278.51596712</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>3.893</v>
+        <v>3.936</v>
       </c>
       <c r="C45" t="n">
-        <v>3.893</v>
+        <v>3.936</v>
       </c>
       <c r="D45" t="n">
-        <v>3.893</v>
+        <v>3.936</v>
       </c>
       <c r="E45" t="n">
-        <v>3.893</v>
+        <v>3.936</v>
       </c>
       <c r="F45" t="n">
-        <v>11111</v>
+        <v>22815.873</v>
       </c>
       <c r="G45" t="n">
-        <v>-10615828.65230771</v>
+        <v>-12866462.64296712</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>3.893</v>
+        <v>3.937</v>
       </c>
       <c r="C46" t="n">
-        <v>3.892</v>
+        <v>3.937</v>
       </c>
       <c r="D46" t="n">
-        <v>3.893</v>
+        <v>3.937</v>
       </c>
       <c r="E46" t="n">
-        <v>3.892</v>
+        <v>3.937</v>
       </c>
       <c r="F46" t="n">
-        <v>128764.8606</v>
+        <v>22717.4329</v>
       </c>
       <c r="G46" t="n">
-        <v>-10744593.51290771</v>
+        <v>-12843745.21006712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>3.905</v>
+        <v>3.895</v>
       </c>
       <c r="C47" t="n">
-        <v>3.905</v>
+        <v>3.895</v>
       </c>
       <c r="D47" t="n">
-        <v>3.905</v>
+        <v>3.895</v>
       </c>
       <c r="E47" t="n">
-        <v>3.905</v>
+        <v>3.895</v>
       </c>
       <c r="F47" t="n">
-        <v>129</v>
+        <v>156148.4449</v>
       </c>
       <c r="G47" t="n">
-        <v>-10744464.51290771</v>
+        <v>-12999893.65496712</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.905</v>
+        <v>3.895</v>
       </c>
       <c r="C48" t="n">
-        <v>3.908</v>
+        <v>3.895</v>
       </c>
       <c r="D48" t="n">
-        <v>3.908</v>
+        <v>3.895</v>
       </c>
       <c r="E48" t="n">
-        <v>3.905</v>
+        <v>3.895</v>
       </c>
       <c r="F48" t="n">
-        <v>57737.9519</v>
+        <v>159252.649</v>
       </c>
       <c r="G48" t="n">
-        <v>-10686726.56100771</v>
+        <v>-12999893.65496712</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.909</v>
+        <v>3.937</v>
       </c>
       <c r="C49" t="n">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="D49" t="n">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="E49" t="n">
-        <v>3.909</v>
+        <v>3.937</v>
       </c>
       <c r="F49" t="n">
-        <v>231479.7527</v>
+        <v>127</v>
       </c>
       <c r="G49" t="n">
-        <v>-10455246.80830771</v>
+        <v>-12999766.65496712</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="C50" t="n">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="D50" t="n">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="E50" t="n">
-        <v>3.95</v>
+        <v>3.937</v>
       </c>
       <c r="F50" t="n">
-        <v>112841.4842</v>
+        <v>40000</v>
       </c>
       <c r="G50" t="n">
-        <v>-10455246.80830771</v>
+        <v>-12999766.65496712</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3.95</v>
+        <v>3.935</v>
       </c>
       <c r="C51" t="n">
-        <v>3.999</v>
+        <v>3.935</v>
       </c>
       <c r="D51" t="n">
-        <v>3.999</v>
+        <v>3.935</v>
       </c>
       <c r="E51" t="n">
-        <v>3.95</v>
+        <v>3.935</v>
       </c>
       <c r="F51" t="n">
-        <v>722767.4254167289</v>
+        <v>16477.2313</v>
       </c>
       <c r="G51" t="n">
-        <v>-9732479.382890984</v>
+        <v>-13016243.88626712</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="C52" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="D52" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="E52" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="F52" t="n">
-        <v>5056.89</v>
+        <v>69325.4152</v>
       </c>
       <c r="G52" t="n">
-        <v>-9737536.272890985</v>
+        <v>-13085569.30146712</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="C53" t="n">
-        <v>3.999</v>
+        <v>3.93</v>
       </c>
       <c r="D53" t="n">
-        <v>3.999</v>
+        <v>3.93</v>
       </c>
       <c r="E53" t="n">
-        <v>3.96</v>
+        <v>3.93</v>
       </c>
       <c r="F53" t="n">
-        <v>126561.818388421</v>
+        <v>181954.766</v>
       </c>
       <c r="G53" t="n">
-        <v>-9610974.454502564</v>
+        <v>-13085569.30146712</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>3.95</v>
+        <v>3.906</v>
       </c>
       <c r="C54" t="n">
-        <v>3.95</v>
+        <v>3.906</v>
       </c>
       <c r="D54" t="n">
-        <v>3.95</v>
+        <v>3.906</v>
       </c>
       <c r="E54" t="n">
-        <v>3.95</v>
+        <v>3.906</v>
       </c>
       <c r="F54" t="n">
-        <v>83206.9185</v>
+        <v>8230</v>
       </c>
       <c r="G54" t="n">
-        <v>-9694181.373002565</v>
+        <v>-13093799.30146712</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="C55" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="D55" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="E55" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="F55" t="n">
-        <v>128</v>
+        <v>30659.1162</v>
       </c>
       <c r="G55" t="n">
-        <v>-9694053.373002565</v>
+        <v>-13124458.41766712</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>3.988</v>
+        <v>3.925</v>
       </c>
       <c r="C56" t="n">
-        <v>3.988</v>
+        <v>3.925</v>
       </c>
       <c r="D56" t="n">
-        <v>3.988</v>
+        <v>3.925</v>
       </c>
       <c r="E56" t="n">
-        <v>3.988</v>
+        <v>3.925</v>
       </c>
       <c r="F56" t="n">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="G56" t="n">
-        <v>-9694053.373002565</v>
+        <v>-13124330.41766712</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="C57" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="D57" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="E57" t="n">
-        <v>3.988</v>
+        <v>3.896</v>
       </c>
       <c r="F57" t="n">
-        <v>77168.5545</v>
+        <v>934.2732999999999</v>
       </c>
       <c r="G57" t="n">
-        <v>-9694053.373002565</v>
+        <v>-13125264.69096712</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.978</v>
+        <v>3.925</v>
       </c>
       <c r="C58" t="n">
-        <v>3.988</v>
+        <v>3.925</v>
       </c>
       <c r="D58" t="n">
-        <v>3.988</v>
+        <v>3.925</v>
       </c>
       <c r="E58" t="n">
-        <v>3.978</v>
+        <v>3.925</v>
       </c>
       <c r="F58" t="n">
-        <v>50036.8637</v>
+        <v>128</v>
       </c>
       <c r="G58" t="n">
-        <v>-9694053.373002565</v>
+        <v>-13125136.69096712</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.978</v>
+        <v>3.93</v>
       </c>
       <c r="C59" t="n">
-        <v>3.978</v>
+        <v>3.93</v>
       </c>
       <c r="D59" t="n">
-        <v>3.978</v>
+        <v>3.93</v>
       </c>
       <c r="E59" t="n">
-        <v>3.978</v>
+        <v>3.93</v>
       </c>
       <c r="F59" t="n">
-        <v>260.111</v>
+        <v>127</v>
       </c>
       <c r="G59" t="n">
-        <v>-9694313.484002564</v>
+        <v>-13125009.69096712</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.988</v>
+        <v>3.93</v>
       </c>
       <c r="C60" t="n">
-        <v>3.988</v>
+        <v>3.93</v>
       </c>
       <c r="D60" t="n">
-        <v>3.988</v>
+        <v>3.93</v>
       </c>
       <c r="E60" t="n">
-        <v>3.988</v>
+        <v>3.93</v>
       </c>
       <c r="F60" t="n">
-        <v>10140</v>
+        <v>25171.5443</v>
       </c>
       <c r="G60" t="n">
-        <v>-9684173.484002564</v>
+        <v>-13125009.69096712</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.988</v>
+        <v>3.908</v>
       </c>
       <c r="C61" t="n">
-        <v>3.988</v>
+        <v>3.908</v>
       </c>
       <c r="D61" t="n">
-        <v>3.988</v>
+        <v>3.908</v>
       </c>
       <c r="E61" t="n">
-        <v>3.988</v>
+        <v>3.908</v>
       </c>
       <c r="F61" t="n">
-        <v>28749.1162</v>
+        <v>14421.6078</v>
       </c>
       <c r="G61" t="n">
-        <v>-9684173.484002564</v>
+        <v>-13139431.29876712</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.978</v>
+        <v>3.902</v>
       </c>
       <c r="C62" t="n">
-        <v>3.978</v>
+        <v>3.902</v>
       </c>
       <c r="D62" t="n">
-        <v>3.978</v>
+        <v>3.902</v>
       </c>
       <c r="E62" t="n">
-        <v>3.978</v>
+        <v>3.902</v>
       </c>
       <c r="F62" t="n">
-        <v>41185.8055</v>
+        <v>206637.2377</v>
       </c>
       <c r="G62" t="n">
-        <v>-9725359.289502565</v>
+        <v>-13346068.53646712</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,203 +2627,241 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>3.942</v>
+        <v>3.908</v>
       </c>
       <c r="C63" t="n">
-        <v>3.942</v>
+        <v>3.908</v>
       </c>
       <c r="D63" t="n">
-        <v>3.942</v>
+        <v>3.908</v>
       </c>
       <c r="E63" t="n">
-        <v>3.942</v>
+        <v>3.908</v>
       </c>
       <c r="F63" t="n">
-        <v>34973.8986</v>
+        <v>23587.6296</v>
       </c>
       <c r="G63" t="n">
-        <v>-9760333.188102566</v>
+        <v>-13322480.90686712</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3.902</v>
+      </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>3.977</v>
+        <v>3.928</v>
       </c>
       <c r="C64" t="n">
-        <v>3.977</v>
+        <v>3.928</v>
       </c>
       <c r="D64" t="n">
-        <v>3.977</v>
+        <v>3.928</v>
       </c>
       <c r="E64" t="n">
-        <v>3.977</v>
+        <v>3.928</v>
       </c>
       <c r="F64" t="n">
-        <v>11273.899</v>
+        <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>-9749059.289102565</v>
+        <v>-13322352.90686712</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.942</v>
+        <v>3.915</v>
       </c>
       <c r="C65" t="n">
-        <v>3.932</v>
+        <v>3.915</v>
       </c>
       <c r="D65" t="n">
-        <v>3.942</v>
+        <v>3.915</v>
       </c>
       <c r="E65" t="n">
-        <v>3.932</v>
+        <v>3.915</v>
       </c>
       <c r="F65" t="n">
-        <v>159252.649</v>
+        <v>21090.9537</v>
       </c>
       <c r="G65" t="n">
-        <v>-9908311.938102566</v>
+        <v>-13343443.86056712</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>3.942</v>
+        <v>3.928</v>
       </c>
       <c r="C66" t="n">
-        <v>3.942</v>
+        <v>3.928</v>
       </c>
       <c r="D66" t="n">
-        <v>3.942</v>
+        <v>3.928</v>
       </c>
       <c r="E66" t="n">
-        <v>3.942</v>
+        <v>3.928</v>
       </c>
       <c r="F66" t="n">
-        <v>22815.8729</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
-        <v>-9885496.065202566</v>
+        <v>-13343315.86056712</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3.915</v>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>3.932</v>
+        <v>3.928</v>
       </c>
       <c r="C67" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="D67" t="n">
-        <v>3.932</v>
+        <v>3.928</v>
       </c>
       <c r="E67" t="n">
-        <v>3.915</v>
+        <v>3.928</v>
       </c>
       <c r="F67" t="n">
-        <v>1053495.1941</v>
+        <v>218175.9958</v>
       </c>
       <c r="G67" t="n">
-        <v>-10938991.25930257</v>
+        <v>-13343315.86056712</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>3.959</v>
+        <v>3.915</v>
       </c>
       <c r="C68" t="n">
-        <v>3.959</v>
+        <v>3.909</v>
       </c>
       <c r="D68" t="n">
-        <v>3.959</v>
+        <v>3.915</v>
       </c>
       <c r="E68" t="n">
-        <v>3.959</v>
+        <v>3.909</v>
       </c>
       <c r="F68" t="n">
-        <v>127</v>
+        <v>78347.66740000001</v>
       </c>
       <c r="G68" t="n">
-        <v>-10938864.25930257</v>
+        <v>-13421663.52796712</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +2870,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>3.932</v>
+        <v>3.909</v>
       </c>
       <c r="C69" t="n">
-        <v>3.949</v>
+        <v>3.901</v>
       </c>
       <c r="D69" t="n">
-        <v>3.949</v>
+        <v>3.909</v>
       </c>
       <c r="E69" t="n">
-        <v>3.915</v>
+        <v>3.901</v>
       </c>
       <c r="F69" t="n">
-        <v>1044115.4327</v>
+        <v>160000</v>
       </c>
       <c r="G69" t="n">
-        <v>-11982979.69200257</v>
+        <v>-13581663.52796712</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +2912,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.948</v>
+        <v>3.902</v>
       </c>
       <c r="C70" t="n">
-        <v>3.948</v>
+        <v>3.902</v>
       </c>
       <c r="D70" t="n">
-        <v>3.948</v>
+        <v>3.902</v>
       </c>
       <c r="E70" t="n">
-        <v>3.948</v>
+        <v>3.902</v>
       </c>
       <c r="F70" t="n">
-        <v>49750.3223</v>
+        <v>167.1127</v>
       </c>
       <c r="G70" t="n">
-        <v>-12032730.01430257</v>
+        <v>-13581496.41526712</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +2954,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>3.915</v>
+        <v>3.905</v>
       </c>
       <c r="C71" t="n">
-        <v>3.892</v>
+        <v>3.905</v>
       </c>
       <c r="D71" t="n">
-        <v>3.915</v>
+        <v>3.905</v>
       </c>
       <c r="E71" t="n">
-        <v>3.892</v>
+        <v>3.905</v>
       </c>
       <c r="F71" t="n">
-        <v>831413.3551</v>
+        <v>466.9355</v>
       </c>
       <c r="G71" t="n">
-        <v>-12864143.36940257</v>
+        <v>-13581029.47976712</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +2996,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.937</v>
+        <v>3.905</v>
       </c>
       <c r="C72" t="n">
-        <v>3.937</v>
+        <v>3.905</v>
       </c>
       <c r="D72" t="n">
-        <v>3.937</v>
+        <v>3.905</v>
       </c>
       <c r="E72" t="n">
-        <v>3.937</v>
+        <v>3.905</v>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>151640.8232</v>
       </c>
       <c r="G72" t="n">
-        <v>-12863943.36940257</v>
+        <v>-13581029.47976712</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3038,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>3.937</v>
+        <v>3.927</v>
       </c>
       <c r="C73" t="n">
-        <v>3.937</v>
+        <v>3.904</v>
       </c>
       <c r="D73" t="n">
-        <v>3.937</v>
+        <v>3.927</v>
       </c>
       <c r="E73" t="n">
-        <v>3.937</v>
+        <v>3.904</v>
       </c>
       <c r="F73" t="n">
-        <v>13326.177</v>
+        <v>75618.92570000001</v>
       </c>
       <c r="G73" t="n">
-        <v>-12863943.36940257</v>
+        <v>-13656648.40546712</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3080,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.938</v>
+        <v>3.927</v>
       </c>
       <c r="C74" t="n">
-        <v>3.938</v>
+        <v>3.927</v>
       </c>
       <c r="D74" t="n">
-        <v>3.938</v>
+        <v>3.927</v>
       </c>
       <c r="E74" t="n">
-        <v>3.938</v>
+        <v>3.927</v>
       </c>
       <c r="F74" t="n">
-        <v>11840</v>
+        <v>128</v>
       </c>
       <c r="G74" t="n">
-        <v>-12852103.36940257</v>
+        <v>-13656520.40546712</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3122,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>3.937</v>
+        <v>3.907</v>
       </c>
       <c r="C75" t="n">
-        <v>3.937</v>
+        <v>3.907</v>
       </c>
       <c r="D75" t="n">
-        <v>3.937</v>
+        <v>3.907</v>
       </c>
       <c r="E75" t="n">
-        <v>3.937</v>
+        <v>3.907</v>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>167.1127</v>
       </c>
       <c r="G75" t="n">
-        <v>-12853103.36940257</v>
+        <v>-13656687.51816712</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,173 +3164,216 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.902</v>
+        <v>3.927</v>
       </c>
       <c r="C76" t="n">
-        <v>3.902</v>
+        <v>3.927</v>
       </c>
       <c r="D76" t="n">
-        <v>3.902</v>
+        <v>3.927</v>
       </c>
       <c r="E76" t="n">
-        <v>3.902</v>
+        <v>3.927</v>
       </c>
       <c r="F76" t="n">
-        <v>11960</v>
+        <v>129</v>
       </c>
       <c r="G76" t="n">
-        <v>-12865063.36940257</v>
+        <v>-13656558.51816712</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>3.893</v>
+        <v>3.927</v>
       </c>
       <c r="C77" t="n">
-        <v>3.893</v>
+        <v>3.927</v>
       </c>
       <c r="D77" t="n">
-        <v>3.893</v>
+        <v>3.927</v>
       </c>
       <c r="E77" t="n">
-        <v>3.893</v>
+        <v>3.927</v>
       </c>
       <c r="F77" t="n">
-        <v>15492.3761</v>
+        <v>66824.6165</v>
       </c>
       <c r="G77" t="n">
-        <v>-12880555.74550257</v>
+        <v>-13656558.51816712</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.937</v>
+        <v>3.927</v>
       </c>
       <c r="C78" t="n">
-        <v>3.938</v>
+        <v>3.965</v>
       </c>
       <c r="D78" t="n">
-        <v>3.938</v>
+        <v>3.965</v>
       </c>
       <c r="E78" t="n">
-        <v>3.937</v>
+        <v>3.927</v>
       </c>
       <c r="F78" t="n">
-        <v>26357.795835449</v>
+        <v>484078.1505</v>
       </c>
       <c r="G78" t="n">
-        <v>-12854197.94966712</v>
+        <v>-13172480.36766712</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.928</v>
+        <v>3.965</v>
       </c>
       <c r="C79" t="n">
-        <v>3.928</v>
+        <v>3.965</v>
       </c>
       <c r="D79" t="n">
-        <v>3.928</v>
+        <v>3.965</v>
       </c>
       <c r="E79" t="n">
-        <v>3.928</v>
+        <v>3.965</v>
       </c>
       <c r="F79" t="n">
-        <v>128</v>
+        <v>1818.1818</v>
       </c>
       <c r="G79" t="n">
-        <v>-12854325.94966712</v>
+        <v>-13172480.36766712</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.902</v>
+        <v>3.965</v>
       </c>
       <c r="C80" t="n">
-        <v>3.902</v>
+        <v>3.965</v>
       </c>
       <c r="D80" t="n">
-        <v>3.902</v>
+        <v>3.965</v>
       </c>
       <c r="E80" t="n">
-        <v>3.902</v>
+        <v>3.965</v>
       </c>
       <c r="F80" t="n">
-        <v>1945.7048</v>
+        <v>47712.1269</v>
       </c>
       <c r="G80" t="n">
-        <v>-12856271.65446712</v>
+        <v>-13172480.36766712</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3382,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="C81" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="D81" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="E81" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="F81" t="n">
-        <v>127</v>
+        <v>1916.719</v>
       </c>
       <c r="G81" t="n">
-        <v>-12856144.65446712</v>
+        <v>-13172480.36766712</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,240 +3424,250 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.902</v>
+        <v>3.964</v>
       </c>
       <c r="C82" t="n">
-        <v>3.902</v>
+        <v>3.964</v>
       </c>
       <c r="D82" t="n">
-        <v>3.902</v>
+        <v>3.964</v>
       </c>
       <c r="E82" t="n">
-        <v>3.902</v>
+        <v>3.964</v>
       </c>
       <c r="F82" t="n">
-        <v>6461.8709</v>
+        <v>45112</v>
       </c>
       <c r="G82" t="n">
-        <v>-12862606.52536712</v>
+        <v>-13217592.36766712</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3.937</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="L82" t="inlineStr"/>
+        <v>3.915</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>3.904</v>
+        <v>3.964</v>
       </c>
       <c r="C83" t="n">
-        <v>3.904</v>
+        <v>3.925</v>
       </c>
       <c r="D83" t="n">
-        <v>3.904</v>
+        <v>3.964</v>
       </c>
       <c r="E83" t="n">
-        <v>3.904</v>
+        <v>3.925</v>
       </c>
       <c r="F83" t="n">
-        <v>8310</v>
+        <v>50000.8856</v>
       </c>
       <c r="G83" t="n">
-        <v>-12854296.52536712</v>
+        <v>-13267593.25326712</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3.902</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>3.937</v>
+        <v>3.915</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>3.894</v>
+        <v>3.925</v>
       </c>
       <c r="C84" t="n">
-        <v>3.894</v>
+        <v>3.915</v>
       </c>
       <c r="D84" t="n">
-        <v>3.894</v>
+        <v>3.925</v>
       </c>
       <c r="E84" t="n">
-        <v>3.894</v>
+        <v>3.915</v>
       </c>
       <c r="F84" t="n">
-        <v>12294.1177</v>
+        <v>9000</v>
       </c>
       <c r="G84" t="n">
-        <v>-12866590.64306712</v>
+        <v>-13276593.25326712</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>3.904</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>3.937</v>
+        <v>3.915</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="C85" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="D85" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="E85" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="F85" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G85" t="n">
-        <v>-12866462.64306712</v>
+        <v>-13276463.25326712</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3.894</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
+        <v>3.915</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.895</v>
+        <v>3.964</v>
       </c>
       <c r="C86" t="n">
-        <v>3.895</v>
+        <v>3.964</v>
       </c>
       <c r="D86" t="n">
-        <v>3.895</v>
+        <v>3.964</v>
       </c>
       <c r="E86" t="n">
-        <v>3.895</v>
+        <v>3.964</v>
       </c>
       <c r="F86" t="n">
-        <v>22815.8729</v>
+        <v>919.5351000000001</v>
       </c>
       <c r="G86" t="n">
-        <v>-12889278.51596712</v>
+        <v>-13276463.25326712</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>3.937</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>3.894</v>
+        <v>3.915</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>3.936</v>
+        <v>3.925</v>
       </c>
       <c r="C87" t="n">
-        <v>3.936</v>
+        <v>3.925</v>
       </c>
       <c r="D87" t="n">
-        <v>3.936</v>
+        <v>3.925</v>
       </c>
       <c r="E87" t="n">
-        <v>3.936</v>
+        <v>3.925</v>
       </c>
       <c r="F87" t="n">
-        <v>22815.873</v>
+        <v>9001.933999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-12866462.64296712</v>
+        <v>-13285465.18726712</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3465,38 +3677,39 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>3.894</v>
+        <v>3.915</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="C88" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="D88" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="E88" t="n">
-        <v>3.937</v>
+        <v>3.964</v>
       </c>
       <c r="F88" t="n">
-        <v>22717.4329</v>
+        <v>128</v>
       </c>
       <c r="G88" t="n">
-        <v>-12843745.21006712</v>
+        <v>-13285337.18726712</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3505,33 +3718,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>3.895</v>
+        <v>3.964</v>
       </c>
       <c r="C89" t="n">
-        <v>3.895</v>
+        <v>3.965</v>
       </c>
       <c r="D89" t="n">
-        <v>3.895</v>
+        <v>3.965</v>
       </c>
       <c r="E89" t="n">
-        <v>3.895</v>
+        <v>3.964</v>
       </c>
       <c r="F89" t="n">
-        <v>156148.4449</v>
+        <v>312957.3952</v>
       </c>
       <c r="G89" t="n">
-        <v>-12999893.65496712</v>
+        <v>-12972379.79206712</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3540,33 +3760,40 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>3.895</v>
+        <v>3.965</v>
       </c>
       <c r="C90" t="n">
-        <v>3.895</v>
+        <v>3.965</v>
       </c>
       <c r="D90" t="n">
-        <v>3.895</v>
+        <v>3.965</v>
       </c>
       <c r="E90" t="n">
-        <v>3.895</v>
+        <v>3.965</v>
       </c>
       <c r="F90" t="n">
-        <v>159252.649</v>
+        <v>61710</v>
       </c>
       <c r="G90" t="n">
-        <v>-12999893.65496712</v>
+        <v>-12972379.79206712</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3575,33 +3802,40 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="C91" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="D91" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="E91" t="n">
-        <v>3.937</v>
+        <v>3.965</v>
       </c>
       <c r="F91" t="n">
-        <v>127</v>
+        <v>20570</v>
       </c>
       <c r="G91" t="n">
-        <v>-12999766.65496712</v>
+        <v>-12972379.79206712</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3610,33 +3844,40 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>3.937</v>
+        <v>3.975</v>
       </c>
       <c r="C92" t="n">
-        <v>3.937</v>
+        <v>3.978</v>
       </c>
       <c r="D92" t="n">
-        <v>3.937</v>
+        <v>3.978</v>
       </c>
       <c r="E92" t="n">
-        <v>3.937</v>
+        <v>3.975</v>
       </c>
       <c r="F92" t="n">
-        <v>40000</v>
+        <v>74531.7426</v>
       </c>
       <c r="G92" t="n">
-        <v>-12999766.65496712</v>
+        <v>-12897848.04946712</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3645,33 +3886,40 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>3.935</v>
+        <v>3.98</v>
       </c>
       <c r="C93" t="n">
-        <v>3.935</v>
+        <v>3.989</v>
       </c>
       <c r="D93" t="n">
-        <v>3.935</v>
+        <v>3.989</v>
       </c>
       <c r="E93" t="n">
-        <v>3.935</v>
+        <v>3.98</v>
       </c>
       <c r="F93" t="n">
-        <v>16477.2313</v>
+        <v>180796.3966</v>
       </c>
       <c r="G93" t="n">
-        <v>-13016243.88626712</v>
+        <v>-12717051.65286712</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3680,33 +3928,40 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.93</v>
+        <v>3.965</v>
       </c>
       <c r="C94" t="n">
-        <v>3.93</v>
+        <v>3.965</v>
       </c>
       <c r="D94" t="n">
-        <v>3.93</v>
+        <v>3.965</v>
       </c>
       <c r="E94" t="n">
-        <v>3.93</v>
+        <v>3.965</v>
       </c>
       <c r="F94" t="n">
-        <v>69325.4152</v>
+        <v>830</v>
       </c>
       <c r="G94" t="n">
-        <v>-13085569.30146712</v>
+        <v>-12717881.65286712</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3715,33 +3970,40 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>3.93</v>
+        <v>3.948</v>
       </c>
       <c r="C95" t="n">
-        <v>3.93</v>
+        <v>3.948</v>
       </c>
       <c r="D95" t="n">
-        <v>3.93</v>
+        <v>3.948</v>
       </c>
       <c r="E95" t="n">
-        <v>3.93</v>
+        <v>3.948</v>
       </c>
       <c r="F95" t="n">
-        <v>181954.766</v>
+        <v>128</v>
       </c>
       <c r="G95" t="n">
-        <v>-13085569.30146712</v>
+        <v>-12718009.65286712</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3750,33 +4012,40 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.906</v>
+        <v>3.966</v>
       </c>
       <c r="C96" t="n">
-        <v>3.906</v>
+        <v>3.966</v>
       </c>
       <c r="D96" t="n">
-        <v>3.906</v>
+        <v>3.966</v>
       </c>
       <c r="E96" t="n">
-        <v>3.906</v>
+        <v>3.966</v>
       </c>
       <c r="F96" t="n">
-        <v>8230</v>
+        <v>292.5464</v>
       </c>
       <c r="G96" t="n">
-        <v>-13093799.30146712</v>
+        <v>-12717717.10646712</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3785,322 +4054,334 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>3.896</v>
+        <v>3.978</v>
       </c>
       <c r="C97" t="n">
-        <v>3.896</v>
+        <v>3.981</v>
       </c>
       <c r="D97" t="n">
-        <v>3.896</v>
+        <v>3.981</v>
       </c>
       <c r="E97" t="n">
-        <v>3.896</v>
+        <v>3.978</v>
       </c>
       <c r="F97" t="n">
-        <v>30659.1162</v>
+        <v>2300</v>
       </c>
       <c r="G97" t="n">
-        <v>-13124458.41766712</v>
+        <v>-12715417.10646712</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>3.906</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>3.906</v>
-      </c>
-      <c r="L97" t="inlineStr"/>
+        <v>3.915</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.925</v>
+        <v>3.982</v>
       </c>
       <c r="C98" t="n">
-        <v>3.925</v>
+        <v>3.986</v>
       </c>
       <c r="D98" t="n">
-        <v>3.925</v>
+        <v>3.986</v>
       </c>
       <c r="E98" t="n">
-        <v>3.925</v>
+        <v>3.982</v>
       </c>
       <c r="F98" t="n">
-        <v>128</v>
+        <v>5000</v>
       </c>
       <c r="G98" t="n">
-        <v>-13124330.41766712</v>
+        <v>-12710417.10646712</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>3.896</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>3.906</v>
+        <v>3.915</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.896</v>
+        <v>3.986</v>
       </c>
       <c r="C99" t="n">
-        <v>3.896</v>
+        <v>3.951</v>
       </c>
       <c r="D99" t="n">
-        <v>3.896</v>
+        <v>3.986</v>
       </c>
       <c r="E99" t="n">
-        <v>3.896</v>
+        <v>3.951</v>
       </c>
       <c r="F99" t="n">
-        <v>934.2732999999999</v>
+        <v>300</v>
       </c>
       <c r="G99" t="n">
-        <v>-13125264.69096712</v>
+        <v>-12710717.10646712</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>3.925</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>3.906</v>
+        <v>3.915</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.925</v>
+        <v>3.951</v>
       </c>
       <c r="C100" t="n">
-        <v>3.925</v>
+        <v>3.951</v>
       </c>
       <c r="D100" t="n">
-        <v>3.925</v>
+        <v>3.951</v>
       </c>
       <c r="E100" t="n">
-        <v>3.925</v>
+        <v>3.951</v>
       </c>
       <c r="F100" t="n">
-        <v>128</v>
+        <v>8941.1659</v>
       </c>
       <c r="G100" t="n">
-        <v>-13125136.69096712</v>
+        <v>-12710717.10646712</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>3.896</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
+        <v>3.915</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="C101" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="D101" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="E101" t="n">
-        <v>3.93</v>
+        <v>3.97</v>
       </c>
       <c r="F101" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G101" t="n">
-        <v>-13125009.69096712</v>
+        <v>-12710587.10646712</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>3.925</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>3.896</v>
+        <v>3.915</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>3.93</v>
+        <v>3.951</v>
       </c>
       <c r="C102" t="n">
-        <v>3.93</v>
+        <v>3.951</v>
       </c>
       <c r="D102" t="n">
-        <v>3.93</v>
+        <v>3.951</v>
       </c>
       <c r="E102" t="n">
-        <v>3.93</v>
+        <v>3.951</v>
       </c>
       <c r="F102" t="n">
-        <v>25171.5443</v>
+        <v>11000</v>
       </c>
       <c r="G102" t="n">
-        <v>-13125009.69096712</v>
+        <v>-12721587.10646712</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.93</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>3.896</v>
+        <v>3.915</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>3.908</v>
+        <v>3.966</v>
       </c>
       <c r="C103" t="n">
-        <v>3.908</v>
+        <v>3.988</v>
       </c>
       <c r="D103" t="n">
-        <v>3.908</v>
+        <v>3.989</v>
       </c>
       <c r="E103" t="n">
-        <v>3.908</v>
+        <v>3.966</v>
       </c>
       <c r="F103" t="n">
-        <v>14421.6078</v>
+        <v>412004.0724</v>
       </c>
       <c r="G103" t="n">
-        <v>-13139431.29876712</v>
+        <v>-12309583.03406712</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>3.93</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
+        <v>3.915</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>3.902</v>
+        <v>3.961</v>
       </c>
       <c r="C104" t="n">
-        <v>3.902</v>
+        <v>3.961</v>
       </c>
       <c r="D104" t="n">
-        <v>3.902</v>
+        <v>3.961</v>
       </c>
       <c r="E104" t="n">
-        <v>3.902</v>
+        <v>3.961</v>
       </c>
       <c r="F104" t="n">
-        <v>206637.2377</v>
+        <v>130</v>
       </c>
       <c r="G104" t="n">
-        <v>-13346068.53646712</v>
+        <v>-12309713.03406712</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4110,38 +4391,39 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>3.93</v>
+        <v>3.915</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>3.908</v>
+        <v>3.948</v>
       </c>
       <c r="C105" t="n">
-        <v>3.908</v>
+        <v>3.948</v>
       </c>
       <c r="D105" t="n">
-        <v>3.908</v>
+        <v>3.948</v>
       </c>
       <c r="E105" t="n">
-        <v>3.908</v>
+        <v>3.948</v>
       </c>
       <c r="F105" t="n">
-        <v>23587.6296</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>-13322480.90686712</v>
+        <v>-12309913.03406712</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4151,202 +4433,207 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>3.93</v>
+        <v>3.915</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>3.928</v>
+        <v>3.958</v>
       </c>
       <c r="C106" t="n">
-        <v>3.928</v>
+        <v>3.989</v>
       </c>
       <c r="D106" t="n">
-        <v>3.928</v>
+        <v>3.989</v>
       </c>
       <c r="E106" t="n">
-        <v>3.928</v>
+        <v>3.958</v>
       </c>
       <c r="F106" t="n">
-        <v>128</v>
+        <v>351730.5598</v>
       </c>
       <c r="G106" t="n">
-        <v>-13322352.90686712</v>
+        <v>-11958182.47426712</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>3.908</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
+        <v>3.915</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>3.915</v>
+        <v>3.989</v>
       </c>
       <c r="C107" t="n">
-        <v>3.915</v>
+        <v>4</v>
       </c>
       <c r="D107" t="n">
-        <v>3.915</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>3.915</v>
+        <v>3.989</v>
       </c>
       <c r="F107" t="n">
-        <v>21090.9537</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="n">
-        <v>-13343443.86056712</v>
+        <v>-11953182.47426712</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>3.928</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>3.908</v>
+        <v>3.915</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>3.928</v>
+        <v>3.997</v>
       </c>
       <c r="C108" t="n">
-        <v>3.928</v>
+        <v>3.997</v>
       </c>
       <c r="D108" t="n">
-        <v>3.928</v>
+        <v>3.997</v>
       </c>
       <c r="E108" t="n">
-        <v>3.928</v>
+        <v>3.997</v>
       </c>
       <c r="F108" t="n">
-        <v>128</v>
+        <v>403.8864</v>
       </c>
       <c r="G108" t="n">
-        <v>-13343315.86056712</v>
+        <v>-11953586.36066712</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>3.908</v>
+        <v>3.915</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>3.928</v>
+        <v>3.997</v>
       </c>
       <c r="C109" t="n">
-        <v>3.928</v>
+        <v>3.97</v>
       </c>
       <c r="D109" t="n">
-        <v>3.928</v>
+        <v>3.997</v>
       </c>
       <c r="E109" t="n">
-        <v>3.928</v>
+        <v>3.97</v>
       </c>
       <c r="F109" t="n">
-        <v>218175.9958</v>
+        <v>40788.1085</v>
       </c>
       <c r="G109" t="n">
-        <v>-13343315.86056712</v>
+        <v>-11994374.46916712</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>3.928</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
+        <v>3.915</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>3.915</v>
+        <v>3.97</v>
       </c>
       <c r="C110" t="n">
-        <v>3.909</v>
+        <v>3.968</v>
       </c>
       <c r="D110" t="n">
-        <v>3.915</v>
+        <v>3.97</v>
       </c>
       <c r="E110" t="n">
-        <v>3.909</v>
+        <v>3.96</v>
       </c>
       <c r="F110" t="n">
-        <v>78347.66740000001</v>
+        <v>28571</v>
       </c>
       <c r="G110" t="n">
-        <v>-13421663.52796712</v>
+        <v>-12022945.46916712</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4356,38 +4643,39 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>3.909</v>
+        <v>3.968</v>
       </c>
       <c r="C111" t="n">
-        <v>3.901</v>
+        <v>3.997</v>
       </c>
       <c r="D111" t="n">
-        <v>3.909</v>
+        <v>3.997</v>
       </c>
       <c r="E111" t="n">
-        <v>3.901</v>
+        <v>3.968</v>
       </c>
       <c r="F111" t="n">
-        <v>160000</v>
+        <v>1818.1818</v>
       </c>
       <c r="G111" t="n">
-        <v>-13581663.52796712</v>
+        <v>-12021127.28736712</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4397,7 +4685,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4407,28 +4695,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>3.902</v>
+        <v>3.986</v>
       </c>
       <c r="C112" t="n">
-        <v>3.902</v>
+        <v>3.996</v>
       </c>
       <c r="D112" t="n">
-        <v>3.902</v>
+        <v>3.996</v>
       </c>
       <c r="E112" t="n">
-        <v>3.902</v>
+        <v>3.986</v>
       </c>
       <c r="F112" t="n">
-        <v>167.1127</v>
+        <v>100000</v>
       </c>
       <c r="G112" t="n">
-        <v>-13581496.41526712</v>
+        <v>-12121127.28736712</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4438,7 +4727,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4448,28 +4737,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>3.905</v>
+        <v>3.948</v>
       </c>
       <c r="C113" t="n">
-        <v>3.905</v>
+        <v>3.948</v>
       </c>
       <c r="D113" t="n">
-        <v>3.905</v>
+        <v>3.948</v>
       </c>
       <c r="E113" t="n">
-        <v>3.905</v>
+        <v>3.948</v>
       </c>
       <c r="F113" t="n">
-        <v>466.9355</v>
+        <v>19800</v>
       </c>
       <c r="G113" t="n">
-        <v>-13581029.47976712</v>
+        <v>-12140927.28736712</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4479,7 +4769,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4489,28 +4779,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>3.905</v>
+        <v>3.965</v>
       </c>
       <c r="C114" t="n">
-        <v>3.905</v>
+        <v>3.965</v>
       </c>
       <c r="D114" t="n">
-        <v>3.905</v>
+        <v>3.965</v>
       </c>
       <c r="E114" t="n">
-        <v>3.905</v>
+        <v>3.965</v>
       </c>
       <c r="F114" t="n">
-        <v>151640.8232</v>
+        <v>28340</v>
       </c>
       <c r="G114" t="n">
-        <v>-13581029.47976712</v>
+        <v>-12112587.28736712</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4520,7 +4811,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4530,28 +4821,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>3.927</v>
+        <v>3.965</v>
       </c>
       <c r="C115" t="n">
-        <v>3.904</v>
+        <v>3.965</v>
       </c>
       <c r="D115" t="n">
-        <v>3.927</v>
+        <v>3.965</v>
       </c>
       <c r="E115" t="n">
-        <v>3.904</v>
+        <v>3.965</v>
       </c>
       <c r="F115" t="n">
-        <v>75618.92570000001</v>
+        <v>85915.8014</v>
       </c>
       <c r="G115" t="n">
-        <v>-13656648.40546712</v>
+        <v>-12112587.28736712</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4561,7 +4853,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -4571,40 +4863,39 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.927</v>
+        <v>3.965</v>
       </c>
       <c r="C116" t="n">
-        <v>3.927</v>
+        <v>3.965</v>
       </c>
       <c r="D116" t="n">
-        <v>3.927</v>
+        <v>3.965</v>
       </c>
       <c r="E116" t="n">
-        <v>3.927</v>
+        <v>3.965</v>
       </c>
       <c r="F116" t="n">
-        <v>128</v>
+        <v>100000</v>
       </c>
       <c r="G116" t="n">
-        <v>-13656520.40546712</v>
+        <v>-12112587.28736712</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>3.904</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -4614,40 +4905,39 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>3.907</v>
+        <v>3.987</v>
       </c>
       <c r="C117" t="n">
-        <v>3.907</v>
+        <v>3.987</v>
       </c>
       <c r="D117" t="n">
-        <v>3.907</v>
+        <v>3.987</v>
       </c>
       <c r="E117" t="n">
-        <v>3.907</v>
+        <v>3.987</v>
       </c>
       <c r="F117" t="n">
-        <v>167.1127</v>
+        <v>1234</v>
       </c>
       <c r="G117" t="n">
-        <v>-13656687.51816712</v>
+        <v>-12111353.28736712</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>3.927</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -4657,40 +4947,39 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>3.927</v>
+        <v>3.987</v>
       </c>
       <c r="C118" t="n">
-        <v>3.927</v>
+        <v>3.959</v>
       </c>
       <c r="D118" t="n">
-        <v>3.927</v>
+        <v>3.987</v>
       </c>
       <c r="E118" t="n">
-        <v>3.927</v>
+        <v>3.959</v>
       </c>
       <c r="F118" t="n">
-        <v>129</v>
+        <v>231516</v>
       </c>
       <c r="G118" t="n">
-        <v>-13656558.51816712</v>
+        <v>-12342869.28736712</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>3.907</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -4700,40 +4989,39 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>3.927</v>
+        <v>3.959</v>
       </c>
       <c r="C119" t="n">
-        <v>3.927</v>
+        <v>3.959</v>
       </c>
       <c r="D119" t="n">
-        <v>3.927</v>
+        <v>3.959</v>
       </c>
       <c r="E119" t="n">
-        <v>3.927</v>
+        <v>3.959</v>
       </c>
       <c r="F119" t="n">
-        <v>66824.6165</v>
+        <v>100000</v>
       </c>
       <c r="G119" t="n">
-        <v>-13656558.51816712</v>
+        <v>-12342869.28736712</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>3.927</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -4743,40 +5031,39 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>3.927</v>
+        <v>3.995</v>
       </c>
       <c r="C120" t="n">
-        <v>3.965</v>
+        <v>3.995</v>
       </c>
       <c r="D120" t="n">
-        <v>3.965</v>
+        <v>3.995</v>
       </c>
       <c r="E120" t="n">
-        <v>3.927</v>
+        <v>3.995</v>
       </c>
       <c r="F120" t="n">
-        <v>484078.1505</v>
+        <v>6691.6821</v>
       </c>
       <c r="G120" t="n">
-        <v>-13172480.36766712</v>
+        <v>-12336177.60526712</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>3.927</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -4786,40 +5073,39 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>3.965</v>
+        <v>3.99</v>
       </c>
       <c r="C121" t="n">
-        <v>3.965</v>
+        <v>3.99</v>
       </c>
       <c r="D121" t="n">
-        <v>3.965</v>
+        <v>3.99</v>
       </c>
       <c r="E121" t="n">
-        <v>3.965</v>
+        <v>3.99</v>
       </c>
       <c r="F121" t="n">
-        <v>1818.1818</v>
+        <v>10000</v>
       </c>
       <c r="G121" t="n">
-        <v>-13172480.36766712</v>
+        <v>-12346177.60526712</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>3.965</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -4829,28 +5115,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>3.965</v>
+        <v>3.995</v>
       </c>
       <c r="C122" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="D122" t="n">
-        <v>3.965</v>
+        <v>3.995</v>
       </c>
       <c r="E122" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="F122" t="n">
-        <v>47712.1269</v>
+        <v>8466</v>
       </c>
       <c r="G122" t="n">
-        <v>-13172480.36766712</v>
+        <v>-12354643.60526712</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4860,7 +5147,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -4870,28 +5157,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="C123" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="D123" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="E123" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="F123" t="n">
-        <v>1916.719</v>
+        <v>8470</v>
       </c>
       <c r="G123" t="n">
-        <v>-13172480.36766712</v>
+        <v>-12354643.60526712</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4901,7 +5189,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -4911,28 +5199,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="C124" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="D124" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="E124" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="F124" t="n">
-        <v>45112</v>
+        <v>10000</v>
       </c>
       <c r="G124" t="n">
-        <v>-13217592.36766712</v>
+        <v>-12364643.60526712</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4942,7 +5231,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -4952,40 +5241,39 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="C125" t="n">
-        <v>3.925</v>
+        <v>3.97</v>
       </c>
       <c r="D125" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="E125" t="n">
-        <v>3.925</v>
+        <v>3.97</v>
       </c>
       <c r="F125" t="n">
-        <v>50000.8856</v>
+        <v>10000</v>
       </c>
       <c r="G125" t="n">
-        <v>-13267593.25326712</v>
+        <v>-12364643.60526712</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>3.964</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -4995,40 +5283,39 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>3.925</v>
+        <v>3.97</v>
       </c>
       <c r="C126" t="n">
-        <v>3.915</v>
+        <v>3.97</v>
       </c>
       <c r="D126" t="n">
-        <v>3.925</v>
+        <v>3.97</v>
       </c>
       <c r="E126" t="n">
-        <v>3.915</v>
+        <v>3.97</v>
       </c>
       <c r="F126" t="n">
-        <v>9000</v>
+        <v>41250</v>
       </c>
       <c r="G126" t="n">
-        <v>-13276593.25326712</v>
+        <v>-12364643.60526712</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>3.925</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5038,40 +5325,39 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="C127" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="D127" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="E127" t="n">
-        <v>3.964</v>
+        <v>3.97</v>
       </c>
       <c r="F127" t="n">
-        <v>130</v>
+        <v>61250</v>
       </c>
       <c r="G127" t="n">
-        <v>-13276463.25326712</v>
+        <v>-12364643.60526712</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5081,28 +5367,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3.964</v>
+        <v>3.977</v>
       </c>
       <c r="C128" t="n">
-        <v>3.964</v>
+        <v>3.977</v>
       </c>
       <c r="D128" t="n">
-        <v>3.964</v>
+        <v>3.977</v>
       </c>
       <c r="E128" t="n">
-        <v>3.964</v>
+        <v>3.977</v>
       </c>
       <c r="F128" t="n">
-        <v>919.5351000000001</v>
+        <v>126</v>
       </c>
       <c r="G128" t="n">
-        <v>-13276463.25326712</v>
+        <v>-12364517.60526712</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5112,7 +5399,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5122,28 +5409,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3.925</v>
+        <v>3.965</v>
       </c>
       <c r="C129" t="n">
-        <v>3.925</v>
+        <v>3.967</v>
       </c>
       <c r="D129" t="n">
-        <v>3.925</v>
+        <v>3.967</v>
       </c>
       <c r="E129" t="n">
-        <v>3.925</v>
+        <v>3.965</v>
       </c>
       <c r="F129" t="n">
-        <v>9001.933999999999</v>
+        <v>30000</v>
       </c>
       <c r="G129" t="n">
-        <v>-13285465.18726712</v>
+        <v>-12394517.60526712</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5153,7 +5441,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5163,28 +5451,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3.964</v>
+        <v>3.967</v>
       </c>
       <c r="C130" t="n">
-        <v>3.964</v>
+        <v>3.967</v>
       </c>
       <c r="D130" t="n">
-        <v>3.964</v>
+        <v>3.967</v>
       </c>
       <c r="E130" t="n">
-        <v>3.964</v>
+        <v>3.967</v>
       </c>
       <c r="F130" t="n">
-        <v>128</v>
+        <v>156423.2056</v>
       </c>
       <c r="G130" t="n">
-        <v>-13285337.18726712</v>
+        <v>-12394517.60526712</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5194,7 +5483,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5204,28 +5493,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3.964</v>
+        <v>3.967</v>
       </c>
       <c r="C131" t="n">
-        <v>3.965</v>
+        <v>3.967</v>
       </c>
       <c r="D131" t="n">
-        <v>3.965</v>
+        <v>3.967</v>
       </c>
       <c r="E131" t="n">
-        <v>3.964</v>
+        <v>3.967</v>
       </c>
       <c r="F131" t="n">
-        <v>312957.3952</v>
+        <v>76171.1225</v>
       </c>
       <c r="G131" t="n">
-        <v>-12972379.79206712</v>
+        <v>-12394517.60526712</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5235,7 +5525,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5245,28 +5535,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3.965</v>
+        <v>3.968</v>
       </c>
       <c r="C132" t="n">
-        <v>3.965</v>
+        <v>3.969</v>
       </c>
       <c r="D132" t="n">
-        <v>3.965</v>
+        <v>3.969</v>
       </c>
       <c r="E132" t="n">
-        <v>3.965</v>
+        <v>3.968</v>
       </c>
       <c r="F132" t="n">
-        <v>61710</v>
+        <v>20000</v>
       </c>
       <c r="G132" t="n">
-        <v>-12972379.79206712</v>
+        <v>-12374517.60526712</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5276,7 +5567,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5286,28 +5577,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3.965</v>
+        <v>3.97</v>
       </c>
       <c r="C133" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="D133" t="n">
-        <v>3.965</v>
+        <v>3.971</v>
       </c>
       <c r="E133" t="n">
-        <v>3.965</v>
+        <v>3.97</v>
       </c>
       <c r="F133" t="n">
-        <v>20570</v>
+        <v>20000</v>
       </c>
       <c r="G133" t="n">
-        <v>-12972379.79206712</v>
+        <v>-12354517.60526712</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5317,7 +5609,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5327,28 +5619,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3.975</v>
+        <v>3.984</v>
       </c>
       <c r="C134" t="n">
-        <v>3.978</v>
+        <v>3.984</v>
       </c>
       <c r="D134" t="n">
-        <v>3.978</v>
+        <v>3.984</v>
       </c>
       <c r="E134" t="n">
-        <v>3.975</v>
+        <v>3.984</v>
       </c>
       <c r="F134" t="n">
-        <v>74531.7426</v>
+        <v>30288.4548</v>
       </c>
       <c r="G134" t="n">
-        <v>-12897848.04946712</v>
+        <v>-12324229.15046712</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5358,7 +5651,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5368,28 +5661,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3.98</v>
+        <v>3.965</v>
       </c>
       <c r="C135" t="n">
-        <v>3.989</v>
+        <v>3.965</v>
       </c>
       <c r="D135" t="n">
-        <v>3.989</v>
+        <v>3.965</v>
       </c>
       <c r="E135" t="n">
-        <v>3.98</v>
+        <v>3.965</v>
       </c>
       <c r="F135" t="n">
-        <v>180796.3966</v>
+        <v>126</v>
       </c>
       <c r="G135" t="n">
-        <v>-12717051.65286712</v>
+        <v>-12324355.15046712</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5399,7 +5693,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5409,28 +5703,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3.965</v>
+        <v>3.962</v>
       </c>
       <c r="C136" t="n">
-        <v>3.965</v>
+        <v>3.961</v>
       </c>
       <c r="D136" t="n">
-        <v>3.965</v>
+        <v>3.962</v>
       </c>
       <c r="E136" t="n">
-        <v>3.965</v>
+        <v>3.961</v>
       </c>
       <c r="F136" t="n">
-        <v>830</v>
+        <v>50000</v>
       </c>
       <c r="G136" t="n">
-        <v>-12717881.65286712</v>
+        <v>-12374355.15046712</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5440,7 +5735,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -5450,28 +5745,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3.948</v>
+        <v>3.961</v>
       </c>
       <c r="C137" t="n">
         <v>3.948</v>
       </c>
       <c r="D137" t="n">
-        <v>3.948</v>
+        <v>3.961</v>
       </c>
       <c r="E137" t="n">
         <v>3.948</v>
       </c>
       <c r="F137" t="n">
-        <v>128</v>
+        <v>10000</v>
       </c>
       <c r="G137" t="n">
-        <v>-12718009.65286712</v>
+        <v>-12384355.15046712</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5481,7 +5777,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -5491,28 +5787,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3.966</v>
+        <v>3.964</v>
       </c>
       <c r="C138" t="n">
-        <v>3.966</v>
+        <v>3.964</v>
       </c>
       <c r="D138" t="n">
-        <v>3.966</v>
+        <v>3.964</v>
       </c>
       <c r="E138" t="n">
-        <v>3.966</v>
+        <v>3.964</v>
       </c>
       <c r="F138" t="n">
-        <v>292.5464</v>
+        <v>36940</v>
       </c>
       <c r="G138" t="n">
-        <v>-12717717.10646712</v>
+        <v>-12347415.15046712</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5522,7 +5819,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -5532,28 +5829,29 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3.978</v>
+        <v>3.96</v>
       </c>
       <c r="C139" t="n">
-        <v>3.981</v>
+        <v>3.97</v>
       </c>
       <c r="D139" t="n">
-        <v>3.981</v>
+        <v>3.97</v>
       </c>
       <c r="E139" t="n">
-        <v>3.978</v>
+        <v>3.96</v>
       </c>
       <c r="F139" t="n">
-        <v>2300</v>
+        <v>195414.8775</v>
       </c>
       <c r="G139" t="n">
-        <v>-12715417.10646712</v>
+        <v>-12152000.27296712</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5563,7 +5861,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -5573,28 +5871,29 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3.982</v>
+        <v>3.97</v>
       </c>
       <c r="C140" t="n">
-        <v>3.986</v>
+        <v>3.97</v>
       </c>
       <c r="D140" t="n">
-        <v>3.986</v>
+        <v>3.97</v>
       </c>
       <c r="E140" t="n">
-        <v>3.982</v>
+        <v>3.97</v>
       </c>
       <c r="F140" t="n">
-        <v>5000</v>
+        <v>496507.3499</v>
       </c>
       <c r="G140" t="n">
-        <v>-12710417.10646712</v>
+        <v>-12152000.27296712</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5604,7 +5903,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -5614,28 +5913,29 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3.986</v>
+        <v>3.971</v>
       </c>
       <c r="C141" t="n">
-        <v>3.951</v>
+        <v>3.972</v>
       </c>
       <c r="D141" t="n">
-        <v>3.986</v>
+        <v>3.972</v>
       </c>
       <c r="E141" t="n">
-        <v>3.951</v>
+        <v>3.971</v>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>14552.0539</v>
       </c>
       <c r="G141" t="n">
-        <v>-12710717.10646712</v>
+        <v>-12137448.21906712</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5645,7 +5945,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -5655,28 +5955,29 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3.951</v>
+        <v>3.958</v>
       </c>
       <c r="C142" t="n">
-        <v>3.951</v>
+        <v>3.958</v>
       </c>
       <c r="D142" t="n">
-        <v>3.951</v>
+        <v>3.958</v>
       </c>
       <c r="E142" t="n">
-        <v>3.951</v>
+        <v>3.958</v>
       </c>
       <c r="F142" t="n">
-        <v>8941.1659</v>
+        <v>277.5</v>
       </c>
       <c r="G142" t="n">
-        <v>-12710717.10646712</v>
+        <v>-12137725.71906712</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5686,7 +5987,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -5696,28 +5997,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3.97</v>
+        <v>3.971</v>
       </c>
       <c r="C143" t="n">
-        <v>3.97</v>
+        <v>3.958</v>
       </c>
       <c r="D143" t="n">
-        <v>3.97</v>
+        <v>3.971</v>
       </c>
       <c r="E143" t="n">
-        <v>3.97</v>
+        <v>3.958</v>
       </c>
       <c r="F143" t="n">
-        <v>130</v>
+        <v>27131.802</v>
       </c>
       <c r="G143" t="n">
-        <v>-12710587.10646712</v>
+        <v>-12137725.71906712</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5727,7 +6029,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -5737,28 +6039,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3.951</v>
+        <v>3.959</v>
       </c>
       <c r="C144" t="n">
-        <v>3.951</v>
+        <v>3.971</v>
       </c>
       <c r="D144" t="n">
-        <v>3.951</v>
+        <v>3.971</v>
       </c>
       <c r="E144" t="n">
-        <v>3.951</v>
+        <v>3.959</v>
       </c>
       <c r="F144" t="n">
-        <v>11000</v>
+        <v>3900</v>
       </c>
       <c r="G144" t="n">
-        <v>-12721587.10646712</v>
+        <v>-12133825.71906712</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5768,7 +6071,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -5778,28 +6081,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.966</v>
+        <v>3.971</v>
       </c>
       <c r="C145" t="n">
-        <v>3.988</v>
+        <v>3.972</v>
       </c>
       <c r="D145" t="n">
-        <v>3.989</v>
+        <v>3.972</v>
       </c>
       <c r="E145" t="n">
-        <v>3.966</v>
+        <v>3.971</v>
       </c>
       <c r="F145" t="n">
-        <v>412004.0724</v>
+        <v>13000</v>
       </c>
       <c r="G145" t="n">
-        <v>-12309583.03406712</v>
+        <v>-12120825.71906712</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5809,7 +6113,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -5819,28 +6123,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3.961</v>
+        <v>3.972</v>
       </c>
       <c r="C146" t="n">
-        <v>3.961</v>
+        <v>3.974</v>
       </c>
       <c r="D146" t="n">
-        <v>3.961</v>
+        <v>3.974</v>
       </c>
       <c r="E146" t="n">
-        <v>3.961</v>
+        <v>3.972</v>
       </c>
       <c r="F146" t="n">
-        <v>130</v>
+        <v>15000</v>
       </c>
       <c r="G146" t="n">
-        <v>-12309713.03406712</v>
+        <v>-12105825.71906712</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5850,7 +6155,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -5860,28 +6165,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3.948</v>
+        <v>3.974</v>
       </c>
       <c r="C147" t="n">
-        <v>3.948</v>
+        <v>3.974</v>
       </c>
       <c r="D147" t="n">
-        <v>3.948</v>
+        <v>3.974</v>
       </c>
       <c r="E147" t="n">
-        <v>3.948</v>
+        <v>3.974</v>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>9642.7204</v>
       </c>
       <c r="G147" t="n">
-        <v>-12309913.03406712</v>
+        <v>-12105825.71906712</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5891,7 +6197,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -5901,28 +6207,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3.958</v>
+        <v>3.975</v>
       </c>
       <c r="C148" t="n">
-        <v>3.989</v>
+        <v>3.975</v>
       </c>
       <c r="D148" t="n">
-        <v>3.989</v>
+        <v>3.975</v>
       </c>
       <c r="E148" t="n">
-        <v>3.958</v>
+        <v>3.975</v>
       </c>
       <c r="F148" t="n">
-        <v>351730.5598</v>
+        <v>10000</v>
       </c>
       <c r="G148" t="n">
-        <v>-11958182.47426712</v>
+        <v>-12095825.71906712</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5932,7 +6239,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -5942,28 +6249,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3.989</v>
+        <v>3.976</v>
       </c>
       <c r="C149" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="D149" t="n">
-        <v>4</v>
+        <v>3.98</v>
       </c>
       <c r="E149" t="n">
-        <v>3.989</v>
+        <v>3.976</v>
       </c>
       <c r="F149" t="n">
-        <v>5000</v>
+        <v>45096.0638</v>
       </c>
       <c r="G149" t="n">
-        <v>-11953182.47426712</v>
+        <v>-12050729.65526712</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5973,7 +6281,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -5983,28 +6291,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.997</v>
+        <v>3.98</v>
       </c>
       <c r="C150" t="n">
-        <v>3.997</v>
+        <v>3.98</v>
       </c>
       <c r="D150" t="n">
-        <v>3.997</v>
+        <v>3.98</v>
       </c>
       <c r="E150" t="n">
-        <v>3.997</v>
+        <v>3.98</v>
       </c>
       <c r="F150" t="n">
-        <v>403.8864</v>
+        <v>4903.9362</v>
       </c>
       <c r="G150" t="n">
-        <v>-11953586.36066712</v>
+        <v>-12050729.65526712</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6014,7 +6323,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6024,28 +6333,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3.997</v>
+        <v>3.981</v>
       </c>
       <c r="C151" t="n">
-        <v>3.97</v>
+        <v>3.984</v>
       </c>
       <c r="D151" t="n">
-        <v>3.997</v>
+        <v>3.984</v>
       </c>
       <c r="E151" t="n">
-        <v>3.97</v>
+        <v>3.981</v>
       </c>
       <c r="F151" t="n">
-        <v>40788.1085</v>
+        <v>40000</v>
       </c>
       <c r="G151" t="n">
-        <v>-11994374.46916712</v>
+        <v>-12010729.65526712</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6055,7 +6365,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -6065,28 +6375,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.97</v>
+        <v>3.984</v>
       </c>
       <c r="C152" t="n">
-        <v>3.968</v>
+        <v>3.984</v>
       </c>
       <c r="D152" t="n">
-        <v>3.97</v>
+        <v>3.984</v>
       </c>
       <c r="E152" t="n">
-        <v>3.96</v>
+        <v>3.984</v>
       </c>
       <c r="F152" t="n">
-        <v>28571</v>
+        <v>40000</v>
       </c>
       <c r="G152" t="n">
-        <v>-12022945.46916712</v>
+        <v>-12010729.65526712</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6096,7 +6407,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -6106,28 +6417,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3.968</v>
+        <v>3.985</v>
       </c>
       <c r="C153" t="n">
-        <v>3.997</v>
+        <v>3.986</v>
       </c>
       <c r="D153" t="n">
-        <v>3.997</v>
+        <v>3.986</v>
       </c>
       <c r="E153" t="n">
-        <v>3.968</v>
+        <v>3.985</v>
       </c>
       <c r="F153" t="n">
-        <v>1818.1818</v>
+        <v>11800</v>
       </c>
       <c r="G153" t="n">
-        <v>-12021127.28736712</v>
+        <v>-11998929.65526712</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6137,7 +6449,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -6147,6 +6459,7 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6156,19 +6469,19 @@
         <v>3.986</v>
       </c>
       <c r="C154" t="n">
-        <v>3.996</v>
+        <v>3.993</v>
       </c>
       <c r="D154" t="n">
-        <v>3.996</v>
+        <v>3.993</v>
       </c>
       <c r="E154" t="n">
         <v>3.986</v>
       </c>
       <c r="F154" t="n">
-        <v>100000</v>
+        <v>68200</v>
       </c>
       <c r="G154" t="n">
-        <v>-12121127.28736712</v>
+        <v>-11930729.65526712</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6178,7 +6491,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -6188,28 +6501,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3.948</v>
+        <v>3.992</v>
       </c>
       <c r="C155" t="n">
-        <v>3.948</v>
+        <v>3.984</v>
       </c>
       <c r="D155" t="n">
-        <v>3.948</v>
+        <v>3.992</v>
       </c>
       <c r="E155" t="n">
-        <v>3.948</v>
+        <v>3.984</v>
       </c>
       <c r="F155" t="n">
-        <v>19800</v>
+        <v>2207523.25</v>
       </c>
       <c r="G155" t="n">
-        <v>-12140927.28736712</v>
+        <v>-14138252.90526712</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6219,7 +6533,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -6229,69 +6543,71 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="C156" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="D156" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="E156" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="F156" t="n">
-        <v>28340</v>
+        <v>1280</v>
       </c>
       <c r="G156" t="n">
-        <v>-12112587.28736712</v>
+        <v>-14136972.90526712</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>3.928</v>
+        <v>3.915</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
-      </c>
+        <v>1.013390804597701</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="C157" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="D157" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="E157" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="F157" t="n">
-        <v>85915.8014</v>
+        <v>2406.2392</v>
       </c>
       <c r="G157" t="n">
-        <v>-12112587.28736712</v>
+        <v>-14136972.90526712</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6300,39 +6616,34 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="C158" t="n">
-        <v>3.965</v>
+        <v>3.997</v>
       </c>
       <c r="D158" t="n">
-        <v>3.965</v>
+        <v>3.997</v>
       </c>
       <c r="E158" t="n">
-        <v>3.965</v>
+        <v>3.987</v>
       </c>
       <c r="F158" t="n">
-        <v>100000</v>
+        <v>540000</v>
       </c>
       <c r="G158" t="n">
-        <v>-12112587.28736712</v>
+        <v>-13596972.90526712</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6341,39 +6652,34 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.987</v>
+        <v>3.997</v>
       </c>
       <c r="C159" t="n">
-        <v>3.987</v>
+        <v>4</v>
       </c>
       <c r="D159" t="n">
-        <v>3.987</v>
+        <v>4</v>
       </c>
       <c r="E159" t="n">
-        <v>3.987</v>
+        <v>3.997</v>
       </c>
       <c r="F159" t="n">
-        <v>1234</v>
+        <v>182225.1521</v>
       </c>
       <c r="G159" t="n">
-        <v>-12111353.28736712</v>
+        <v>-13414747.75316712</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6382,39 +6688,34 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3.987</v>
+        <v>3.995</v>
       </c>
       <c r="C160" t="n">
-        <v>3.959</v>
+        <v>3.995</v>
       </c>
       <c r="D160" t="n">
-        <v>3.987</v>
+        <v>3.995</v>
       </c>
       <c r="E160" t="n">
-        <v>3.959</v>
+        <v>3.995</v>
       </c>
       <c r="F160" t="n">
-        <v>231516</v>
+        <v>40232.1885</v>
       </c>
       <c r="G160" t="n">
-        <v>-12342869.28736712</v>
+        <v>-13454979.94166712</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6423,39 +6724,34 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.959</v>
+        <v>4.009</v>
       </c>
       <c r="C161" t="n">
-        <v>3.959</v>
+        <v>4.009</v>
       </c>
       <c r="D161" t="n">
-        <v>3.959</v>
+        <v>4.009</v>
       </c>
       <c r="E161" t="n">
-        <v>3.959</v>
+        <v>4.009</v>
       </c>
       <c r="F161" t="n">
-        <v>100000</v>
+        <v>1250</v>
       </c>
       <c r="G161" t="n">
-        <v>-12342869.28736712</v>
+        <v>-13453729.94166712</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6464,39 +6760,34 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3.995</v>
+        <v>4.009</v>
       </c>
       <c r="C162" t="n">
-        <v>3.995</v>
+        <v>4.018</v>
       </c>
       <c r="D162" t="n">
-        <v>3.995</v>
+        <v>4.018</v>
       </c>
       <c r="E162" t="n">
-        <v>3.995</v>
+        <v>4.009</v>
       </c>
       <c r="F162" t="n">
-        <v>6691.6821</v>
+        <v>12222.9285</v>
       </c>
       <c r="G162" t="n">
-        <v>-12336177.60526712</v>
+        <v>-13441507.01316712</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6505,39 +6796,34 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3.99</v>
+        <v>4.018</v>
       </c>
       <c r="C163" t="n">
-        <v>3.99</v>
+        <v>4.024</v>
       </c>
       <c r="D163" t="n">
-        <v>3.99</v>
+        <v>4.024</v>
       </c>
       <c r="E163" t="n">
-        <v>3.99</v>
+        <v>4.018</v>
       </c>
       <c r="F163" t="n">
-        <v>10000</v>
+        <v>260000</v>
       </c>
       <c r="G163" t="n">
-        <v>-12346177.60526712</v>
+        <v>-13181507.01316712</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6546,39 +6832,34 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3.995</v>
+        <v>4.024</v>
       </c>
       <c r="C164" t="n">
-        <v>3.971</v>
+        <v>4.04</v>
       </c>
       <c r="D164" t="n">
-        <v>3.995</v>
+        <v>4.04</v>
       </c>
       <c r="E164" t="n">
-        <v>3.971</v>
+        <v>4.024</v>
       </c>
       <c r="F164" t="n">
-        <v>8466</v>
+        <v>13000</v>
       </c>
       <c r="G164" t="n">
-        <v>-12354643.60526712</v>
+        <v>-13168507.01316712</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6587,2465 +6868,804 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3.971</v>
+        <v>4.04</v>
       </c>
       <c r="C165" t="n">
-        <v>3.971</v>
+        <v>4.04</v>
       </c>
       <c r="D165" t="n">
-        <v>3.971</v>
+        <v>4.04</v>
       </c>
       <c r="E165" t="n">
-        <v>3.971</v>
+        <v>4.04</v>
       </c>
       <c r="F165" t="n">
-        <v>8470</v>
+        <v>12694.6876</v>
       </c>
       <c r="G165" t="n">
-        <v>-12354643.60526712</v>
+        <v>-13168507.01316712</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3.97</v>
+        <v>4.055</v>
       </c>
       <c r="C166" t="n">
-        <v>3.97</v>
+        <v>4.055</v>
       </c>
       <c r="D166" t="n">
-        <v>3.97</v>
+        <v>4.055</v>
       </c>
       <c r="E166" t="n">
-        <v>3.97</v>
+        <v>4.055</v>
       </c>
       <c r="F166" t="n">
-        <v>10000</v>
+        <v>287195.8918</v>
       </c>
       <c r="G166" t="n">
-        <v>-12364643.60526712</v>
+        <v>-12881311.12136712</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="C167" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="D167" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="E167" t="n">
-        <v>3.97</v>
+        <v>4.03</v>
       </c>
       <c r="F167" t="n">
-        <v>10000</v>
+        <v>26940</v>
       </c>
       <c r="G167" t="n">
-        <v>-12364643.60526712</v>
+        <v>-12908251.12136712</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="C168" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="D168" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="E168" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="F168" t="n">
-        <v>41250</v>
+        <v>13460</v>
       </c>
       <c r="G168" t="n">
-        <v>-12364643.60526712</v>
+        <v>-12894791.12136712</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="C169" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="D169" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="E169" t="n">
-        <v>3.97</v>
+        <v>4.037</v>
       </c>
       <c r="F169" t="n">
-        <v>61250</v>
+        <v>12244.0092</v>
       </c>
       <c r="G169" t="n">
-        <v>-12364643.60526712</v>
+        <v>-12894791.12136712</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3.977</v>
+        <v>4.008</v>
       </c>
       <c r="C170" t="n">
-        <v>3.977</v>
+        <v>4.008</v>
       </c>
       <c r="D170" t="n">
-        <v>3.977</v>
+        <v>4.008</v>
       </c>
       <c r="E170" t="n">
-        <v>3.977</v>
+        <v>4.008</v>
       </c>
       <c r="F170" t="n">
-        <v>126</v>
+        <v>33080</v>
       </c>
       <c r="G170" t="n">
-        <v>-12364517.60526712</v>
+        <v>-12927871.12136712</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3.965</v>
+        <v>3.998</v>
       </c>
       <c r="C171" t="n">
-        <v>3.967</v>
+        <v>3.998</v>
       </c>
       <c r="D171" t="n">
-        <v>3.967</v>
+        <v>3.998</v>
       </c>
       <c r="E171" t="n">
-        <v>3.965</v>
+        <v>3.998</v>
       </c>
       <c r="F171" t="n">
-        <v>30000</v>
+        <v>280747.2842</v>
       </c>
       <c r="G171" t="n">
-        <v>-12394517.60526712</v>
+        <v>-13208618.40556712</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3.967</v>
+        <v>3.997</v>
       </c>
       <c r="C172" t="n">
-        <v>3.967</v>
+        <v>4.008</v>
       </c>
       <c r="D172" t="n">
-        <v>3.967</v>
+        <v>4.008</v>
       </c>
       <c r="E172" t="n">
-        <v>3.967</v>
+        <v>3.997</v>
       </c>
       <c r="F172" t="n">
-        <v>156423.2056</v>
+        <v>224279.9438</v>
       </c>
       <c r="G172" t="n">
-        <v>-12394517.60526712</v>
+        <v>-12984338.46176712</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3.967</v>
+        <v>4.008</v>
       </c>
       <c r="C173" t="n">
-        <v>3.967</v>
+        <v>4.008</v>
       </c>
       <c r="D173" t="n">
-        <v>3.967</v>
+        <v>4.008</v>
       </c>
       <c r="E173" t="n">
-        <v>3.967</v>
+        <v>4.008</v>
       </c>
       <c r="F173" t="n">
-        <v>76171.1225</v>
+        <v>1247.504990019</v>
       </c>
       <c r="G173" t="n">
-        <v>-12394517.60526712</v>
+        <v>-12984338.46176712</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3.968</v>
+        <v>4.008</v>
       </c>
       <c r="C174" t="n">
-        <v>3.969</v>
+        <v>4.008</v>
       </c>
       <c r="D174" t="n">
-        <v>3.969</v>
+        <v>4.008</v>
       </c>
       <c r="E174" t="n">
-        <v>3.968</v>
+        <v>4.008</v>
       </c>
       <c r="F174" t="n">
-        <v>20000</v>
+        <v>300868.380409981</v>
       </c>
       <c r="G174" t="n">
-        <v>-12374517.60526712</v>
+        <v>-12984338.46176712</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3.97</v>
+        <v>4.027</v>
       </c>
       <c r="C175" t="n">
-        <v>3.971</v>
+        <v>3.985</v>
       </c>
       <c r="D175" t="n">
-        <v>3.971</v>
+        <v>4.027</v>
       </c>
       <c r="E175" t="n">
-        <v>3.97</v>
+        <v>3.985</v>
       </c>
       <c r="F175" t="n">
-        <v>20000</v>
+        <v>287320.8918</v>
       </c>
       <c r="G175" t="n">
-        <v>-12354517.60526712</v>
+        <v>-13271659.35356712</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>3.984</v>
+        <v>4.027</v>
       </c>
       <c r="C176" t="n">
-        <v>3.984</v>
+        <v>4.027</v>
       </c>
       <c r="D176" t="n">
-        <v>3.984</v>
+        <v>4.027</v>
       </c>
       <c r="E176" t="n">
-        <v>3.984</v>
+        <v>4.027</v>
       </c>
       <c r="F176" t="n">
-        <v>30288.4548</v>
+        <v>127</v>
       </c>
       <c r="G176" t="n">
-        <v>-12324229.15046712</v>
+        <v>-13271532.35356712</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>3.965</v>
+        <v>4.016</v>
       </c>
       <c r="C177" t="n">
-        <v>3.965</v>
+        <v>4.008</v>
       </c>
       <c r="D177" t="n">
-        <v>3.965</v>
+        <v>4.016</v>
       </c>
       <c r="E177" t="n">
-        <v>3.965</v>
+        <v>4.008</v>
       </c>
       <c r="F177" t="n">
-        <v>126</v>
+        <v>73100</v>
       </c>
       <c r="G177" t="n">
-        <v>-12324355.15046712</v>
+        <v>-13344632.35356712</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>3.962</v>
+        <v>4.018</v>
       </c>
       <c r="C178" t="n">
-        <v>3.961</v>
+        <v>4.019</v>
       </c>
       <c r="D178" t="n">
-        <v>3.962</v>
+        <v>4.019</v>
       </c>
       <c r="E178" t="n">
-        <v>3.961</v>
+        <v>4.018</v>
       </c>
       <c r="F178" t="n">
-        <v>50000</v>
+        <v>60000</v>
       </c>
       <c r="G178" t="n">
-        <v>-12374355.15046712</v>
+        <v>-13284632.35356712</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>3.961</v>
+        <v>4.019</v>
       </c>
       <c r="C179" t="n">
-        <v>3.948</v>
+        <v>3.985</v>
       </c>
       <c r="D179" t="n">
-        <v>3.961</v>
+        <v>4.02</v>
       </c>
       <c r="E179" t="n">
-        <v>3.948</v>
+        <v>3.985</v>
       </c>
       <c r="F179" t="n">
-        <v>10000</v>
+        <v>176817.0685</v>
       </c>
       <c r="G179" t="n">
-        <v>-12384355.15046712</v>
+        <v>-13461449.42206712</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>3.964</v>
+        <v>4.011</v>
       </c>
       <c r="C180" t="n">
-        <v>3.964</v>
+        <v>4.023</v>
       </c>
       <c r="D180" t="n">
-        <v>3.964</v>
+        <v>4.023</v>
       </c>
       <c r="E180" t="n">
-        <v>3.964</v>
+        <v>4.011</v>
       </c>
       <c r="F180" t="n">
-        <v>36940</v>
+        <v>35633.8139</v>
       </c>
       <c r="G180" t="n">
-        <v>-12347415.15046712</v>
+        <v>-13425815.60816712</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>3.96</v>
+        <v>4.013</v>
       </c>
       <c r="C181" t="n">
-        <v>3.97</v>
+        <v>4.023</v>
       </c>
       <c r="D181" t="n">
-        <v>3.97</v>
+        <v>4.023</v>
       </c>
       <c r="E181" t="n">
-        <v>3.96</v>
+        <v>4.013</v>
       </c>
       <c r="F181" t="n">
-        <v>195414.8775</v>
+        <v>11036.1861</v>
       </c>
       <c r="G181" t="n">
-        <v>-12152000.27296712</v>
+        <v>-13425815.60816712</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>3.97</v>
+        <v>4.024</v>
       </c>
       <c r="C182" t="n">
-        <v>3.97</v>
+        <v>4.026</v>
       </c>
       <c r="D182" t="n">
-        <v>3.97</v>
+        <v>4.026</v>
       </c>
       <c r="E182" t="n">
-        <v>3.97</v>
+        <v>4.024</v>
       </c>
       <c r="F182" t="n">
-        <v>496507.3499</v>
+        <v>30000</v>
       </c>
       <c r="G182" t="n">
-        <v>-12152000.27296712</v>
+        <v>-13395815.60816712</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>3.971</v>
+        <v>4.027</v>
       </c>
       <c r="C183" t="n">
-        <v>3.972</v>
+        <v>4.027</v>
       </c>
       <c r="D183" t="n">
-        <v>3.972</v>
+        <v>4.027</v>
       </c>
       <c r="E183" t="n">
-        <v>3.971</v>
+        <v>4.027</v>
       </c>
       <c r="F183" t="n">
-        <v>14552.0539</v>
+        <v>10000</v>
       </c>
       <c r="G183" t="n">
-        <v>-12137448.21906712</v>
+        <v>-13385815.60816712</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>3.958</v>
+        <v>4.028</v>
       </c>
       <c r="C184" t="n">
-        <v>3.958</v>
+        <v>4.028</v>
       </c>
       <c r="D184" t="n">
-        <v>3.958</v>
+        <v>4.028</v>
       </c>
       <c r="E184" t="n">
-        <v>3.958</v>
+        <v>4.028</v>
       </c>
       <c r="F184" t="n">
-        <v>277.5</v>
+        <v>10000</v>
       </c>
       <c r="G184" t="n">
-        <v>-12137725.71906712</v>
+        <v>-13375815.60816712</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="K184" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>3.971</v>
+        <v>4.029</v>
       </c>
       <c r="C185" t="n">
-        <v>3.958</v>
+        <v>4.029</v>
       </c>
       <c r="D185" t="n">
-        <v>3.971</v>
+        <v>4.029</v>
       </c>
       <c r="E185" t="n">
-        <v>3.958</v>
+        <v>4.029</v>
       </c>
       <c r="F185" t="n">
-        <v>27131.802</v>
+        <v>10000</v>
       </c>
       <c r="G185" t="n">
-        <v>-12137725.71906712</v>
+        <v>-13365815.60816712</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>3.959</v>
+        <v>4.03</v>
       </c>
       <c r="C186" t="n">
-        <v>3.971</v>
+        <v>4.058</v>
       </c>
       <c r="D186" t="n">
-        <v>3.971</v>
+        <v>4.058</v>
       </c>
       <c r="E186" t="n">
-        <v>3.959</v>
+        <v>4.03</v>
       </c>
       <c r="F186" t="n">
-        <v>3900</v>
+        <v>858181.146926663</v>
       </c>
       <c r="G186" t="n">
-        <v>-12133825.71906712</v>
+        <v>-12507634.46124046</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="K186" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="C187" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="D187" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="F187" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-12120825.71906712</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="C188" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="D188" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="E188" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="F188" t="n">
-        <v>15000</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-12105825.71906712</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="C189" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="D189" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="F189" t="n">
-        <v>9642.7204</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-12105825.71906712</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="C190" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="D190" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="E190" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-12095825.71906712</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>3.976</v>
-      </c>
-      <c r="C191" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="D191" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E191" t="n">
-        <v>3.976</v>
-      </c>
-      <c r="F191" t="n">
-        <v>45096.0638</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-12050729.65526712</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="D192" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="E192" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="F192" t="n">
-        <v>4903.9362</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-12050729.65526712</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>3.981</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="D193" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3.981</v>
-      </c>
-      <c r="F193" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-12010729.65526712</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="D194" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="F194" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-12010729.65526712</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="D195" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="E195" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="F195" t="n">
-        <v>11800</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-11998929.65526712</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="D196" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="E196" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="F196" t="n">
-        <v>68200</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-11930729.65526712</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>3.992</v>
-      </c>
-      <c r="C197" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="D197" t="n">
-        <v>3.992</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2207523.25</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-14138252.90526712</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="C198" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="D198" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="F198" t="n">
-        <v>1280</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-14136972.90526712</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1.010020366598778</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="C199" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="D199" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="E199" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2406.2392</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-14136972.90526712</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="C200" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="D200" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="F200" t="n">
-        <v>540000</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-13596972.90526712</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="C201" t="n">
-        <v>4</v>
-      </c>
-      <c r="D201" t="n">
-        <v>4</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="F201" t="n">
-        <v>182225.1521</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-13414747.75316712</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="C202" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="D202" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="E202" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="F202" t="n">
-        <v>40232.1885</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-13454979.94166712</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="C203" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="D203" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="E203" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-13453729.94166712</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="C204" t="n">
-        <v>4.018</v>
-      </c>
-      <c r="D204" t="n">
-        <v>4.018</v>
-      </c>
-      <c r="E204" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="F204" t="n">
-        <v>12222.9285</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-13441507.01316712</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>4.018</v>
-      </c>
-      <c r="C205" t="n">
-        <v>4.024</v>
-      </c>
-      <c r="D205" t="n">
-        <v>4.024</v>
-      </c>
-      <c r="E205" t="n">
-        <v>4.018</v>
-      </c>
-      <c r="F205" t="n">
-        <v>260000</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-13181507.01316712</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>4.024</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D206" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E206" t="n">
-        <v>4.024</v>
-      </c>
-      <c r="F206" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-13168507.01316712</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="D207" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="E207" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F207" t="n">
-        <v>12694.6876</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-13168507.01316712</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>4.055</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4.055</v>
-      </c>
-      <c r="D208" t="n">
-        <v>4.055</v>
-      </c>
-      <c r="E208" t="n">
-        <v>4.055</v>
-      </c>
-      <c r="F208" t="n">
-        <v>287195.8918</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-12881311.12136712</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C209" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="D209" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="E209" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F209" t="n">
-        <v>26940</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-12908251.12136712</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="C210" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="D210" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="E210" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="F210" t="n">
-        <v>13460</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-12894791.12136712</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="C211" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="D211" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="E211" t="n">
-        <v>4.037</v>
-      </c>
-      <c r="F211" t="n">
-        <v>12244.0092</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-12894791.12136712</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="C212" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="D212" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="E212" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="F212" t="n">
-        <v>33080</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-12927871.12136712</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>3.998</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.998</v>
-      </c>
-      <c r="D213" t="n">
-        <v>3.998</v>
-      </c>
-      <c r="E213" t="n">
-        <v>3.998</v>
-      </c>
-      <c r="F213" t="n">
-        <v>280747.2842</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-13208618.40556712</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="D214" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="E214" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="F214" t="n">
-        <v>224279.9438</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-12984338.46176712</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="C215" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="D215" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="E215" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="F215" t="n">
-        <v>1247.504990019</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-12984338.46176712</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="C216" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="D216" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="E216" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="F216" t="n">
-        <v>300868.380409981</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-12984338.46176712</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="C217" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="D217" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="E217" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="F217" t="n">
-        <v>287320.8918</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-13271659.35356712</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="C218" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="D218" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="E218" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="F218" t="n">
-        <v>127</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-13271532.35356712</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>4.016</v>
-      </c>
-      <c r="C219" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="D219" t="n">
-        <v>4.016</v>
-      </c>
-      <c r="E219" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="F219" t="n">
-        <v>73100</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-13344632.35356712</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>4.018</v>
-      </c>
-      <c r="C220" t="n">
-        <v>4.019</v>
-      </c>
-      <c r="D220" t="n">
-        <v>4.019</v>
-      </c>
-      <c r="E220" t="n">
-        <v>4.018</v>
-      </c>
-      <c r="F220" t="n">
-        <v>60000</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-13284632.35356712</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>4.019</v>
-      </c>
-      <c r="C221" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="D221" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="E221" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="F221" t="n">
-        <v>176817.0685</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-13461449.42206712</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4.023</v>
-      </c>
-      <c r="D222" t="n">
-        <v>4.023</v>
-      </c>
-      <c r="E222" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="F222" t="n">
-        <v>35633.8139</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-13425815.60816712</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>4.013</v>
-      </c>
-      <c r="C223" t="n">
-        <v>4.023</v>
-      </c>
-      <c r="D223" t="n">
-        <v>4.023</v>
-      </c>
-      <c r="E223" t="n">
-        <v>4.013</v>
-      </c>
-      <c r="F223" t="n">
-        <v>11036.1861</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-13425815.60816712</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.024</v>
-      </c>
-      <c r="C224" t="n">
-        <v>4.026</v>
-      </c>
-      <c r="D224" t="n">
-        <v>4.026</v>
-      </c>
-      <c r="E224" t="n">
-        <v>4.024</v>
-      </c>
-      <c r="F224" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-13395815.60816712</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="C225" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="D225" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="E225" t="n">
-        <v>4.027</v>
-      </c>
-      <c r="F225" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-13385815.60816712</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>4.028</v>
-      </c>
-      <c r="C226" t="n">
-        <v>4.028</v>
-      </c>
-      <c r="D226" t="n">
-        <v>4.028</v>
-      </c>
-      <c r="E226" t="n">
-        <v>4.028</v>
-      </c>
-      <c r="F226" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-13375815.60816712</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>4.029</v>
-      </c>
-      <c r="C227" t="n">
-        <v>4.029</v>
-      </c>
-      <c r="D227" t="n">
-        <v>4.029</v>
-      </c>
-      <c r="E227" t="n">
-        <v>4.029</v>
-      </c>
-      <c r="F227" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-13365815.60816712</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="C228" t="n">
-        <v>4.058</v>
-      </c>
-      <c r="D228" t="n">
-        <v>4.058</v>
-      </c>
-      <c r="E228" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F228" t="n">
-        <v>858181.146926663</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-12507634.46124046</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N257"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-2614046.417367601</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-2740778.522267601</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-2616816.262267601</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-3060302.870367601</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-3430649.262267601</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-4632062.0640676</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-4631180.1078676</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-4636439.7531676</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-4645695.2434676</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-7186157.748867599</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,24 +1837,15 @@
         <v>-7703670.941767599</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.814</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2010,24 +1870,19 @@
         <v>-7703670.941767599</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="J45" t="n">
         <v>3.81</v>
       </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2052,24 +1907,23 @@
         <v>-7702540.941767599</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="J46" t="n">
         <v>3.81</v>
       </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2094,24 +1948,23 @@
         <v>-7632166.7666676</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3.853</v>
       </c>
       <c r="J47" t="n">
-        <v>3.853</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2136,24 +1989,23 @@
         <v>-7632166.7666676</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3.858</v>
       </c>
       <c r="J48" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2178,24 +2030,23 @@
         <v>-7593386.7666676</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>3.858</v>
       </c>
       <c r="J49" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2220,24 +2071,23 @@
         <v>-7511386.7666676</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="J50" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2262,22 +2112,23 @@
         <v>-7511514.7666676</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>3.922</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2304,20 +2155,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2342,22 +2192,23 @@
         <v>-8101372.7010676</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>3.88</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,20 +2235,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2424,20 +2274,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2462,24 +2311,21 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>3.805</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2504,24 +2350,21 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2546,24 +2389,21 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>3.858</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2590,20 +2430,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2630,20 +2469,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2670,20 +2508,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2710,20 +2547,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2750,20 +2586,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2790,20 +2625,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2830,20 +2664,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2870,20 +2703,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2910,20 +2742,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2950,20 +2781,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2990,20 +2820,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3030,20 +2859,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3070,20 +2898,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3110,20 +2937,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3150,20 +2976,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3188,24 +3013,21 @@
         <v>-10615828.65230771</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3230,24 +3052,21 @@
         <v>-10744593.51290771</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3272,24 +3091,21 @@
         <v>-10744464.51290771</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>3.892</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3314,24 +3130,21 @@
         <v>-10686726.56100771</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3356,24 +3169,23 @@
         <v>-10455246.80830771</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>3.908</v>
       </c>
       <c r="J78" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3400,20 +3212,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3438,24 +3249,21 @@
         <v>-9732479.382890984</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3482,20 +3290,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3520,24 +3327,21 @@
         <v>-9610974.454502564</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3564,20 +3368,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3604,20 +3407,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3644,20 +3446,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3684,20 +3485,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3724,20 +3524,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3764,20 +3563,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3804,20 +3602,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3844,20 +3641,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3884,20 +3680,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3922,24 +3717,21 @@
         <v>-9760333.188102566</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>3.978</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3964,24 +3756,21 @@
         <v>-9749059.289102565</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>3.942</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4006,24 +3795,21 @@
         <v>-9908311.938102566</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4048,24 +3834,21 @@
         <v>-9885496.065202566</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>3.932</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4090,24 +3873,21 @@
         <v>-10938991.25930257</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>3.942</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4132,22 +3912,21 @@
         <v>-10938864.25930257</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4174,20 +3953,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4214,20 +3992,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4254,20 +4031,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4294,20 +4070,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4334,20 +4109,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4372,22 +4146,23 @@
         <v>-12852103.36940257</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+        <v>3.937</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4414,20 +4189,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4454,20 +4228,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4492,24 +4265,21 @@
         <v>-12880555.74550257</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4534,24 +4304,21 @@
         <v>-12854197.94966712</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>3.893</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4576,24 +4343,21 @@
         <v>-12854325.94966712</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>3.938</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4620,22 +4384,19 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4660,24 +4421,21 @@
         <v>-12856144.65446712</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4702,24 +4460,21 @@
         <v>-12862606.52536712</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4744,24 +4499,21 @@
         <v>-12854296.52536712</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4788,22 +4540,19 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>3.904</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4828,24 +4577,21 @@
         <v>-12866462.64306712</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>3.894</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4870,24 +4616,21 @@
         <v>-12889278.51596712</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4912,24 +4655,21 @@
         <v>-12866462.64296712</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4956,20 +4696,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4996,20 +4735,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5036,20 +4774,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5076,20 +4813,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5116,20 +4852,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5156,20 +4891,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5196,20 +4930,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5236,20 +4969,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5274,22 +5006,21 @@
         <v>-13093799.30146712</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5316,20 +5047,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5354,22 +5084,21 @@
         <v>-13124330.41766712</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5394,22 +5123,21 @@
         <v>-13125264.69096712</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5434,22 +5162,21 @@
         <v>-13125136.69096712</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5476,20 +5203,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5516,20 +5242,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5556,20 +5281,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5596,20 +5320,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5636,20 +5359,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5676,20 +5398,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5716,20 +5437,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5756,20 +5476,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5796,20 +5515,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5836,20 +5554,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5876,20 +5593,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5916,20 +5632,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5956,20 +5671,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5996,20 +5710,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6036,20 +5749,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6076,20 +5788,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6116,20 +5827,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6156,20 +5866,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6196,20 +5905,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6236,20 +5944,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6276,20 +5983,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6316,20 +6022,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6356,20 +6061,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6394,22 +6098,21 @@
         <v>-13217592.36766712</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6436,20 +6139,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6476,20 +6178,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6516,20 +6217,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6556,20 +6256,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6594,22 +6293,21 @@
         <v>-13285465.18726712</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6634,24 +6332,21 @@
         <v>-13285337.18726712</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6678,20 +6373,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6718,20 +6412,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6758,20 +6451,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6798,20 +6490,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6838,20 +6529,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6878,20 +6568,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6918,20 +6607,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6958,20 +6646,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6998,20 +6685,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7038,20 +6724,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7078,20 +6763,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7118,20 +6802,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7156,24 +6839,21 @@
         <v>-12710587.10646712</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7198,24 +6878,21 @@
         <v>-12721587.10646712</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7240,24 +6917,21 @@
         <v>-12309583.03406712</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7282,22 +6956,23 @@
         <v>-12309713.03406712</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+        <v>3.988</v>
+      </c>
+      <c r="J175" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7324,20 +6999,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7364,20 +7038,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7404,20 +7077,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7444,20 +7116,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7484,20 +7155,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7524,20 +7194,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7564,20 +7233,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7604,20 +7272,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7644,20 +7311,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7684,20 +7350,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7722,24 +7387,21 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7766,20 +7428,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7806,20 +7467,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7846,20 +7506,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7886,20 +7545,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7926,20 +7584,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7966,20 +7623,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8006,20 +7662,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8046,20 +7701,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8086,20 +7740,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8126,20 +7779,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8166,20 +7818,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8206,20 +7857,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8246,20 +7896,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8286,20 +7935,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8326,20 +7974,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8366,20 +8013,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8406,20 +8052,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8446,20 +8091,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8486,20 +8130,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8526,20 +8169,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8566,20 +8208,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8606,20 +8247,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8646,20 +8286,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8686,20 +8325,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8724,22 +8362,21 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8764,24 +8401,21 @@
         <v>-12137448.21906712</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8808,20 +8442,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8846,24 +8479,21 @@
         <v>-12137725.71906712</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>3.81</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8890,20 +8520,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8930,20 +8559,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8970,20 +8598,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9010,20 +8637,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9050,20 +8676,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9090,20 +8715,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9130,20 +8754,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9170,20 +8793,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9210,20 +8832,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9248,22 +8869,21 @@
         <v>-11998929.65526712</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1.041194225721785</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9288,22 +8908,15 @@
         <v>-11930729.65526712</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9328,24 +8941,15 @@
         <v>-14138252.90526712</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>3.993</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9370,22 +8974,15 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9410,22 +9007,15 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9450,22 +9040,15 @@
         <v>-13596972.90526712</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9490,22 +9073,15 @@
         <v>-13414747.75316712</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9530,22 +9106,15 @@
         <v>-13454979.94166712</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9570,22 +9139,15 @@
         <v>-13453729.94166712</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9610,22 +9172,15 @@
         <v>-13441507.01316712</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9650,22 +9205,15 @@
         <v>-13181507.01316712</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9690,22 +9238,15 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9730,22 +9271,15 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9770,22 +9304,15 @@
         <v>-12881311.12136712</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9810,22 +9337,15 @@
         <v>-12908251.12136712</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9850,22 +9370,15 @@
         <v>-12894791.12136712</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9890,22 +9403,15 @@
         <v>-12894791.12136712</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9930,22 +9436,15 @@
         <v>-12927871.12136712</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9970,22 +9469,19 @@
         <v>-13208618.40556712</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>4.008</v>
+      </c>
+      <c r="J242" t="n">
+        <v>4.008</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10010,24 +9506,23 @@
         <v>-12984338.46176712</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
+        <v>3.998</v>
       </c>
       <c r="J243" t="n">
-        <v>3.998</v>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+        <v>4.008</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10052,24 +9547,21 @@
         <v>-12984338.46176712</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>4.008</v>
       </c>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10094,24 +9586,21 @@
         <v>-12984338.46176712</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
         <v>4.008</v>
       </c>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10136,24 +9625,21 @@
         <v>-13271659.35356712</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>4.008</v>
       </c>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10178,24 +9664,21 @@
         <v>-13271532.35356712</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+        <v>4.008</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10222,20 +9705,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10260,24 +9742,21 @@
         <v>-13284632.35356712</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
         <v>4.008</v>
       </c>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10304,20 +9783,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10342,24 +9820,21 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>3.985</v>
-      </c>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+        <v>4.008</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10386,20 +9861,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -10426,20 +9900,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10466,20 +9939,19 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10506,20 +9978,19 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10546,20 +10017,19 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10584,24 +10054,23 @@
         <v>-12507634.46124046</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>4.008</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1.0074750499002</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2884180.083830116</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2894050.083830116</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2892697.124630116</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2892697.124630116</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2892697.124630116</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2614046.417367601</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2638420.036467601</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2740778.522267601</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2784307.853567601</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2616816.262267601</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2616816.262267601</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3060302.870367601</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3430649.262267601</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4632062.0640676</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-4631180.1078676</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-4636439.7531676</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-4645695.2434676</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-7186157.748867599</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1870,14 +1870,10 @@
         <v>-7703670.941767599</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
@@ -1907,14 +1903,12 @@
         <v>-7702540.941767599</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>3.81</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1948,14 +1942,12 @@
         <v>-7632166.7666676</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>3.853</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1989,14 +1981,12 @@
         <v>-7632166.7666676</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>3.858</v>
       </c>
-      <c r="J48" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,14 +2020,12 @@
         <v>-7593386.7666676</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>3.858</v>
       </c>
-      <c r="J49" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2071,14 +2059,12 @@
         <v>-7511386.7666676</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>3.87</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2112,14 +2098,12 @@
         <v>-7511514.7666676</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>3.922</v>
       </c>
-      <c r="J51" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2153,12 +2137,12 @@
         <v>-7516666.7501676</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,14 +2176,10 @@
         <v>-8101372.7010676</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2236,9 +2216,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2272,12 +2250,12 @@
         <v>-7965628.9243676</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3.805</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2311,12 +2289,12 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.805</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2350,12 +2328,12 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2389,12 +2367,12 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2428,12 +2406,12 @@
         <v>-7908910.1218676</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2467,12 +2445,12 @@
         <v>-7886629.317136517</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2506,12 +2484,12 @@
         <v>-7886629.317136517</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2545,12 +2523,12 @@
         <v>-7886629.317136517</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2584,12 +2562,12 @@
         <v>-7888447.498936517</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,12 +2601,12 @@
         <v>-7888447.498936517</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2662,12 +2640,12 @@
         <v>-7888447.498936517</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.888</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,9 +2682,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2743,9 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2782,9 +2756,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2821,9 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,9 +2830,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2899,9 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2938,9 +2904,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2977,9 +2941,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,9 +2978,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,9 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3094,9 +3052,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3133,9 +3089,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,14 +3123,12 @@
         <v>-10455246.80830771</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>3.908</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3210,12 +3162,12 @@
         <v>-10455246.80830771</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3252,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3288,12 +3238,12 @@
         <v>-9737536.272890985</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.999</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3330,9 +3280,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3369,9 +3317,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3408,9 +3354,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3447,9 +3391,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3486,9 +3428,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3525,9 +3465,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3564,9 +3502,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3603,9 +3539,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,9 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3681,9 +3613,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3720,9 +3650,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3759,9 +3687,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,9 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3837,9 +3761,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,9 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3912,12 +3832,10 @@
         <v>-10938864.25930257</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,9 +3872,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3993,9 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4032,9 +3946,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,9 +3983,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4110,9 +4020,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,14 +4054,10 @@
         <v>-12852103.36940257</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.937</v>
-      </c>
-      <c r="J103" t="n">
-        <v>3.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4190,9 +4094,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,12 +4128,12 @@
         <v>-12865063.36940257</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.937</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4265,12 +4167,12 @@
         <v>-12880555.74550257</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4304,12 +4206,12 @@
         <v>-12854197.94966712</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.893</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4343,12 +4245,12 @@
         <v>-12854325.94966712</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4384,10 +4286,10 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="I109" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,12 +4323,12 @@
         <v>-12856144.65446712</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4463,9 +4365,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4502,9 +4402,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4538,12 +4436,10 @@
         <v>-12866590.64306712</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,12 +4473,12 @@
         <v>-12866462.64306712</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.894</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4619,9 +4515,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4655,12 +4549,12 @@
         <v>-12866462.64296712</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4694,12 +4588,12 @@
         <v>-12843745.21006712</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.936</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4736,9 +4630,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,12 +4664,12 @@
         <v>-12999893.65496712</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.895</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4814,9 +4706,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4853,9 +4743,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4892,9 +4780,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4931,9 +4817,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,9 +4854,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,10 +4890,10 @@
       <c r="H125" t="n">
         <v>1</v>
       </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="I125" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,12 +4927,12 @@
         <v>-13124458.41766712</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.906</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,10 +4968,10 @@
       <c r="H127" t="n">
         <v>1</v>
       </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="I127" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,10 +5007,10 @@
       <c r="H128" t="n">
         <v>1</v>
       </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="I128" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5164,10 +5046,10 @@
       <c r="H129" t="n">
         <v>1</v>
       </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="I129" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5201,12 +5083,12 @@
         <v>-13125009.69096712</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5243,9 +5125,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5279,12 +5159,12 @@
         <v>-13139431.29876712</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5318,12 +5198,12 @@
         <v>-13346068.53646712</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5357,12 +5237,12 @@
         <v>-13322480.90686712</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5396,12 +5276,12 @@
         <v>-13322352.90686712</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5435,12 +5315,12 @@
         <v>-13343443.86056712</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3.928</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5474,12 +5354,12 @@
         <v>-13343315.86056712</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5516,9 +5396,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5555,9 +5433,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5594,9 +5470,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5630,12 +5504,12 @@
         <v>-13581496.41526712</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.901</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5669,12 +5543,12 @@
         <v>-13581029.47976712</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3.902</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5708,12 +5582,12 @@
         <v>-13581029.47976712</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5750,9 +5624,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5786,12 +5658,12 @@
         <v>-13656520.40546712</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.904</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5828,9 +5700,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5867,9 +5737,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,9 +5774,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5942,12 +5808,12 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5981,12 +5847,12 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6023,9 +5889,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6062,9 +5926,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6098,12 +5960,10 @@
         <v>-13217592.36766712</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6140,9 +6000,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6179,9 +6037,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6218,9 +6074,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6257,9 +6111,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6293,12 +6145,10 @@
         <v>-13285465.18726712</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6332,12 +6182,12 @@
         <v>-13285337.18726712</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6371,12 +6221,12 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,9 +6263,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6452,9 +6300,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6488,12 +6334,12 @@
         <v>-12897848.04946712</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6530,9 +6376,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6569,9 +6413,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6605,12 +6447,12 @@
         <v>-12718009.65286712</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6647,9 +6489,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6686,9 +6526,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6722,12 +6560,12 @@
         <v>-12710417.10646712</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6764,9 +6602,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6803,9 +6639,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6839,12 +6673,12 @@
         <v>-12710587.10646712</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6878,12 +6712,12 @@
         <v>-12721587.10646712</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6917,12 +6751,12 @@
         <v>-12309583.03406712</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6956,14 +6790,10 @@
         <v>-12309713.03406712</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="J175" t="n">
-        <v>3.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6997,12 +6827,12 @@
         <v>-12309913.03406712</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7039,9 +6869,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7078,9 +6906,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7117,9 +6943,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,9 +6980,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7195,9 +7017,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7231,12 +7051,12 @@
         <v>-12021127.28736712</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.968</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7273,9 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7312,9 +7130,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,9 +7167,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7387,12 +7201,12 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7426,12 +7240,12 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7465,12 +7279,12 @@
         <v>-12111353.28736712</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7507,9 +7321,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7543,12 +7355,12 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,12 +7394,12 @@
         <v>-12336177.60526712</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3.959</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7624,9 +7436,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7663,9 +7473,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7702,9 +7510,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7741,9 +7547,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7780,9 +7584,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,12 +7618,12 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,12 +7657,12 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7894,12 +7696,12 @@
         <v>-12364517.60526712</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7936,9 +7738,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,12 +7772,12 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8011,12 +7811,12 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8050,12 +7850,12 @@
         <v>-12374517.60526712</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,9 +7892,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8131,9 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8170,9 +7966,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8209,9 +8003,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,9 +8040,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,12 +8074,12 @@
         <v>-12347415.15046712</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>3.948</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,9 +8116,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8362,12 +8150,10 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8401,12 +8187,12 @@
         <v>-12137448.21906712</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.81</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,9 +8229,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8482,9 +8266,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8521,9 +8303,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,9 +8340,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,9 +8377,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,9 +8414,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,9 +8451,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,9 +8488,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,9 +8525,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,9 +8562,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,9 +8599,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,19 +8633,17 @@
         <v>-11998929.65526712</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>1.041194225721785</v>
+        <v>1</v>
       </c>
       <c r="M224" t="inlineStr"/>
     </row>
@@ -8908,11 +8670,15 @@
         <v>-11930729.65526712</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8941,11 +8707,15 @@
         <v>-14138252.90526712</v>
       </c>
       <c r="H226" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8974,11 +8744,15 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H227" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9007,11 +8781,15 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9040,11 +8818,15 @@
         <v>-13596972.90526712</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9073,11 +8855,15 @@
         <v>-13414747.75316712</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +8892,15 @@
         <v>-13454979.94166712</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9139,11 +8929,15 @@
         <v>-13453729.94166712</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9172,11 +8966,15 @@
         <v>-13441507.01316712</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9205,11 +9003,17 @@
         <v>-13181507.01316712</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>4.018</v>
+      </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9238,11 +9042,17 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>4.024</v>
+      </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9271,11 +9081,15 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9304,11 +9118,17 @@
         <v>-12881311.12136712</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>4.04</v>
+      </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9337,11 +9157,15 @@
         <v>-12908251.12136712</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9370,11 +9194,15 @@
         <v>-12894791.12136712</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9403,11 +9231,15 @@
         <v>-12894791.12136712</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +9268,15 @@
         <v>-12927871.12136712</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9469,15 +9305,15 @@
         <v>-13208618.40556712</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="J242" t="n">
-        <v>4.008</v>
-      </c>
-      <c r="K242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9506,17 +9342,15 @@
         <v>-12984338.46176712</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>3.998</v>
       </c>
-      <c r="J243" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L243" t="n">
@@ -9550,9 +9384,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9589,9 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9628,9 +9458,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9664,12 +9492,12 @@
         <v>-13271532.35356712</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9706,9 +9534,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9742,12 +9568,10 @@
         <v>-13284632.35356712</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9784,9 +9608,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9820,12 +9642,12 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>3.985</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9862,9 +9684,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9901,9 +9721,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9937,12 +9755,12 @@
         <v>-13385815.60816712</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>4.026</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9976,12 +9794,12 @@
         <v>-13375815.60816712</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10018,9 +9836,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>4.008</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10054,23 +9870,23 @@
         <v>-12507634.46124046</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>4.008</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>4.029</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.0074750499002</v>
+        <v>1</v>
       </c>
       <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-2884180.083830116</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-2884050.083830116</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-2894050.083830116</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-2892697.124630116</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-2892697.124630116</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-2892697.124630116</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-2614046.417367601</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-2638420.036467601</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-2740778.522267601</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-2784307.853567601</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-2616816.262267601</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-2616816.262267601</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-3060302.870367601</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3430649.262267601</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1903,17 +1903,11 @@
         <v>-7702540.941767599</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1942,17 +1936,11 @@
         <v>-7632166.7666676</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1981,17 +1969,11 @@
         <v>-7632166.7666676</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2020,17 +2002,11 @@
         <v>-7593386.7666676</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2059,17 +2035,11 @@
         <v>-7511386.7666676</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2098,17 +2068,11 @@
         <v>-7511514.7666676</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.922</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2137,17 +2101,11 @@
         <v>-7516666.7501676</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2180,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2217,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2250,17 +2200,11 @@
         <v>-7965628.9243676</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2289,17 +2233,11 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.805</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2328,17 +2266,11 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2367,17 +2299,11 @@
         <v>-7960473.4046676</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2406,17 +2332,11 @@
         <v>-7908910.1218676</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2445,17 +2365,11 @@
         <v>-7886629.317136517</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2484,17 +2398,11 @@
         <v>-7886629.317136517</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2523,17 +2431,11 @@
         <v>-7886629.317136517</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2562,17 +2464,11 @@
         <v>-7888447.498936517</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2601,17 +2497,11 @@
         <v>-7888447.498936517</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2640,17 +2530,11 @@
         <v>-7888447.498936517</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2683,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2720,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2757,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2831,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2868,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2905,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2979,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3016,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3053,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3090,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3123,17 +2959,11 @@
         <v>-10455246.80830771</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3162,17 +2992,11 @@
         <v>-10455246.80830771</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3205,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3238,17 +3058,11 @@
         <v>-9737536.272890985</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.999</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3277,15 +3091,11 @@
         <v>-9610974.454502564</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3314,15 +3124,11 @@
         <v>-9694181.373002565</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3351,15 +3157,11 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3388,15 +3190,11 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3425,15 +3223,11 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3462,15 +3256,11 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3499,15 +3289,11 @@
         <v>-9694313.484002564</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3536,15 +3322,11 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3573,15 +3355,11 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3610,15 +3388,11 @@
         <v>-9725359.289502565</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3647,15 +3421,11 @@
         <v>-9760333.188102566</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3684,15 +3454,11 @@
         <v>-9749059.289102565</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3721,15 +3487,11 @@
         <v>-9908311.938102566</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3758,15 +3520,11 @@
         <v>-9885496.065202566</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3795,15 +3553,11 @@
         <v>-10938991.25930257</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3832,15 +3586,11 @@
         <v>-10938864.25930257</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3869,15 +3619,11 @@
         <v>-11982979.69200257</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3906,15 +3652,11 @@
         <v>-12032730.01430257</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4021,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4128,17 +3850,11 @@
         <v>-12865063.36940257</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.937</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4167,17 +3883,11 @@
         <v>-12880555.74550257</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4206,17 +3916,11 @@
         <v>-12854197.94966712</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.893</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4245,17 +3949,11 @@
         <v>-12854325.94966712</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.938</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4284,17 +3982,11 @@
         <v>-12856271.65446712</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4323,17 +4015,11 @@
         <v>-12856144.65446712</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4366,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4403,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4440,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4473,17 +4147,11 @@
         <v>-12866462.64306712</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.894</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4549,17 +4213,11 @@
         <v>-12866462.64296712</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4588,17 +4246,11 @@
         <v>-12843745.21006712</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4631,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4664,17 +4312,11 @@
         <v>-12999893.65496712</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4707,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4781,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4818,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4855,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4888,17 +4510,11 @@
         <v>-13093799.30146712</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4927,17 +4543,11 @@
         <v>-13124458.41766712</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4966,17 +4576,11 @@
         <v>-13124330.41766712</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5005,17 +4609,11 @@
         <v>-13125264.69096712</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5044,17 +4642,11 @@
         <v>-13125136.69096712</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.896</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5083,17 +4675,11 @@
         <v>-13125009.69096712</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3.925</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5126,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5159,17 +4741,11 @@
         <v>-13139431.29876712</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.93</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5203,12 +4779,10 @@
       <c r="I133" t="n">
         <v>3.908</v>
       </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5242,10 +4816,12 @@
       <c r="I134" t="n">
         <v>3.902</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>3.908</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -5281,10 +4857,12 @@
       <c r="I135" t="n">
         <v>3.908</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>3.908</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -5315,17 +4893,11 @@
         <v>-13343443.86056712</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5359,12 +4931,10 @@
       <c r="I137" t="n">
         <v>3.915</v>
       </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5396,10 +4966,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5433,10 +5005,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5470,7 +5044,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5509,7 +5085,9 @@
       <c r="I141" t="n">
         <v>3.901</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5548,7 +5126,9 @@
       <c r="I142" t="n">
         <v>3.902</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5587,7 +5167,9 @@
       <c r="I143" t="n">
         <v>3.905</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5621,10 +5203,14 @@
         <v>-13656648.40546712</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3.905</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5663,7 +5249,9 @@
       <c r="I145" t="n">
         <v>3.904</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5700,7 +5288,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5734,10 +5324,14 @@
         <v>-13656558.51816712</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.907</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5771,10 +5365,14 @@
         <v>-13656558.51816712</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5813,7 +5411,9 @@
       <c r="I149" t="n">
         <v>3.927</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5847,12 +5447,12 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5889,7 +5489,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5926,7 +5528,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,7 +5567,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6000,7 +5606,9 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6034,10 +5642,14 @@
         <v>-13276593.25326712</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J155" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,10 +5683,14 @@
         <v>-13276463.25326712</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="J156" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,7 +5727,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6148,7 +5766,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6187,7 +5807,9 @@
       <c r="I159" t="n">
         <v>3.925</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6221,12 +5843,12 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6263,7 +5885,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6300,7 +5924,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6334,12 +5960,12 @@
         <v>-12897848.04946712</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6376,7 +6002,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6413,7 +6041,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6447,12 +6077,12 @@
         <v>-12718009.65286712</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6489,7 +6119,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,7 +6158,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6560,12 +6194,12 @@
         <v>-12710417.10646712</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.981</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6602,7 +6236,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6639,7 +6275,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6678,7 +6316,9 @@
       <c r="I172" t="n">
         <v>3.951</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,12 +6352,12 @@
         <v>-12721587.10646712</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6751,12 +6391,12 @@
         <v>-12309583.03406712</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6793,7 +6433,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6827,12 +6469,12 @@
         <v>-12309913.03406712</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6866,10 +6508,14 @@
         <v>-11958182.47426712</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.948</v>
+      </c>
+      <c r="J177" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6906,7 +6552,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6940,17 +6588,19 @@
         <v>-11953586.36066712</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.915</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1</v>
+        <v>1.015945083014049</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -6977,15 +6627,11 @@
         <v>-11994374.46916712</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7014,15 +6660,11 @@
         <v>-12022945.46916712</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7051,17 +6693,11 @@
         <v>-12021127.28736712</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.968</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7090,15 +6726,11 @@
         <v>-12121127.28736712</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7127,15 +6759,11 @@
         <v>-12140927.28736712</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7164,15 +6792,11 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7201,17 +6825,11 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.965</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7240,17 +6858,11 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.965</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7279,17 +6891,11 @@
         <v>-12111353.28736712</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.965</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7318,15 +6924,11 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7355,17 +6957,11 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.959</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7394,17 +6990,11 @@
         <v>-12336177.60526712</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.959</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7433,15 +7023,11 @@
         <v>-12346177.60526712</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7470,15 +7056,11 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7507,15 +7089,11 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7544,15 +7122,11 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7581,15 +7155,11 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7618,17 +7188,11 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7657,17 +7221,11 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7701,12 +7259,10 @@
       <c r="I199" t="n">
         <v>3.97</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7735,13 +7291,17 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3.977</v>
+      </c>
+      <c r="J200" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7777,7 +7337,9 @@
       <c r="I201" t="n">
         <v>3.967</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7816,7 +7378,9 @@
       <c r="I202" t="n">
         <v>3.967</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7855,7 +7419,9 @@
       <c r="I203" t="n">
         <v>3.967</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7889,10 +7455,14 @@
         <v>-12354517.60526712</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="J204" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7926,10 +7496,14 @@
         <v>-12324229.15046712</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7963,10 +7537,14 @@
         <v>-12324355.15046712</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="J206" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8000,10 +7578,14 @@
         <v>-12374355.15046712</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J207" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8037,10 +7619,14 @@
         <v>-12384355.15046712</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J208" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,7 +7665,9 @@
       <c r="I209" t="n">
         <v>3.948</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8113,10 +7701,14 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J210" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8150,10 +7742,14 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J211" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,7 +7788,9 @@
       <c r="I212" t="n">
         <v>3.97</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8226,10 +7824,14 @@
         <v>-12137725.71906712</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8263,10 +7865,14 @@
         <v>-12137725.71906712</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="J214" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8300,10 +7906,14 @@
         <v>-12133825.71906712</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>3.958</v>
+      </c>
+      <c r="J215" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8337,10 +7947,14 @@
         <v>-12120825.71906712</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>3.971</v>
+      </c>
+      <c r="J216" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8374,10 +7988,14 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>3.972</v>
+      </c>
+      <c r="J217" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8411,10 +8029,14 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J218" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,10 +8070,14 @@
         <v>-12095825.71906712</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="J219" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8485,10 +8111,14 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="J220" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8522,10 +8152,14 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8559,10 +8193,14 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="J222" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8596,10 +8234,14 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="J223" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8633,10 +8275,14 @@
         <v>-11998929.65526712</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>3.984</v>
+      </c>
+      <c r="J224" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8670,10 +8316,14 @@
         <v>-11930729.65526712</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>3.986</v>
+      </c>
+      <c r="J225" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8707,10 +8357,14 @@
         <v>-14138252.90526712</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>3.993</v>
+      </c>
+      <c r="J226" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8744,17 +8398,19 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.97</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1</v>
+        <v>0.9992821158690176</v>
       </c>
       <c r="M227" t="inlineStr"/>
     </row>
@@ -8781,15 +8437,15 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="J228" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8818,13 +8474,17 @@
         <v>-13596972.90526712</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="J229" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L229" t="n">
@@ -8855,10 +8515,14 @@
         <v>-13414747.75316712</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3.997</v>
+      </c>
+      <c r="J230" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8892,10 +8556,14 @@
         <v>-13454979.94166712</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>4</v>
+      </c>
+      <c r="J231" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8929,10 +8597,14 @@
         <v>-13453729.94166712</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>3.995</v>
+      </c>
+      <c r="J232" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8966,10 +8638,14 @@
         <v>-13441507.01316712</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>4.009</v>
+      </c>
+      <c r="J233" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9003,12 +8679,12 @@
         <v>-13181507.01316712</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>4.018</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9042,12 +8718,12 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>4.024</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9084,7 +8760,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9118,12 +8796,12 @@
         <v>-12881311.12136712</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9157,10 +8835,12 @@
         <v>-12908251.12136712</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9194,10 +8874,12 @@
         <v>-12894791.12136712</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9231,17 +8913,19 @@
         <v>-12894791.12136712</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.987</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L240" t="n">
-        <v>1</v>
+        <v>1.007540757461751</v>
       </c>
       <c r="M240" t="inlineStr"/>
     </row>
@@ -9268,15 +8952,11 @@
         <v>-12927871.12136712</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9309,11 +8989,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9342,17 +9018,11 @@
         <v>-12984338.46176712</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3.998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9385,11 +9055,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9422,11 +9088,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9459,11 +9121,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9492,17 +9150,11 @@
         <v>-13271532.35356712</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3.985</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9531,15 +9183,11 @@
         <v>-13344632.35356712</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9568,15 +9216,11 @@
         <v>-13284632.35356712</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9605,15 +9249,11 @@
         <v>-13461449.42206712</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9642,17 +9282,11 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>3.985</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9681,15 +9315,11 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9718,15 +9348,11 @@
         <v>-13395815.60816712</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9755,17 +9381,11 @@
         <v>-13385815.60816712</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>4.026</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9794,17 +9414,11 @@
         <v>-13375815.60816712</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>4.027</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9833,15 +9447,11 @@
         <v>-13365815.60816712</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9870,23 +9480,17 @@
         <v>-12507634.46124046</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>4.029</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
       <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -3058,7 +3058,7 @@
         <v>-9737536.272890985</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-9610974.454502564</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-9694181.373002565</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-9694053.373002565</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-9694313.484002564</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-9684173.484002564</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-9725359.289502565</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-9760333.188102566</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-9749059.289102565</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-9908311.938102566</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-9885496.065202566</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-10938991.25930257</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-10938864.25930257</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-11982979.69200257</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-12032730.01430257</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4576,10 +4576,14 @@
         <v>-13124330.41766712</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.896</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4612,8 +4616,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4652,19 @@
         <v>-13125136.69096712</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,10 +4693,14 @@
         <v>-13125009.69096712</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.925</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
@@ -4711,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,14 +4808,10 @@
         <v>-13346068.53646712</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="J133" t="n">
-        <v>3.908</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
@@ -4811,19 +4841,11 @@
         <v>-13322480.90686712</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="J134" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +4882,7 @@
       <c r="J135" t="n">
         <v>3.908</v>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4896,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.908</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4926,15 +4950,17 @@
         <v>-13343315.86056712</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>3.915</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>3.908</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4966,14 +4992,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>3.915</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5005,14 +5025,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>3.915</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5041,15 +5055,15 @@
         <v>-13581663.52796712</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3.909</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L140" t="n">
@@ -5085,9 +5099,7 @@
       <c r="I141" t="n">
         <v>3.901</v>
       </c>
-      <c r="J141" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5126,9 +5138,7 @@
       <c r="I142" t="n">
         <v>3.902</v>
       </c>
-      <c r="J142" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5167,9 +5177,7 @@
       <c r="I143" t="n">
         <v>3.905</v>
       </c>
-      <c r="J143" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,9 +5216,7 @@
       <c r="I144" t="n">
         <v>3.905</v>
       </c>
-      <c r="J144" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5249,9 +5255,7 @@
       <c r="I145" t="n">
         <v>3.904</v>
       </c>
-      <c r="J145" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5285,12 +5289,12 @@
         <v>-13656687.51816712</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5329,9 +5333,7 @@
       <c r="I147" t="n">
         <v>3.907</v>
       </c>
-      <c r="J147" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5370,9 +5372,7 @@
       <c r="I148" t="n">
         <v>3.927</v>
       </c>
-      <c r="J148" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5411,9 +5411,7 @@
       <c r="I149" t="n">
         <v>3.927</v>
       </c>
-      <c r="J149" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5447,12 +5445,12 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5486,12 +5484,12 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5525,12 +5523,12 @@
         <v>-13172480.36766712</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5564,12 +5562,12 @@
         <v>-13217592.36766712</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5603,12 +5601,12 @@
         <v>-13267593.25326712</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5647,9 +5645,7 @@
       <c r="I155" t="n">
         <v>3.925</v>
       </c>
-      <c r="J155" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5688,9 +5684,7 @@
       <c r="I156" t="n">
         <v>3.915</v>
       </c>
-      <c r="J156" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5724,12 +5718,12 @@
         <v>-13276463.25326712</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5763,12 +5757,12 @@
         <v>-13285465.18726712</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5807,9 +5801,7 @@
       <c r="I159" t="n">
         <v>3.925</v>
       </c>
-      <c r="J159" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5843,12 +5835,12 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.964</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5882,12 +5874,12 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5921,12 +5913,12 @@
         <v>-12972379.79206712</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5960,12 +5952,12 @@
         <v>-12897848.04946712</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5999,12 +5991,12 @@
         <v>-12717051.65286712</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6038,12 +6030,12 @@
         <v>-12717881.65286712</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6077,12 +6069,12 @@
         <v>-12718009.65286712</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3.965</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6116,12 +6108,12 @@
         <v>-12717717.10646712</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>3.948</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6155,12 +6147,12 @@
         <v>-12715417.10646712</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,12 +6186,12 @@
         <v>-12710417.10646712</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6233,12 +6225,12 @@
         <v>-12710717.10646712</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.986</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6272,12 +6264,12 @@
         <v>-12710717.10646712</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,9 +6308,7 @@
       <c r="I172" t="n">
         <v>3.951</v>
       </c>
-      <c r="J172" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6352,12 +6342,12 @@
         <v>-12721587.10646712</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6391,12 +6381,12 @@
         <v>-12309583.03406712</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.951</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6430,12 +6420,12 @@
         <v>-12309713.03406712</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6469,12 +6459,12 @@
         <v>-12309913.03406712</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6513,9 +6503,7 @@
       <c r="I177" t="n">
         <v>3.948</v>
       </c>
-      <c r="J177" t="n">
-        <v>3.915</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6549,12 +6537,12 @@
         <v>-11953182.47426712</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6588,19 +6576,19 @@
         <v>-11953586.36066712</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.915</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.015945083014049</v>
+        <v>1</v>
       </c>
       <c r="M179" t="inlineStr"/>
     </row>
@@ -6627,11 +6615,17 @@
         <v>-11994374.46916712</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.997</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +6654,17 @@
         <v>-12022945.46916712</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +6693,17 @@
         <v>-12021127.28736712</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>3.968</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6732,17 @@
         <v>-12121127.28736712</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.997</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6771,17 @@
         <v>-12140927.28736712</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>3.996</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6810,17 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.948</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +6849,17 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6888,17 @@
         <v>-12112587.28736712</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +6927,17 @@
         <v>-12111353.28736712</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>3.965</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +6966,17 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>3.987</v>
+      </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +7005,17 @@
         <v>-12342869.28736712</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>3.959</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6990,11 +7044,17 @@
         <v>-12336177.60526712</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>3.959</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +7083,17 @@
         <v>-12346177.60526712</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3.995</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +7122,17 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7089,11 +7161,17 @@
         <v>-12354643.60526712</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3.971</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7122,11 +7200,17 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3.971</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +7239,17 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7188,11 +7278,17 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7221,11 +7317,17 @@
         <v>-12364643.60526712</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>3.97</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7259,10 +7361,12 @@
       <c r="I199" t="n">
         <v>3.97</v>
       </c>
-      <c r="J199" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7291,17 +7395,13 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.977</v>
-      </c>
-      <c r="J200" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L200" t="n">
@@ -7337,9 +7437,7 @@
       <c r="I201" t="n">
         <v>3.967</v>
       </c>
-      <c r="J201" t="n">
-        <v>3.97</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7373,14 +7471,10 @@
         <v>-12394517.60526712</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.967</v>
-      </c>
-      <c r="J202" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7414,14 +7508,10 @@
         <v>-12374517.60526712</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>3.967</v>
-      </c>
-      <c r="J203" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7455,14 +7545,10 @@
         <v>-12354517.60526712</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>3.969</v>
-      </c>
-      <c r="J204" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7496,14 +7582,10 @@
         <v>-12324229.15046712</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="J205" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,14 +7619,10 @@
         <v>-12324355.15046712</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="J206" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7578,14 +7656,10 @@
         <v>-12374355.15046712</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J207" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,14 +7693,10 @@
         <v>-12384355.15046712</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="J208" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,9 +7735,7 @@
       <c r="I209" t="n">
         <v>3.948</v>
       </c>
-      <c r="J209" t="n">
-        <v>3.97</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7701,14 +7769,10 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="J210" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7742,14 +7806,10 @@
         <v>-12152000.27296712</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J211" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7788,9 +7848,7 @@
       <c r="I212" t="n">
         <v>3.97</v>
       </c>
-      <c r="J212" t="n">
-        <v>3.97</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7829,9 +7887,7 @@
       <c r="I213" t="n">
         <v>3.972</v>
       </c>
-      <c r="J213" t="n">
-        <v>3.97</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,14 +7921,10 @@
         <v>-12137725.71906712</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="J214" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7906,14 +7958,10 @@
         <v>-12133825.71906712</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>3.958</v>
-      </c>
-      <c r="J215" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7947,14 +7995,10 @@
         <v>-12120825.71906712</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="J216" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7988,14 +8032,10 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="J217" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8029,14 +8069,10 @@
         <v>-12105825.71906712</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J218" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8070,14 +8106,10 @@
         <v>-12095825.71906712</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>3.974</v>
-      </c>
-      <c r="J219" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8111,14 +8143,10 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>3.975</v>
-      </c>
-      <c r="J220" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8152,14 +8180,10 @@
         <v>-12050729.65526712</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="J221" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8193,14 +8217,10 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="J222" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,14 +8254,10 @@
         <v>-12010729.65526712</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="J223" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8275,14 +8291,10 @@
         <v>-11998929.65526712</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>3.984</v>
-      </c>
-      <c r="J224" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8316,14 +8328,10 @@
         <v>-11930729.65526712</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="J225" t="n">
-        <v>3.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8357,22 +8365,16 @@
         <v>-14138252.90526712</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>3.993</v>
-      </c>
-      <c r="J226" t="n">
-        <v>3.97</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
@@ -8401,16 +8403,10 @@
         <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
-        <v>0.9992821158690176</v>
+        <v>1</v>
       </c>
       <c r="M227" t="inlineStr"/>
     </row>
@@ -8437,14 +8433,10 @@
         <v>-14136972.90526712</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="J228" t="n">
-        <v>3.987</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
@@ -8474,19 +8466,11 @@
         <v>-13596972.90526712</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="J229" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8515,19 +8499,11 @@
         <v>-13414747.75316712</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="J230" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8556,19 +8532,11 @@
         <v>-13454979.94166712</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>4</v>
-      </c>
-      <c r="J231" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8597,19 +8565,11 @@
         <v>-13453729.94166712</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="J232" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8638,19 +8598,11 @@
         <v>-13441507.01316712</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>4.009</v>
-      </c>
-      <c r="J233" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8679,17 +8631,11 @@
         <v>-13181507.01316712</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8718,17 +8664,11 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8757,17 +8697,11 @@
         <v>-13168507.01316712</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8799,14 +8733,8 @@
         <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8838,14 +8766,8 @@
         <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8877,14 +8799,8 @@
         <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8916,16 +8832,10 @@
         <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
-        <v>1.007540757461751</v>
+        <v>1</v>
       </c>
       <c r="M240" t="inlineStr"/>
     </row>
@@ -9150,7 +9060,7 @@
         <v>-13271532.35356712</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9183,7 +9093,7 @@
         <v>-13344632.35356712</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9216,7 +9126,7 @@
         <v>-13284632.35356712</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9249,7 +9159,7 @@
         <v>-13461449.42206712</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9282,7 +9192,7 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9315,7 +9225,7 @@
         <v>-13425815.60816712</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9348,7 +9258,7 @@
         <v>-13395815.60816712</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9480,7 +9390,7 @@
         <v>-12507634.46124046</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>

--- a/BackTest/2020-01-12 BackTest PLY.xlsx
+++ b/BackTest/2020-01-12 BackTest PLY.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>96877.6857</v>
       </c>
       <c r="G2" t="n">
-        <v>-2884180.083830116</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>130</v>
       </c>
       <c r="G3" t="n">
-        <v>-2884050.083830116</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>38760.193</v>
       </c>
       <c r="G4" t="n">
-        <v>-2884050.083830116</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>100000</v>
       </c>
       <c r="G5" t="n">
-        <v>-2884050.083830116</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>137091.0463</v>
       </c>
       <c r="G6" t="n">
-        <v>-2884050.083830116</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>53278.7456</v>
       </c>
       <c r="G7" t="n">
-        <v>-2884050.083830116</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10000</v>
       </c>
       <c r="G8" t="n">
-        <v>-2894050.083830116</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1352.9592</v>
       </c>
       <c r="G9" t="n">
-        <v>-2892697.124630116</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>14515.1356</v>
       </c>
       <c r="G10" t="n">
-        <v>-2892697.124630116</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>7630</v>
       </c>
       <c r="G11" t="n">
-        <v>-2892697.124630116</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>278650.707262515</v>
       </c>
       <c r="G12" t="n">
-        <v>-2614046.417367601</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>24373.6191</v>
       </c>
       <c r="G13" t="n">
-        <v>-2638420.036467601</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>102358.4858</v>
       </c>
       <c r="G14" t="n">
-        <v>-2740778.522267601</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>43529.3313</v>
       </c>
       <c r="G15" t="n">
-        <v>-2784307.853567601</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>167491.5913</v>
       </c>
       <c r="G16" t="n">
-        <v>-2616816.262267601</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>138726.0486</v>
       </c>
       <c r="G17" t="n">
-        <v>-2616816.262267601</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>443486.6081</v>
       </c>
       <c r="G18" t="n">
-        <v>-3060302.870367601</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>370346.3919</v>
       </c>
       <c r="G19" t="n">
-        <v>-3430649.262267601</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1201412.8018</v>
       </c>
       <c r="G20" t="n">
-        <v>-4632062.0640676</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>881.9562</v>
       </c>
       <c r="G21" t="n">
-        <v>-4631180.1078676</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>5259.6453</v>
       </c>
       <c r="G22" t="n">
-        <v>-4636439.7531676</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9255.490299999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-4645695.2434676</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>41000.924</v>
       </c>
       <c r="G24" t="n">
-        <v>-4645695.2434676</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>36055.4609</v>
       </c>
       <c r="G25" t="n">
-        <v>-4645695.2434676</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>199071.1334</v>
       </c>
       <c r="G26" t="n">
-        <v>-4645695.2434676</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>11201.8308</v>
       </c>
       <c r="G27" t="n">
-        <v>-4645695.2434676</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>748024.2793000001</v>
       </c>
       <c r="G28" t="n">
-        <v>-5393719.5227676</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>133024.7216</v>
       </c>
       <c r="G29" t="n">
-        <v>-5526744.244367599</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>78841.66929999999</v>
       </c>
       <c r="G30" t="n">
-        <v>-5526744.244367599</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>27021.6091</v>
       </c>
       <c r="G31" t="n">
-        <v>-5526744.244367599</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>54692.9209</v>
       </c>
       <c r="G32" t="n">
-        <v>-5472051.323467599</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>129371.9315</v>
       </c>
       <c r="G33" t="n">
-        <v>-5601423.254967599</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>19517.8373</v>
       </c>
       <c r="G34" t="n">
-        <v>-5601423.254967599</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1171784.3869</v>
       </c>
       <c r="G35" t="n">
-        <v>-6773207.641867599</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>389267.1031</v>
       </c>
       <c r="G36" t="n">
-        <v>-7162474.744967599</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>499344.2011</v>
       </c>
       <c r="G37" t="n">
-        <v>-7661818.9460676</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>475661.1972</v>
       </c>
       <c r="G38" t="n">
-        <v>-7186157.748867599</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>133465.1338</v>
       </c>
       <c r="G39" t="n">
-        <v>-7186157.748867599</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>17061.1917</v>
       </c>
       <c r="G40" t="n">
-        <v>-7186157.748867599</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>88077.3581</v>
       </c>
       <c r="G41" t="n">
-        <v>-7274235.106967599</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>164534.6492</v>
       </c>
       <c r="G42" t="n">
-        <v>-7274235.106967599</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>46590.5937</v>
       </c>
       <c r="G43" t="n">
-        <v>-7274235.106967599</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,21 @@
         <v>429435.8348</v>
       </c>
       <c r="G44" t="n">
-        <v>-7703670.941767599</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.814</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1739,21 @@
         <v>3943.384</v>
       </c>
       <c r="G45" t="n">
-        <v>-7703670.941767599</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1775,21 @@
         <v>1130</v>
       </c>
       <c r="G46" t="n">
-        <v>-7702540.941767599</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.81</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1811,21 @@
         <v>70374.17509999999</v>
       </c>
       <c r="G47" t="n">
-        <v>-7632166.7666676</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>3.853</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1847,21 @@
         <v>23996.7861</v>
       </c>
       <c r="G48" t="n">
-        <v>-7632166.7666676</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>3.858</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1883,21 @@
         <v>38780</v>
       </c>
       <c r="G49" t="n">
-        <v>-7593386.7666676</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>3.858</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1919,21 @@
         <v>82000</v>
       </c>
       <c r="G50" t="n">
-        <v>-7511386.7666676</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1955,21 @@
         <v>128</v>
       </c>
       <c r="G51" t="n">
-        <v>-7511514.7666676</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3.922</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1991,19 @@
         <v>5151.9835</v>
       </c>
       <c r="G52" t="n">
-        <v>-7516666.7501676</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2025,19 @@
         <v>584705.9509000001</v>
       </c>
       <c r="G53" t="n">
-        <v>-8101372.7010676</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2059,21 @@
         <v>135743.7767</v>
       </c>
       <c r="G54" t="n">
-        <v>-7965628.9243676</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3.803</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2095,21 @@
         <v>1852.9414</v>
       </c>
       <c r="G55" t="n">
-        <v>-7965628.9243676</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>3.805</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2131,21 @@
         <v>5155.5197</v>
       </c>
       <c r="G56" t="n">
-        <v>-7960473.4046676</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>3.805</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2167,19 @@
         <v>36958.2303</v>
       </c>
       <c r="G57" t="n">
-        <v>-7960473.4046676</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2201,19 @@
         <v>7567.025</v>
       </c>
       <c r="G58" t="n">
-        <v>-7960473.4046676</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2235,21 @@
         <v>51563.2828</v>
       </c>
       <c r="G59" t="n">
-        <v>-7908910.1218676</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>3.858</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2271,19 @@
         <v>22280.804731083</v>
       </c>
       <c r="G60" t="n">
-        <v>-7886629.317136517</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2305,19 @@
         <v>51125.7566</v>
       </c>
       <c r="G61" t="n">
-        <v>-7886629.317136517</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2339,19 @@
         <v>271920.1424</v>
       </c>
       <c r="G62" t="n">
-        <v>-7886629.317136517</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2373,21 @@
         <v>1818.1818</v>
       </c>
       <c r="G63" t="n">
-        <v>-7888447.498936517</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>3.912</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2409,19 @@
         <v>123349.9475</v>
       </c>
       <c r="G64" t="n">
-        <v>-7888447.498936517</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2443,19 @@
         <v>33763.5953</v>
       </c>
       <c r="G65" t="n">
-        <v>-7888447.498936517</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2477,19 @@
         <v>11662.3952</v>
       </c>
       <c r="G66" t="n">
-        <v>-7876785.103736517</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2511,19 @@
         <v>92000</v>
       </c>
       <c r="G67" t="n">
-        <v>-7968785.103736517</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2545,19 @@
         <v>129</v>
       </c>
       <c r="G68" t="n">
-        <v>-7968656.103736517</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2579,19 @@
         <v>6541.2773</v>
       </c>
       <c r="G69" t="n">
-        <v>-7968656.103736517</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2613,19 @@
         <v>2647343.3986</v>
       </c>
       <c r="G70" t="n">
-        <v>-10615999.50233652</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2647,19 @@
         <v>23047.031</v>
       </c>
       <c r="G71" t="n">
-        <v>-10615999.50233652</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2681,19 @@
         <v>3121.932128805</v>
       </c>
       <c r="G72" t="n">
-        <v>-10612877.57020771</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2715,19 @@
         <v>8159.9179</v>
       </c>
       <c r="G73" t="n">
-        <v>-10604717.65230771</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2749,19 @@
         <v>11111</v>
       </c>
       <c r="G74" t="n">
-        <v>-10615828.65230771</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2783,19 @@
         <v>128764.8606</v>
       </c>
       <c r="G75" t="n">
-        <v>-10744593.51290771</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2817,19 @@
         <v>129</v>
       </c>
       <c r="G76" t="n">
-        <v>-10744464.51290771</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2851,19 @@
         <v>57737.9519</v>
       </c>
       <c r="G77" t="n">
-        <v>-10686726.56100771</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2885,19 @@
         <v>231479.7527</v>
       </c>
       <c r="G78" t="n">
-        <v>-10455246.80830771</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2919,19 @@
         <v>112841.4842</v>
       </c>
       <c r="G79" t="n">
-        <v>-10455246.80830771</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2953,19 @@
         <v>722767.4254167289</v>
       </c>
       <c r="G80" t="n">
-        <v>-9732479.382890984</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2987,19 @@
         <v>5056.89</v>
       </c>
       <c r="G81" t="n">
-        <v>-9737536.272890985</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3021,19 @@
         <v>126561.818388421</v>
       </c>
       <c r="G82" t="n">
-        <v>-9610974.454502564</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3055,19 @@
         <v>83206.9185</v>
       </c>
       <c r="G83" t="n">
-        <v>-9694181.373002565</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3089,19 @@
         <v>128</v>
       </c>
       <c r="G84" t="n">
-        <v>-9694053.373002565</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3123,19 @@
         <v>500</v>
       </c>
       <c r="G85" t="n">
-        <v>-9694053.373002565</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3157,19 @@
         <v>77168.5545</v>
       </c>
       <c r="G86" t="n">
-        <v>-9694053.373002565</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3191,19 @@
         <v>50036.8637</v>
       </c>
       <c r="G87" t="n">
-        <v>-9694053.373002565</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3225,19 @@
         <v>260.111</v>
       </c>
       <c r="G88" t="n">
-        <v>-9694313.484002564</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3259,19 @@
         <v>10140</v>
       </c>
       <c r="G89" t="n">
-        <v>-9684173.484002564</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3293,19 @@
         <v>28749.1162</v>
       </c>
       <c r="G90" t="n">
-        <v>-9684173.484002564</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3327,19 @@
         <v>41185.8055</v>
       </c>
       <c r="G91" t="n">
-        <v>-9725359.289502565</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3361,19 @@
         <v>34973.8986</v>
       </c>
       <c r="G92" t="n">
-        <v>-9760333.188102566</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3395,19 @@
         <v>11273.899</v>
       </c>
       <c r="G93" t="n">
-        <v>-9749059.289102565</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3429,19 @@
         <v>159252.649</v>
       </c>
       <c r="G94" t="n">
-        <v>-9908311.938102566</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3463,19 @@
         <v>22815.8729</v>
       </c>
       <c r="G95" t="n">
-        <v>-9885496.065202566</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3497,19 @@
         <v>1053495.1941</v>
       </c>
       <c r="G96" t="n">
-        <v>-10938991.25930257</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3531,19 @@
         <v>127</v>
       </c>
       <c r="G97" t="n">
-        <v>-10938864.25930257</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3565,19 @@
         <v>1044115.4327</v>
       </c>
       <c r="G98" t="n">
-        <v>-11982979.69200257</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3599,19 @@
         <v>49750.3223</v>
       </c>
       <c r="G99" t="n">
-        <v>-12032730.01430257</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3633,19 @@
         <v>831413.3551</v>
       </c>
       <c r="G100" t="n">
-        <v>-12864143.36940257</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3667,19 @@
         <v>200</v>
       </c>
       <c r="G101" t="n">
-        <v>-12863943.36940257</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3701,19 @@
         <v>13326.177</v>
       </c>
       <c r="G102" t="n">
-        <v>-12863943.36940257</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3735,19 @@
         <v>11840</v>
       </c>
       <c r="G103" t="n">
-        <v>-12852103.36940257</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3769,19 @@
         <v>1000</v>
       </c>
       <c r="G104" t="n">
-        <v>-12853103.36940257</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3803,19 @@
         <v>11960</v>
       </c>
       <c r="G105" t="n">
-        <v>-12865063.36940257</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3837,19 @@
         <v>15492.3761</v>
       </c>
       <c r="G106" t="n">
-        <v>-12880555.74550257</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3871,19 @@
         <v>26357.795835449</v>
       </c>
       <c r="G107" t="n">
-        <v>-12854197.94966712</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3905,19 @@
         <v>128</v>
       </c>
       <c r="G108" t="n">
-        <v>-12854325.94966712</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3939,19 @@
         <v>1945.7048</v>
       </c>
       <c r="G109" t="n">
-        <v>-12856271.65446712</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3973,19 @@
         <v>127</v>
       </c>
       <c r="G110" t="n">
-        <v>-12856144.65446712</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4007,19 @@
         <v>6461.8709</v>
       </c>
       <c r="G111" t="n">
-        <v>-12862606.52536712</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4041,19 @@
         <v>8310</v>
       </c>
       <c r="G112" t="n">
-        <v>-12854296.52536712</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4075,19 @@
         <v>12294.1177</v>
       </c>
       <c r="G113" t="n">
-        <v>-12866590.64306712</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4109,19 @@
         <v>128</v>
       </c>
       <c r="G114" t="n">
-        <v>-12866462.64306712</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4143,19 @@
         <v>22815.8729</v>
       </c>
       <c r="G115" t="n">
-        <v>-12889278.51596712</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4177,19 @@
         <v>22815.873</v>
       </c>
       <c r="G116" t="n">
-        <v>-12866462.64296712</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4211,19 @@
         <v>22717.4329</v>
       </c>
       <c r="G117" t="n">
-        <v>-12843745.21006712</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4245,19 @@
         <v>156148.4449</v>
       </c>
       <c r="G118" t="n">
-        <v>-12999893.65496712</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4279,19 @@
         <v>159252.649</v>
       </c>
       <c r="G119" t="n">
-        <v>-12999893.65496712</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4313,19 @@
         <v>127</v>
       </c>
       <c r="G120" t="n">
-        <v>-12999766.65496712</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4347,19 @@
         <v>40000</v>
       </c>
       <c r="G121" t="n">
-        <v>-12999766.65496712</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4381,19 @@
         <v>16477.2313</v>
       </c>
       <c r="G122" t="n">
-        <v>-13016243.88626712</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4415,19 @@
         <v>69325.4152</v>
       </c>
       <c r="G123" t="n">
-        <v>-13085569.30146712</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4449,19 @@
         <v>181954.766</v>
       </c>
       <c r="G124" t="n">
-        <v>-13085569.30146712</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4483,19 @@
         <v>8230</v>
       </c>
       <c r="G125" t="n">
-        <v>-13093799.30146712</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4517,19 @@
         <v>30659.1162</v>
       </c>
       <c r="G126" t="n">
-        <v>-13124458.41766712</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,22 +4551,19 @@
         <v>128</v>
       </c>
       <c r="G127" t="n">
-        <v>-13124330.41766712</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="J127" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4610,24 +4585,19 @@
         <v>934.2732999999999</v>
       </c>
       <c r="G128" t="n">
-        <v>-13125264.69096712</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4649,26 +4619,19 @@
         <v>128</v>
       </c>
       <c r="G129" t="n">
-        <v>-13125136.69096712</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="J129" t="n">
-        <v>3.896</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4690,22 +4653,19 @@
         <v>127</v>
       </c>
       <c r="G130" t="n">
-        <v>-13125009.69096712</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4727,24 +4687,19 @@
         <v>25171.5443</v>
       </c>
       <c r="G131" t="n">
-        <v>-13125009.69096712</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4766,24 +4721,19 @@
         <v>14421.6078</v>
       </c>
       <c r="G132" t="n">
-        <v>-13139431.29876712</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4805,18 +4755,19 @@
         <v>206637.2377</v>
       </c>
       <c r="G133" t="n">
-        <v>-13346068.53646712</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4838,18 +4789,19 @@
         <v>23587.6296</v>
       </c>
       <c r="G134" t="n">
-        <v>-13322480.90686712</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4871,22 +4823,19 @@
         <v>128</v>
       </c>
       <c r="G135" t="n">
-        <v>-13322352.90686712</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4908,24 +4857,19 @@
         <v>21090.9537</v>
       </c>
       <c r="G136" t="n">
-        <v>-13343443.86056712</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4947,24 +4891,19 @@
         <v>128</v>
       </c>
       <c r="G137" t="n">
-        <v>-13343315.86056712</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>3.908</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4986,18 +4925,19 @@
         <v>218175.9958</v>
       </c>
       <c r="G138" t="n">
-        <v>-13343315.86056712</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5019,18 +4959,19 @@
         <v>78347.66740000001</v>
       </c>
       <c r="G139" t="n">
-        <v>-13421663.52796712</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5052,24 +4993,19 @@
         <v>160000</v>
       </c>
       <c r="G140" t="n">
-        <v>-13581663.52796712</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.909</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5091,24 +5027,19 @@
         <v>167.1127</v>
       </c>
       <c r="G141" t="n">
-        <v>-13581496.41526712</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.901</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5130,24 +5061,19 @@
         <v>466.9355</v>
       </c>
       <c r="G142" t="n">
-        <v>-13581029.47976712</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.902</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5169,24 +5095,19 @@
         <v>151640.8232</v>
       </c>
       <c r="G143" t="n">
-        <v>-13581029.47976712</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5208,24 +5129,19 @@
         <v>75618.92570000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-13656648.40546712</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.905</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5247,24 +5163,19 @@
         <v>128</v>
       </c>
       <c r="G145" t="n">
-        <v>-13656520.40546712</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.904</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5286,24 +5197,19 @@
         <v>167.1127</v>
       </c>
       <c r="G146" t="n">
-        <v>-13656687.51816712</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5325,24 +5231,19 @@
         <v>129</v>
       </c>
       <c r="G147" t="n">
-        <v>-13656558.51816712</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3.907</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5364,24 +5265,19 @@
         <v>66824.6165</v>
       </c>
       <c r="G148" t="n">
-        <v>-13656558.51816712</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5403,24 +5299,19 @@
         <v>484078.1505</v>
       </c>
       <c r="G149" t="n">
-        <v>-13172480.36766712</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5442,24 +5333,19 @@
         <v>1818.1818</v>
       </c>
       <c r="G150" t="n">
-        <v>-13172480.36766712</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5481,24 +5367,19 @@
         <v>47712.1269</v>
       </c>
       <c r="G151" t="n">
-        <v>-13172480.36766712</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5520,24 +5401,19 @@
         <v>1916.719</v>
       </c>
       <c r="G152" t="n">
-        <v>-13172480.36766712</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5559,24 +5435,19 @@
         <v>45112</v>
       </c>
       <c r="G153" t="n">
-        <v>-13217592.36766712</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5598,24 +5469,19 @@
         <v>50000.8856</v>
       </c>
       <c r="G154" t="n">
-        <v>-13267593.25326712</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5637,24 +5503,19 @@
         <v>9000</v>
       </c>
       <c r="G155" t="n">
-        <v>-13276593.25326712</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5676,24 +5537,19 @@
         <v>130</v>
       </c>
       <c r="G156" t="n">
-        <v>-13276463.25326712</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.915</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5715,24 +5571,19 @@
         <v>919.5351000000001</v>
       </c>
       <c r="G157" t="n">
-        <v>-13276463.25326712</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5754,24 +5605,19 @@
         <v>9001.933999999999</v>
       </c>
       <c r="G158" t="n">
-        <v>-13285465.18726712</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5793,24 +5639,19 @@
         <v>128</v>
       </c>
       <c r="G159" t="n">
-        <v>-13285337.18726712</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.925</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5832,24 +5673,19 @@
         <v>312957.3952</v>
       </c>
       <c r="G160" t="n">
-        <v>-12972379.79206712</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.964</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5871,24 +5707,19 @@
         <v>61710</v>
       </c>
       <c r="G161" t="n">
-        <v>-12972379.79206712</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5910,24 +5741,19 @@
         <v>20570</v>
       </c>
       <c r="G162" t="n">
-        <v>-12972379.79206712</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5949,24 +5775,19 @@
         <v>74531.7426</v>
       </c>
       <c r="G163" t="n">
-        <v>-12897848.04946712</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5988,24 +5809,19 @@
         <v>180796.3966</v>
       </c>
       <c r="G164" t="n">
-        <v>-12717051.65286712</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.978</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6027,24 +5843,19 @@
         <v>830</v>
       </c>
       <c r="G165" t="n">
-        <v>-12717881.65286712</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6066,24 +5877,19 @@
         <v>128</v>
       </c>
       <c r="G166" t="n">
-        <v>-12718009.65286712</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6105,24 +5911,19 @@
         <v>292.5464</v>
       </c>
       <c r="G167" t="n">
-        <v>-12717717.10646712</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6144,24 +5945,19 @@
         <v>2300</v>
       </c>
       <c r="G168" t="n">
-        <v>-12715417.10646712</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.966</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6183,24 +5979,19 @@
         <v>5000</v>
       </c>
       <c r="G169" t="n">
-        <v>-12710417.10646712</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.981</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6222,24 +6013,19 @@
         <v>300</v>
       </c>
       <c r="G170" t="n">
-        <v>-12710717.10646712</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.986</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6261,24 +6047,19 @@
         <v>8941.1659</v>
       </c>
       <c r="G171" t="n">
-        <v>-12710717.10646712</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6300,24 +6081,19 @@
         <v>130</v>
       </c>
       <c r="G172" t="n">
-        <v>-12710587.10646712</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6339,24 +6115,19 @@
         <v>11000</v>
       </c>
       <c r="G173" t="n">
-        <v>-12721587.10646712</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6378,24 +6149,19 @@
         <v>412004.0724</v>
       </c>
       <c r="G174" t="n">
-        <v>-12309583.03406712</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.951</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6417,24 +6183,19 @@
         <v>130</v>
       </c>
       <c r="G175" t="n">
-        <v>-12309713.03406712</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.988</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6456,24 +6217,19 @@
         <v>200</v>
       </c>
       <c r="G176" t="n">
-        <v>-12309913.03406712</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.961</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6495,24 +6251,19 @@
         <v>351730.5598</v>
       </c>
       <c r="G177" t="n">
-        <v>-11958182.47426712</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6534,24 +6285,19 @@
         <v>5000</v>
       </c>
       <c r="G178" t="n">
-        <v>-11953182.47426712</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.989</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6573,24 +6319,19 @@
         <v>403.8864</v>
       </c>
       <c r="G179" t="n">
-        <v>-11953586.36066712</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>4</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6612,24 +6353,19 @@
         <v>40788.1085</v>
       </c>
       <c r="G180" t="n">
-        <v>-11994374.46916712</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6651,24 +6387,19 @@
         <v>28571</v>
       </c>
       <c r="G181" t="n">
-        <v>-12022945.46916712</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6690,24 +6421,19 @@
         <v>1818.1818</v>
       </c>
       <c r="G182" t="n">
-        <v>-12021127.28736712</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.968</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6729,24 +6455,19 @@
         <v>100000</v>
       </c>
       <c r="G183" t="n">
-        <v>-12121127.28736712</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3.997</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6768,24 +6489,19 @@
         <v>19800</v>
       </c>
       <c r="G184" t="n">
-        <v>-12140927.28736712</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>3.996</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6807,24 +6523,19 @@
         <v>28340</v>
       </c>
       <c r="G185" t="n">
-        <v>-12112587.28736712</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6846,24 +6557,19 @@
         <v>85915.8014</v>
       </c>
       <c r="G186" t="n">
-        <v>-12112587.28736712</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6885,24 +6591,19 @@
         <v>100000</v>
       </c>
       <c r="G187" t="n">
-        <v>-12112587.28736712</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6924,24 +6625,19 @@
         <v>1234</v>
       </c>
       <c r="G188" t="n">
-        <v>-12111353.28736712</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.965</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6963,24 +6659,19 @@
         <v>231516</v>
       </c>
       <c r="G189" t="n">
-        <v>-12342869.28736712</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.987</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7002,24 +6693,19 @@
         <v>100000</v>
       </c>
       <c r="G190" t="n">
-        <v>-12342869.28736712</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7041,24 +6727,19 @@
         <v>6691.6821</v>
       </c>
       <c r="G191" t="n">
-        <v>-12336177.60526712</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.959</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7080,24 +6761,19 @@
         <v>10000</v>
       </c>
       <c r="G192" t="n">
-        <v>-12346177.60526712</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.995</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7119,24 +6795,19 @@
         <v>8466</v>
       </c>
       <c r="G193" t="n">
-        <v>-12354643.60526712</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7158,24 +6829,19 @@
         <v>8470</v>
       </c>
       <c r="G194" t="n">
-        <v>-12354643.60526712</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7197,24 +6863,19 @@
         <v>10000</v>
       </c>
       <c r="G195" t="n">
-        <v>-12364643.60526712</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7236,24 +6897,19 @@
         <v>10000</v>
       </c>
       <c r="G196" t="n">
-        <v>-12364643.60526712</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7275,24 +6931,19 @@
         <v>41250</v>
       </c>
       <c r="G197" t="n">
-        <v>-12364643.60526712</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7314,24 +6965,19 @@
         <v>61250</v>
       </c>
       <c r="G198" t="n">
-        <v>-12364643.60526712</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7353,24 +6999,19 @@
         <v>126</v>
       </c>
       <c r="G199" t="n">
-        <v>-12364517.60526712</v>
-      </c>
-      <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7392,22 +7033,19 @@
         <v>30000</v>
       </c>
       <c r="G200" t="n">
-        <v>-12394517.60526712</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7429,24 +7067,19 @@
         <v>156423.2056</v>
       </c>
       <c r="G201" t="n">
-        <v>-12394517.60526712</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.967</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7468,22 +7101,19 @@
         <v>76171.1225</v>
       </c>
       <c r="G202" t="n">
-        <v>-12394517.60526712</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7505,22 +7135,19 @@
         <v>20000</v>
       </c>
       <c r="G203" t="n">
-        <v>-12374517.60526712</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7542,22 +7169,19 @@
         <v>20000</v>
       </c>
       <c r="G204" t="n">
-        <v>-12354517.60526712</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7579,22 +7203,19 @@
         <v>30288.4548</v>
       </c>
       <c r="G205" t="n">
-        <v>-12324229.15046712</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7616,22 +7237,19 @@
         <v>126</v>
       </c>
       <c r="G206" t="n">
-        <v>-12324355.15046712</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7653,22 +7271,19 @@
         <v>50000</v>
       </c>
       <c r="G207" t="n">
-        <v>-12374355.15046712</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7690,22 +7305,19 @@
         <v>10000</v>
       </c>
       <c r="G208" t="n">
-        <v>-12384355.15046712</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7727,24 +7339,19 @@
         <v>36940</v>
       </c>
       <c r="G209" t="n">
-        <v>-12347415.15046712</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>3.948</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7766,22 +7373,19 @@
         <v>195414.8775</v>
       </c>
       <c r="G210" t="n">
-        <v>-12152000.27296712</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7803,22 +7407,19 @@
         <v>496507.3499</v>
       </c>
       <c r="G211" t="n">
-        <v>-12152000.27296712</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7840,24 +7441,19 @@
         <v>14552.0539</v>
       </c>
       <c r="G212" t="n">
-        <v>-12137448.21906712</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7879,24 +7475,19 @@
         <v>277.5</v>
       </c>
       <c r="G213" t="n">
-        <v>-12137725.71906712</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>3.972</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7918,22 +7509,19 @@
         <v>27131.802</v>
       </c>
       <c r="G214" t="n">
-        <v>-12137725.71906712</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7955,22 +7543,19 @@
         <v>3900</v>
       </c>
       <c r="G215" t="n">
-        <v>-12133825.71906712</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7992,22 +7577,19 @@
         <v>13000</v>
       </c>
       <c r="G216" t="n">
-        <v>-12120825.71906712</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8029,22 +7611,19 @@
         <v>15000</v>
       </c>
       <c r="G217" t="n">
-        <v>-12105825.71906712</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8066,22 +7645,19 @@
         <v>9642.7204</v>
       </c>
       <c r="G218" t="n">
-        <v>-12105825.71906712</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8103,22 +7679,19 @@
         <v>10000</v>
       </c>
       <c r="G219" t="n">
-        <v>-12095825.71906712</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8140,22 +7713,19 @@
         <v>45096.0638</v>
       </c>
       <c r="G220" t="n">
-        <v>-12050729.65526712</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8177,22 +7747,19 @@
         <v>4903.9362</v>
       </c>
       <c r="G221" t="n">
-        <v>-12050729.65526712</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8214,22 +7781,19 @@
         <v>40000</v>
       </c>
       <c r="G222" t="n">
-        <v>-12010729.65526712</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8251,22 +7815,19 @@
         <v>40000</v>
       </c>
       <c r="G223" t="n">
-        <v>-12010729.65526712</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8288,22 +7849,19 @@
         <v>11800</v>
       </c>
       <c r="G224" t="n">
-        <v>-11998929.65526712</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8325,22 +7883,19 @@
         <v>68200</v>
       </c>
       <c r="G225" t="n">
-        <v>-11930729.65526712</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8362,20 +7917,19 @@
         <v>2207523.25</v>
       </c>
       <c r="G226" t="n">
-        <v>-14138252.90526712</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
       </c>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8397,18 +7951,19 @@
         <v>1280</v>
       </c>
       <c r="G227" t="n">
-        <v>-14136972.90526712</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8430,18 +7985,19 @@
         <v>2406.2392</v>
       </c>
       <c r="G228" t="n">
-        <v>-14136972.90526712</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8463,18 +8019,19 @@
         <v>540000</v>
       </c>
       <c r="G229" t="n">
-        <v>-13596972.90526712</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8496,18 +8053,19 @@
         <v>182225.1521</v>
       </c>
       <c r="G230" t="n">
-        <v>-13414747.75316712</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8529,18 +8087,19 @@
         <v>40232.1885</v>
       </c>
       <c r="G231" t="n">
-        <v>-13454979.94166712</v>
-      </c>
-      <c r="H231" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8562,18 +8121,19 @@
         <v>1250</v>
       </c>
       <c r="G232" t="n">
-        <v>-13453729.94166712</v>
-      </c>
-      <c r="H232" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8595,18 +8155,19 @@
         <v>12222.9285</v>
       </c>
       <c r="G233" t="n">
-        <v>-13441507.01316712</v>
-      </c>
-      <c r="H233" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8628,18 +8189,19 @@
         <v>260000</v>
       </c>
       <c r="G234" t="n">
-        <v>-13181507.01316712</v>
-      </c>
-      <c r="H234" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8661,18 +8223,19 @@
         <v>13000</v>
       </c>
       <c r="G235" t="n">
-        <v>-13168507.01316712</v>
-      </c>
-      <c r="H235" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8694,18 +8257,17 @@
         <v>12694.6876</v>
       </c>
       <c r="G236" t="n">
-        <v>-13168507.01316712</v>
-      </c>
-      <c r="H236" t="n">
         <v>2</v>
       </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8727,18 +8289,15 @@
         <v>287195.8918</v>
       </c>
       <c r="G237" t="n">
-        <v>-12881311.12136712</v>
-      </c>
-      <c r="H237" t="n">
         <v>2</v>
       </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8760,18 +8319,15 @@
         <v>26940</v>
       </c>
       <c r="G238" t="n">
-        <v>-12908251.12136712</v>
-      </c>
-      <c r="H238" t="n">
         <v>2</v>
       </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8793,18 +8349,15 @@
         <v>13460</v>
       </c>
       <c r="G239" t="n">
-        <v>-12894791.12136712</v>
-      </c>
-      <c r="H239" t="n">
         <v>2</v>
       </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8826,18 +8379,15 @@
         <v>12244.0092</v>
       </c>
       <c r="G240" t="n">
-        <v>-12894791.12136712</v>
-      </c>
-      <c r="H240" t="n">
         <v>2</v>
       </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8859,18 +8409,15 @@
         <v>33080</v>
       </c>
       <c r="G241" t="n">
-        <v>-12927871.12136712</v>
-      </c>
-      <c r="H241" t="n">
         <v>2</v>
       </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8892,18 +8439,15 @@
         <v>280747.2842</v>
       </c>
       <c r="G242" t="n">
-        <v>-13208618.40556712</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8925,18 +8469,15 @@
         <v>224279.9438</v>
       </c>
       <c r="G243" t="n">
-        <v>-12984338.46176712</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8958,18 +8499,15 @@
         <v>1247.504990019</v>
       </c>
       <c r="G244" t="n">
-        <v>-12984338.46176712</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8991,18 +8529,15 @@
         <v>300868.380409981</v>
       </c>
       <c r="G245" t="n">
-        <v>-12984338.46176712</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9024,18 +8559,15 @@
         <v>287320.8918</v>
       </c>
       <c r="G246" t="n">
-        <v>-13271659.35356712</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9057,18 +8589,15 @@
         <v>127</v>
       </c>
       <c r="G247" t="n">
-        <v>-13271532.35356712</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9090,18 +8619,15 @@
         <v>73100</v>
       </c>
       <c r="G248" t="n">
-        <v>-13344632.35356712</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9123,18 +8649,15 @@
         <v>60000</v>
       </c>
       <c r="G249" t="n">
-        <v>-13284632.35356712</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9156,18 +8679,15 @@
         <v>176817.0685</v>
       </c>
       <c r="G250" t="n">
-        <v>-13461449.42206712</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9189,18 +8709,15 @@
         <v>35633.8139</v>
       </c>
       <c r="G251" t="n">
-        <v>-13425815.60816712</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9222,18 +8739,15 @@
         <v>11036.1861</v>
       </c>
       <c r="G252" t="n">
-        <v>-13425815.60816712</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9255,18 +8769,15 @@
         <v>30000</v>
       </c>
       <c r="G253" t="n">
-        <v>-13395815.60816712</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9288,18 +8799,15 @@
         <v>10000</v>
       </c>
       <c r="G254" t="n">
-        <v>-13385815.60816712</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9321,18 +8829,15 @@
         <v>10000</v>
       </c>
       <c r="G255" t="n">
-        <v>-13375815.60816712</v>
-      </c>
-      <c r="H255" t="n">
         <v>2</v>
       </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9354,18 +8859,15 @@
         <v>10000</v>
       </c>
       <c r="G256" t="n">
-        <v>-13365815.60816712</v>
-      </c>
-      <c r="H256" t="n">
         <v>2</v>
       </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9387,18 +8889,15 @@
         <v>858181.146926663</v>
       </c>
       <c r="G257" t="n">
-        <v>-12507634.46124046</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
